--- a/india_REV_input/Scenarios_Cost_Master_v8.xlsx
+++ b/india_REV_input/Scenarios_Cost_Master_v8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="840" windowWidth="45420" windowHeight="25060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="REvalue_input_csv" sheetId="11" r:id="rId1"/>
@@ -599,7 +599,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="526">
   <si>
     <t>Screening curves</t>
   </si>
@@ -2171,6 +2171,12 @@
   </si>
   <si>
     <t>coal_55mingen_battery60B50LC_wind30LC_solar30LC_coalHC</t>
+  </si>
+  <si>
+    <t>coal_55mingen_battery60B50LC</t>
+  </si>
+  <si>
+    <t>coal_55mingen_battery60B50LC_solar30LC</t>
   </si>
 </sst>
 </file>
@@ -2741,10 +2747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW47"/>
+  <dimension ref="A1:AY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="AJ9" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="AN9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="AR1" sqref="AR1"/>
@@ -2774,15 +2780,19 @@
     <col min="30" max="31" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="35" width="25" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.5" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="46" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="37" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>225</v>
       </c>
@@ -2907,31 +2917,37 @@
         <v>520</v>
       </c>
       <c r="AP1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>519</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>522</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AT1" t="s">
         <v>521</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>518</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>523</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>464</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>466</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>243</v>
       </c>
@@ -2947,7 +2963,7 @@
         <v>ChcC70m</v>
       </c>
       <c r="E2" s="21" t="str">
-        <f t="shared" ref="E2:AT2" si="0">E3</f>
+        <f t="shared" ref="E2:AV2" si="0">E3</f>
         <v>ClcC55m</v>
       </c>
       <c r="F2" s="21" t="str">
@@ -3096,38 +3112,46 @@
       </c>
       <c r="AP2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC55mB60W30lcS30lc</v>
+        <v>ClcC55mB60B50lc</v>
       </c>
       <c r="AQ2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC55mB60B50lcW30lcS30lc</v>
+        <v>ClcC55mB60W30lcS30lc</v>
       </c>
       <c r="AR2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ChcC55mB60</v>
+        <v>ClcC55mB60B50lcW30lcS30lc</v>
       </c>
       <c r="AS2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ChcC55mB60W30lcS30lc</v>
+        <v>ClcC55mB60B50lcS30lc</v>
       </c>
       <c r="AT2" s="21" t="str">
         <f t="shared" si="0"/>
+        <v>ChcC55mB60</v>
+      </c>
+      <c r="AU2" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>ChcC55mB60W30lcS30lc</v>
+      </c>
+      <c r="AV2" s="21" t="str">
+        <f t="shared" si="0"/>
         <v>ChcC55mB60B50lcW30lcS30lc</v>
-      </c>
-      <c r="AU2" s="21" t="str">
-        <f>AU3</f>
-        <v>ClcC70mLmod_D0_M0_energyOnly</v>
-      </c>
-      <c r="AV2" s="21" t="str">
-        <f>AV3</f>
-        <v>ClcC70mLmod_D50_M0_energyOnly</v>
       </c>
       <c r="AW2" s="21" t="str">
         <f>AW3</f>
+        <v>ClcC70mLmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AX2" s="21" t="str">
+        <f>AX3</f>
+        <v>ClcC70mLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AY2" s="21" t="str">
+        <f>AY3</f>
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>245</v>
       </c>
@@ -3284,56 +3308,64 @@
         <v>ClcC55mW30lcS30lc</v>
       </c>
       <c r="AO3" t="str">
-        <f t="shared" ref="AO3:AR3" si="11">CONCATENATE(AO10,AO13,AO17,AO19,AO21,AO25,AO29,AO33,AO36,AO39,AO42,AO44,AO47)</f>
+        <f t="shared" ref="AO3:AT3" si="11">CONCATENATE(AO10,AO13,AO17,AO19,AO21,AO25,AO29,AO33,AO36,AO39,AO42,AO44,AO47)</f>
         <v>ClcC55mB60</v>
       </c>
       <c r="AP3" t="str">
-        <f t="shared" ref="AP3:AQ3" si="12">CONCATENATE(AP10,AP13,AP17,AP19,AP21,AP25,AP29,AP33,AP36,AP39,AP42,AP44,AP47)</f>
+        <f t="shared" si="11"/>
+        <v>ClcC55mB60B50lc</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f t="shared" ref="AQ3:AR3" si="12">CONCATENATE(AQ10,AQ13,AQ17,AQ19,AQ21,AQ25,AQ29,AQ33,AQ36,AQ39,AQ42,AQ44,AQ47)</f>
         <v>ClcC55mB60W30lcS30lc</v>
       </c>
-      <c r="AQ3" t="str">
+      <c r="AR3" t="str">
         <f t="shared" si="12"/>
         <v>ClcC55mB60B50lcW30lcS30lc</v>
       </c>
-      <c r="AR3" t="str">
+      <c r="AS3" t="str">
+        <f t="shared" ref="AS3" si="13">CONCATENATE(AS10,AS13,AS17,AS19,AS21,AS25,AS29,AS33,AS36,AS39,AS42,AS44,AS47)</f>
+        <v>ClcC55mB60B50lcS30lc</v>
+      </c>
+      <c r="AT3" t="str">
         <f t="shared" si="11"/>
         <v>ChcC55mB60</v>
       </c>
-      <c r="AS3" t="str">
-        <f t="shared" ref="AS3:AT3" si="13">CONCATENATE(AS10,AS13,AS17,AS19,AS21,AS25,AS29,AS33,AS36,AS39,AS42,AS44,AS47)</f>
+      <c r="AU3" t="str">
+        <f t="shared" ref="AU3:AV3" si="14">CONCATENATE(AU10,AU13,AU17,AU19,AU21,AU25,AU29,AU33,AU36,AU39,AU42,AU44,AU47)</f>
         <v>ChcC55mB60W30lcS30lc</v>
       </c>
-      <c r="AT3" t="str">
-        <f t="shared" si="13"/>
+      <c r="AV3" t="str">
+        <f t="shared" si="14"/>
         <v>ChcC55mB60B50lcW30lcS30lc</v>
-      </c>
-      <c r="AU3" t="str">
-        <f>CONCATENATE(AU10,AU13,AU17,AU19,AU21,AU25,AU29,AU33,AU36,AU39,AU42,AU44,AU47)</f>
-        <v>ClcC70mLmod_D0_M0_energyOnly</v>
-      </c>
-      <c r="AV3" t="str">
-        <f>CONCATENATE(AV10,AV13,AV17,AV19,AV21,AV25,AV29,AV33,AV36,AV39,AV42,AV44,AV47)</f>
-        <v>ClcC70mLmod_D50_M0_energyOnly</v>
       </c>
       <c r="AW3" t="str">
         <f>CONCATENATE(AW10,AW13,AW17,AW19,AW21,AW25,AW29,AW33,AW36,AW39,AW42,AW44,AW47)</f>
+        <v>ClcC70mLmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AX3" t="str">
+        <f>CONCATENATE(AX10,AX13,AX17,AX19,AX21,AX25,AX29,AX33,AX36,AX39,AX42,AX44,AX47)</f>
+        <v>ClcC70mLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AY3" t="str">
+        <f>CONCATENATE(AY10,AY13,AY17,AY19,AY21,AY25,AY29,AY33,AY36,AY39,AY42,AY44,AY47)</f>
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>413</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:E4" si="14">CONCATENATE(C10,C13,C15,C17,C19,C21,C36,C39,C42,C44,C47)</f>
+        <f t="shared" ref="C4:E4" si="15">CONCATENATE(C10,C13,C15,C17,C19,C21,C36,C39,C42,C44,C47)</f>
         <v>ClcC70m</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ChcC70m</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ClcC55m</v>
       </c>
       <c r="F4" t="str">
@@ -3341,377 +3373,393 @@
         <v>ClcC0m</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:AW4" si="15">CONCATENATE(G10,G13,G15,G17,G19,G21,G36,G39,G42,G44,G47)</f>
+        <f t="shared" ref="G4:AY4" si="16">CONCATENATE(G10,G13,G15,G17,G19,G21,G36,G39,G42,G44,G47)</f>
         <v>ClcC70mH-25</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ClcC70mH25</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ClcC70mN64</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ClcC70mB15</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ClcC70mB30</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:M4" si="16">CONCATENATE(L10,L13,L15,L17,L19,L21,L36,L39,L42,L44,L47)</f>
+        <f t="shared" ref="L4:M4" si="17">CONCATENATE(L10,L13,L15,L17,L19,L21,L36,L39,L42,L44,L47)</f>
         <v>ClcC70mB60</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="16"/>
-        <v>ChcC70mB60</v>
-      </c>
-      <c r="N4" t="str">
-        <f t="shared" si="15"/>
-        <v>ClcC70m</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="15"/>
-        <v>ClcC70m</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" si="15"/>
-        <v>ClcC70m</v>
-      </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="15"/>
-        <v>ClcC70m</v>
-      </c>
-      <c r="R4" t="str">
-        <f t="shared" si="15"/>
-        <v>ClcC70m</v>
-      </c>
-      <c r="S4" t="str">
-        <f t="shared" si="15"/>
-        <v>ClcC70m</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" si="15"/>
-        <v>ClcC70m</v>
-      </c>
-      <c r="U4" t="str">
-        <f t="shared" si="15"/>
-        <v>ClcC70mW120</v>
-      </c>
-      <c r="V4" t="str">
-        <f t="shared" si="15"/>
-        <v>ClcC70mS1A</v>
-      </c>
-      <c r="W4" t="str">
-        <f t="shared" si="15"/>
-        <v>ClcC70mS90d</v>
-      </c>
-      <c r="X4" t="str">
-        <f t="shared" si="15"/>
-        <v>ClcC70mW120S1A</v>
-      </c>
-      <c r="Y4" t="str">
-        <f t="shared" si="15"/>
-        <v>ClcC70mB15</v>
-      </c>
-      <c r="Z4" t="str">
-        <f t="shared" si="15"/>
-        <v>ClcC70mB15</v>
-      </c>
-      <c r="AA4" t="str">
-        <f t="shared" si="15"/>
-        <v>ClcC70mB30</v>
-      </c>
-      <c r="AB4" t="str">
-        <f t="shared" si="15"/>
-        <v>ClcC70mB30</v>
-      </c>
-      <c r="AC4" t="str">
-        <f t="shared" ref="AC4:AG4" si="17">CONCATENATE(AC10,AC13,AC15,AC17,AC19,AC21,AC36,AC39,AC42,AC44,AC47)</f>
-        <v>ClcC70mB60</v>
-      </c>
-      <c r="AD4" t="str">
-        <f t="shared" ref="AD4:AF4" si="18">CONCATENATE(AD10,AD13,AD15,AD17,AD19,AD21,AD36,AD39,AD42,AD44,AD47)</f>
-        <v>ClcC70mB60</v>
-      </c>
-      <c r="AE4" t="str">
-        <f t="shared" ref="AE4" si="19">CONCATENATE(AE10,AE13,AE15,AE17,AE19,AE21,AE36,AE39,AE42,AE44,AE47)</f>
-        <v>ClcC70mB60</v>
-      </c>
-      <c r="AF4" t="str">
-        <f t="shared" si="18"/>
-        <v>ClcC70mB60</v>
-      </c>
-      <c r="AG4" t="str">
         <f t="shared" si="17"/>
         <v>ChcC70mB60</v>
       </c>
+      <c r="N4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClcC70m</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClcC70m</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClcC70m</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClcC70m</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClcC70m</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClcC70m</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClcC70m</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClcC70mW120</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClcC70mS1A</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClcC70mS90d</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClcC70mW120S1A</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClcC70mB15</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClcC70mB15</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClcC70mB30</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClcC70mB30</v>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" ref="AC4:AG4" si="18">CONCATENATE(AC10,AC13,AC15,AC17,AC19,AC21,AC36,AC39,AC42,AC44,AC47)</f>
+        <v>ClcC70mB60</v>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" ref="AD4:AF4" si="19">CONCATENATE(AD10,AD13,AD15,AD17,AD19,AD21,AD36,AD39,AD42,AD44,AD47)</f>
+        <v>ClcC70mB60</v>
+      </c>
+      <c r="AE4" t="str">
+        <f t="shared" ref="AE4" si="20">CONCATENATE(AE10,AE13,AE15,AE17,AE19,AE21,AE36,AE39,AE42,AE44,AE47)</f>
+        <v>ClcC70mB60</v>
+      </c>
+      <c r="AF4" t="str">
+        <f t="shared" si="19"/>
+        <v>ClcC70mB60</v>
+      </c>
+      <c r="AG4" t="str">
+        <f t="shared" si="18"/>
+        <v>ChcC70mB60</v>
+      </c>
       <c r="AH4" t="str">
-        <f t="shared" ref="AH4:AK4" si="20">CONCATENATE(AH10,AH13,AH15,AH17,AH19,AH21,AH36,AH39,AH42,AH44,AH47)</f>
+        <f t="shared" ref="AH4:AK4" si="21">CONCATENATE(AH10,AH13,AH15,AH17,AH19,AH21,AH36,AH39,AH42,AH44,AH47)</f>
         <v>ChcC70mB60</v>
       </c>
       <c r="AI4" t="str">
-        <f t="shared" ref="AI4" si="21">CONCATENATE(AI10,AI13,AI15,AI17,AI19,AI21,AI36,AI39,AI42,AI44,AI47)</f>
+        <f t="shared" ref="AI4" si="22">CONCATENATE(AI10,AI13,AI15,AI17,AI19,AI21,AI36,AI39,AI42,AI44,AI47)</f>
         <v>ChcC70mB60</v>
       </c>
       <c r="AJ4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ChcC70mB60</v>
       </c>
       <c r="AK4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ChcC70m</v>
       </c>
       <c r="AL4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ClcC55m</v>
       </c>
       <c r="AM4" t="str">
-        <f t="shared" ref="AM4:AN4" si="22">CONCATENATE(AM10,AM13,AM15,AM17,AM19,AM21,AM36,AM39,AM42,AM44,AM47)</f>
+        <f t="shared" ref="AM4:AN4" si="23">CONCATENATE(AM10,AM13,AM15,AM17,AM19,AM21,AM36,AM39,AM42,AM44,AM47)</f>
         <v>ClcC55m</v>
       </c>
       <c r="AN4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>ClcC55m</v>
       </c>
       <c r="AO4" t="str">
-        <f t="shared" ref="AO4:AR4" si="23">CONCATENATE(AO10,AO13,AO15,AO17,AO19,AO21,AO36,AO39,AO42,AO44,AO47)</f>
+        <f t="shared" ref="AO4:AT4" si="24">CONCATENATE(AO10,AO13,AO15,AO17,AO19,AO21,AO36,AO39,AO42,AO44,AO47)</f>
         <v>ClcC55mB60</v>
       </c>
       <c r="AP4" t="str">
-        <f t="shared" ref="AP4:AQ4" si="24">CONCATENATE(AP10,AP13,AP15,AP17,AP19,AP21,AP36,AP39,AP42,AP44,AP47)</f>
-        <v>ClcC55mB60</v>
-      </c>
-      <c r="AQ4" t="str">
         <f t="shared" si="24"/>
         <v>ClcC55mB60</v>
       </c>
+      <c r="AQ4" t="str">
+        <f t="shared" ref="AQ4:AR4" si="25">CONCATENATE(AQ10,AQ13,AQ15,AQ17,AQ19,AQ21,AQ36,AQ39,AQ42,AQ44,AQ47)</f>
+        <v>ClcC55mB60</v>
+      </c>
       <c r="AR4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
+        <v>ClcC55mB60</v>
+      </c>
+      <c r="AS4" t="str">
+        <f t="shared" ref="AS4" si="26">CONCATENATE(AS10,AS13,AS15,AS17,AS19,AS21,AS36,AS39,AS42,AS44,AS47)</f>
+        <v>ClcC55mB60</v>
+      </c>
+      <c r="AT4" t="str">
+        <f t="shared" si="24"/>
         <v>ChcC55mB60</v>
       </c>
-      <c r="AS4" t="str">
-        <f t="shared" ref="AS4:AT4" si="25">CONCATENATE(AS10,AS13,AS15,AS17,AS19,AS21,AS36,AS39,AS42,AS44,AS47)</f>
+      <c r="AU4" t="str">
+        <f t="shared" ref="AU4:AV4" si="27">CONCATENATE(AU10,AU13,AU15,AU17,AU19,AU21,AU36,AU39,AU42,AU44,AU47)</f>
         <v>ChcC55mB60</v>
       </c>
-      <c r="AT4" t="str">
-        <f t="shared" si="25"/>
+      <c r="AV4" t="str">
+        <f t="shared" si="27"/>
         <v>ChcC55mB60</v>
       </c>
-      <c r="AU4" t="str">
-        <f t="shared" si="15"/>
+      <c r="AW4" t="str">
+        <f t="shared" si="16"/>
         <v>ClcC70mLmod_D0_M0_energyOnly</v>
       </c>
-      <c r="AV4" t="str">
-        <f t="shared" si="15"/>
+      <c r="AX4" t="str">
+        <f t="shared" si="16"/>
         <v>ClcC70mLmod_D50_M0_energyOnly</v>
       </c>
-      <c r="AW4" t="str">
-        <f t="shared" si="15"/>
+      <c r="AY4" t="str">
+        <f t="shared" si="16"/>
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>246</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:W5" si="26">CONCATENATE(C11,C17,C19,C21,C36,C39,C42,C44,C47)</f>
+        <f t="shared" ref="C5:W5" si="28">CONCATENATE(C11,C17,C19,C21,C36,C39,C42,C44,C47)</f>
         <v>coallc</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>coalhc</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>coallc</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5" si="27">CONCATENATE(F11,F17,F19,F21,F36,F39,F42,F44,F47)</f>
+        <f t="shared" ref="F5" si="29">CONCATENATE(F11,F17,F19,F21,F36,F39,F42,F44,F47)</f>
         <v>coallc</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>coallcH-25</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>coallcH25</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>coallcN64</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>coallcB15</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>coallcB30</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5:M5" si="28">CONCATENATE(L11,L17,L19,L21,L36,L39,L42,L44,L47)</f>
+        <f t="shared" ref="L5:M5" si="30">CONCATENATE(L11,L17,L19,L21,L36,L39,L42,L44,L47)</f>
         <v>coallcB60</v>
       </c>
       <c r="M5" t="str">
+        <f t="shared" si="30"/>
+        <v>coalhcB60</v>
+      </c>
+      <c r="N5" t="str">
         <f t="shared" si="28"/>
+        <v>coallc</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="28"/>
+        <v>coallc</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="28"/>
+        <v>coallc</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="28"/>
+        <v>coallc</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="28"/>
+        <v>coallc</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="28"/>
+        <v>coallc</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="28"/>
+        <v>coallc</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="28"/>
+        <v>coallcW120</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="28"/>
+        <v>coallcS1A</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="28"/>
+        <v>coallcS90d</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" ref="X5:AC5" si="31">CONCATENATE(X11,X17,X19,X21,X36,X39,X42,X44,X47)</f>
+        <v>coallcW120S1A</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="31"/>
+        <v>coallcB15</v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="31"/>
+        <v>coallcB15</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="31"/>
+        <v>coallcB30</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="31"/>
+        <v>coallcB30</v>
+      </c>
+      <c r="AC5" t="str">
+        <f t="shared" si="31"/>
+        <v>coallcB60</v>
+      </c>
+      <c r="AD5" t="str">
+        <f t="shared" ref="AD5:AF5" si="32">CONCATENATE(AD11,AD17,AD19,AD21,AD36,AD39,AD42,AD44,AD47)</f>
+        <v>coallcB60</v>
+      </c>
+      <c r="AE5" t="str">
+        <f t="shared" ref="AE5" si="33">CONCATENATE(AE11,AE17,AE19,AE21,AE36,AE39,AE42,AE44,AE47)</f>
+        <v>coallcB60</v>
+      </c>
+      <c r="AF5" t="str">
+        <f t="shared" si="32"/>
+        <v>coallcB60</v>
+      </c>
+      <c r="AG5" t="str">
+        <f t="shared" ref="AG5:AH5" si="34">CONCATENATE(AG11,AG17,AG19,AG21,AG36,AG39,AG42,AG44,AG47)</f>
         <v>coalhcB60</v>
       </c>
-      <c r="N5" t="str">
-        <f t="shared" si="26"/>
+      <c r="AH5" t="str">
+        <f t="shared" si="34"/>
+        <v>coalhcB60</v>
+      </c>
+      <c r="AI5" t="str">
+        <f t="shared" ref="AI5" si="35">CONCATENATE(AI11,AI17,AI19,AI21,AI36,AI39,AI42,AI44,AI47)</f>
+        <v>coalhcB60</v>
+      </c>
+      <c r="AJ5" t="str">
+        <f t="shared" ref="AJ5:AK5" si="36">CONCATENATE(AJ11,AJ17,AJ19,AJ21,AJ36,AJ39,AJ42,AJ44,AJ47)</f>
+        <v>coalhcB60</v>
+      </c>
+      <c r="AK5" t="str">
+        <f t="shared" si="36"/>
+        <v>coalhc</v>
+      </c>
+      <c r="AL5" t="str">
+        <f t="shared" ref="AL5" si="37">CONCATENATE(AL11,AL17,AL19,AL21,AL36,AL39,AL42,AL44,AL47)</f>
         <v>coallc</v>
       </c>
-      <c r="O5" t="str">
-        <f t="shared" si="26"/>
+      <c r="AM5" t="str">
+        <f t="shared" ref="AM5:AN5" si="38">CONCATENATE(AM11,AM17,AM19,AM21,AM36,AM39,AM42,AM44,AM47)</f>
         <v>coallc</v>
       </c>
-      <c r="P5" t="str">
-        <f t="shared" si="26"/>
+      <c r="AN5" t="str">
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="26"/>
-        <v>coallc</v>
-      </c>
-      <c r="R5" t="str">
-        <f t="shared" si="26"/>
-        <v>coallc</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" si="26"/>
-        <v>coallc</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="26"/>
-        <v>coallc</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" si="26"/>
-        <v>coallcW120</v>
-      </c>
-      <c r="V5" t="str">
-        <f t="shared" si="26"/>
-        <v>coallcS1A</v>
-      </c>
-      <c r="W5" t="str">
-        <f t="shared" si="26"/>
-        <v>coallcS90d</v>
-      </c>
-      <c r="X5" t="str">
-        <f t="shared" ref="X5:AC5" si="29">CONCATENATE(X11,X17,X19,X21,X36,X39,X42,X44,X47)</f>
-        <v>coallcW120S1A</v>
-      </c>
-      <c r="Y5" t="str">
-        <f t="shared" si="29"/>
-        <v>coallcB15</v>
-      </c>
-      <c r="Z5" t="str">
-        <f t="shared" si="29"/>
-        <v>coallcB15</v>
-      </c>
-      <c r="AA5" t="str">
-        <f t="shared" si="29"/>
-        <v>coallcB30</v>
-      </c>
-      <c r="AB5" t="str">
-        <f t="shared" si="29"/>
-        <v>coallcB30</v>
-      </c>
-      <c r="AC5" t="str">
-        <f t="shared" si="29"/>
+      <c r="AO5" t="str">
+        <f t="shared" ref="AO5:AT5" si="39">CONCATENATE(AO11,AO17,AO19,AO21,AO36,AO39,AO42,AO44,AO47)</f>
         <v>coallcB60</v>
       </c>
-      <c r="AD5" t="str">
-        <f t="shared" ref="AD5:AF5" si="30">CONCATENATE(AD11,AD17,AD19,AD21,AD36,AD39,AD42,AD44,AD47)</f>
+      <c r="AP5" t="str">
+        <f t="shared" si="39"/>
         <v>coallcB60</v>
       </c>
-      <c r="AE5" t="str">
-        <f t="shared" ref="AE5" si="31">CONCATENATE(AE11,AE17,AE19,AE21,AE36,AE39,AE42,AE44,AE47)</f>
+      <c r="AQ5" t="str">
+        <f t="shared" ref="AQ5:AR5" si="40">CONCATENATE(AQ11,AQ17,AQ19,AQ21,AQ36,AQ39,AQ42,AQ44,AQ47)</f>
         <v>coallcB60</v>
       </c>
-      <c r="AF5" t="str">
-        <f t="shared" si="30"/>
+      <c r="AR5" t="str">
+        <f t="shared" si="40"/>
         <v>coallcB60</v>
       </c>
-      <c r="AG5" t="str">
-        <f t="shared" ref="AG5:AH5" si="32">CONCATENATE(AG11,AG17,AG19,AG21,AG36,AG39,AG42,AG44,AG47)</f>
-        <v>coalhcB60</v>
-      </c>
-      <c r="AH5" t="str">
-        <f t="shared" si="32"/>
-        <v>coalhcB60</v>
-      </c>
-      <c r="AI5" t="str">
-        <f t="shared" ref="AI5" si="33">CONCATENATE(AI11,AI17,AI19,AI21,AI36,AI39,AI42,AI44,AI47)</f>
-        <v>coalhcB60</v>
-      </c>
-      <c r="AJ5" t="str">
-        <f t="shared" ref="AJ5:AK5" si="34">CONCATENATE(AJ11,AJ17,AJ19,AJ21,AJ36,AJ39,AJ42,AJ44,AJ47)</f>
-        <v>coalhcB60</v>
-      </c>
-      <c r="AK5" t="str">
-        <f t="shared" si="34"/>
-        <v>coalhc</v>
-      </c>
-      <c r="AL5" t="str">
-        <f t="shared" ref="AL5" si="35">CONCATENATE(AL11,AL17,AL19,AL21,AL36,AL39,AL42,AL44,AL47)</f>
-        <v>coallc</v>
-      </c>
-      <c r="AM5" t="str">
-        <f t="shared" ref="AM5:AN5" si="36">CONCATENATE(AM11,AM17,AM19,AM21,AM36,AM39,AM42,AM44,AM47)</f>
-        <v>coallc</v>
-      </c>
-      <c r="AN5" t="str">
-        <f t="shared" si="36"/>
-        <v>coallc</v>
-      </c>
-      <c r="AO5" t="str">
-        <f t="shared" ref="AO5:AR5" si="37">CONCATENATE(AO11,AO17,AO19,AO21,AO36,AO39,AO42,AO44,AO47)</f>
+      <c r="AS5" t="str">
+        <f t="shared" ref="AS5" si="41">CONCATENATE(AS11,AS17,AS19,AS21,AS36,AS39,AS42,AS44,AS47)</f>
         <v>coallcB60</v>
-      </c>
-      <c r="AP5" t="str">
-        <f t="shared" ref="AP5:AQ5" si="38">CONCATENATE(AP11,AP17,AP19,AP21,AP36,AP39,AP42,AP44,AP47)</f>
-        <v>coallcB60</v>
-      </c>
-      <c r="AQ5" t="str">
-        <f t="shared" si="38"/>
-        <v>coallcB60</v>
-      </c>
-      <c r="AR5" t="str">
-        <f t="shared" si="37"/>
-        <v>coalhcB60</v>
-      </c>
-      <c r="AS5" t="str">
-        <f t="shared" ref="AS5:AT5" si="39">CONCATENATE(AS11,AS17,AS19,AS21,AS36,AS39,AS42,AS44,AS47)</f>
-        <v>coalhcB60</v>
       </c>
       <c r="AT5" t="str">
         <f t="shared" si="39"/>
         <v>coalhcB60</v>
       </c>
       <c r="AU5" t="str">
-        <f>CONCATENATE(AU11,AU17,AU19,AU21,AU36,AU39,AU42,AU44,AU47)</f>
-        <v>coallcLmod_D0_M0_energyOnly</v>
+        <f t="shared" ref="AU5:AV5" si="42">CONCATENATE(AU11,AU17,AU19,AU21,AU36,AU39,AU42,AU44,AU47)</f>
+        <v>coalhcB60</v>
       </c>
       <c r="AV5" t="str">
-        <f>CONCATENATE(AV11,AV17,AV19,AV21,AV36,AV39,AV42,AV44,AV47)</f>
-        <v>coallcLmod_D50_M0_energyOnly</v>
+        <f t="shared" si="42"/>
+        <v>coalhcB60</v>
       </c>
       <c r="AW5" t="str">
         <f>CONCATENATE(AW11,AW17,AW19,AW21,AW36,AW39,AW42,AW44,AW47)</f>
+        <v>coallcLmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AX5" t="str">
+        <f>CONCATENATE(AX11,AX17,AX19,AX21,AX36,AX39,AX42,AX44,AX47)</f>
+        <v>coallcLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AY5" t="str">
+        <f>CONCATENATE(AY11,AY17,AY19,AY21,AY36,AY39,AY42,AY44,AY47)</f>
         <v>coallcLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>247</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:W6" si="40">CONCATENATE(C11,C17,C19,C21,C36,C39,C42,C44,C47)</f>
+        <f t="shared" ref="C6:W6" si="43">CONCATENATE(C11,C17,C19,C21,C36,C39,C42,C44,C47)</f>
         <v>coallc</v>
       </c>
       <c r="D6" t="str">
@@ -3719,380 +3767,396 @@
         <v>coallc</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>coallc</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" ref="F6" si="41">CONCATENATE(F11,F17,F19,F21,F36,F39,F42,F44,F47)</f>
+        <f t="shared" ref="F6" si="44">CONCATENATE(F11,F17,F19,F21,F36,F39,F42,F44,F47)</f>
         <v>coallc</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>coallcH-25</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>coallcH25</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>coallcN64</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="40"/>
-        <v>coallcB15</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="40"/>
-        <v>coallcB30</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" ref="L6:M6" si="42">CONCATENATE(L11,L17,L19,L21,L36,L39,L42,L44,L47)</f>
-        <v>coallcB60</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="42"/>
-        <v>coalhcB60</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" si="40"/>
-        <v>coallc</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="40"/>
-        <v>coallc</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="40"/>
-        <v>coallc</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="40"/>
-        <v>coallc</v>
-      </c>
-      <c r="R6" t="str">
-        <f t="shared" si="40"/>
-        <v>coallc</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="40"/>
-        <v>coallc</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="40"/>
-        <v>coallc</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="40"/>
-        <v>coallcW120</v>
-      </c>
-      <c r="V6" t="str">
-        <f t="shared" si="40"/>
-        <v>coallcS1A</v>
-      </c>
-      <c r="W6" t="str">
-        <f t="shared" si="40"/>
-        <v>coallcS90d</v>
-      </c>
-      <c r="X6" t="str">
-        <f t="shared" ref="X6:AC6" si="43">CONCATENATE(X11,X17,X19,X21,X36,X39,X42,X44,X47)</f>
-        <v>coallcW120S1A</v>
-      </c>
-      <c r="Y6" t="str">
         <f t="shared" si="43"/>
         <v>coallcB15</v>
       </c>
-      <c r="Z6" t="str">
-        <f t="shared" si="43"/>
-        <v>coallcB15</v>
-      </c>
-      <c r="AA6" t="str">
+      <c r="K6" t="str">
         <f t="shared" si="43"/>
         <v>coallcB30</v>
       </c>
+      <c r="L6" t="str">
+        <f t="shared" ref="L6:M6" si="45">CONCATENATE(L11,L17,L19,L21,L36,L39,L42,L44,L47)</f>
+        <v>coallcB60</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="45"/>
+        <v>coalhcB60</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="43"/>
+        <v>coallc</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="43"/>
+        <v>coallc</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="43"/>
+        <v>coallc</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="43"/>
+        <v>coallc</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="43"/>
+        <v>coallc</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="43"/>
+        <v>coallc</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="43"/>
+        <v>coallc</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="43"/>
+        <v>coallcW120</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="43"/>
+        <v>coallcS1A</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="43"/>
+        <v>coallcS90d</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" ref="X6:AC6" si="46">CONCATENATE(X11,X17,X19,X21,X36,X39,X42,X44,X47)</f>
+        <v>coallcW120S1A</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="46"/>
+        <v>coallcB15</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="46"/>
+        <v>coallcB15</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="46"/>
+        <v>coallcB30</v>
+      </c>
       <c r="AB6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>coallcB30</v>
       </c>
       <c r="AC6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>coallcB60</v>
       </c>
       <c r="AD6" t="str">
-        <f t="shared" ref="AD6:AF6" si="44">CONCATENATE(AD11,AD17,AD19,AD21,AD36,AD39,AD42,AD44,AD47)</f>
+        <f t="shared" ref="AD6:AF6" si="47">CONCATENATE(AD11,AD17,AD19,AD21,AD36,AD39,AD42,AD44,AD47)</f>
         <v>coallcB60</v>
       </c>
       <c r="AE6" t="str">
-        <f t="shared" ref="AE6" si="45">CONCATENATE(AE11,AE17,AE19,AE21,AE36,AE39,AE42,AE44,AE47)</f>
+        <f t="shared" ref="AE6" si="48">CONCATENATE(AE11,AE17,AE19,AE21,AE36,AE39,AE42,AE44,AE47)</f>
         <v>coallcB60</v>
       </c>
       <c r="AF6" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>coallcB60</v>
       </c>
       <c r="AG6" t="str">
-        <f t="shared" ref="AG6:AH6" si="46">CONCATENATE(AG11,AG17,AG19,AG21,AG36,AG39,AG42,AG44,AG47)</f>
+        <f t="shared" ref="AG6:AH6" si="49">CONCATENATE(AG11,AG17,AG19,AG21,AG36,AG39,AG42,AG44,AG47)</f>
         <v>coalhcB60</v>
       </c>
       <c r="AH6" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>coalhcB60</v>
       </c>
       <c r="AI6" t="str">
-        <f t="shared" ref="AI6" si="47">CONCATENATE(AI11,AI17,AI19,AI21,AI36,AI39,AI42,AI44,AI47)</f>
+        <f t="shared" ref="AI6" si="50">CONCATENATE(AI11,AI17,AI19,AI21,AI36,AI39,AI42,AI44,AI47)</f>
         <v>coalhcB60</v>
       </c>
       <c r="AJ6" t="str">
-        <f t="shared" ref="AJ6:AK6" si="48">CONCATENATE(AJ11,AJ17,AJ19,AJ21,AJ36,AJ39,AJ42,AJ44,AJ47)</f>
+        <f t="shared" ref="AJ6:AK6" si="51">CONCATENATE(AJ11,AJ17,AJ19,AJ21,AJ36,AJ39,AJ42,AJ44,AJ47)</f>
         <v>coalhcB60</v>
       </c>
       <c r="AK6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>coalhc</v>
       </c>
       <c r="AL6" t="str">
-        <f t="shared" ref="AL6:AM6" si="49">CONCATENATE(AL11,AL17,AL19,AL21,AL36,AL39,AL42,AL44,AL47)</f>
+        <f t="shared" ref="AL6:AM6" si="52">CONCATENATE(AL11,AL17,AL19,AL21,AL36,AL39,AL42,AL44,AL47)</f>
         <v>coallc</v>
       </c>
       <c r="AM6" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>coallc</v>
       </c>
       <c r="AN6" t="str">
-        <f t="shared" ref="AN6:AO6" si="50">CONCATENATE(AN11,AN17,AN19,AN21,AN36,AN39,AN42,AN44,AN47)</f>
+        <f t="shared" ref="AN6:AP6" si="53">CONCATENATE(AN11,AN17,AN19,AN21,AN36,AN39,AN42,AN44,AN47)</f>
         <v>coallc</v>
       </c>
       <c r="AO6" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>coallcB60</v>
       </c>
       <c r="AP6" t="str">
-        <f t="shared" ref="AP6:AQ6" si="51">CONCATENATE(AP11,AP17,AP19,AP21,AP36,AP39,AP42,AP44,AP47)</f>
+        <f t="shared" si="53"/>
         <v>coallcB60</v>
       </c>
       <c r="AQ6" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="AQ6:AR6" si="54">CONCATENATE(AQ11,AQ17,AQ19,AQ21,AQ36,AQ39,AQ42,AQ44,AQ47)</f>
         <v>coallcB60</v>
       </c>
       <c r="AR6" t="str">
-        <f t="shared" ref="AR6:AT6" si="52">CONCATENATE(AR11,AR17,AR19,AR21,AR36,AR39,AR42,AR44,AR47)</f>
+        <f t="shared" si="54"/>
+        <v>coallcB60</v>
+      </c>
+      <c r="AS6" t="str">
+        <f t="shared" ref="AS6" si="55">CONCATENATE(AS11,AS17,AS19,AS21,AS36,AS39,AS42,AS44,AS47)</f>
+        <v>coallcB60</v>
+      </c>
+      <c r="AT6" t="str">
+        <f t="shared" ref="AT6:AV6" si="56">CONCATENATE(AT11,AT17,AT19,AT21,AT36,AT39,AT42,AT44,AT47)</f>
         <v>coalhcB60</v>
       </c>
-      <c r="AS6" t="str">
-        <f t="shared" si="52"/>
+      <c r="AU6" t="str">
+        <f t="shared" si="56"/>
         <v>coalhcB60</v>
       </c>
-      <c r="AT6" t="str">
-        <f t="shared" si="52"/>
+      <c r="AV6" t="str">
+        <f t="shared" si="56"/>
         <v>coalhcB60</v>
-      </c>
-      <c r="AU6" t="str">
-        <f>CONCATENATE(AU11,AU17,AU19,AU21,AU36,AU39,AU42,AU44,AU47)</f>
-        <v>coallcLmod_D0_M0_energyOnly</v>
-      </c>
-      <c r="AV6" t="str">
-        <f>CONCATENATE(AV11,AV17,AV19,AV21,AV36,AV39,AV42,AV44,AV47)</f>
-        <v>coallcLmod_D50_M0_energyOnly</v>
       </c>
       <c r="AW6" t="str">
         <f>CONCATENATE(AW11,AW17,AW19,AW21,AW36,AW39,AW42,AW44,AW47)</f>
+        <v>coallcLmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AX6" t="str">
+        <f>CONCATENATE(AX11,AX17,AX19,AX21,AX36,AX39,AX42,AX44,AX47)</f>
+        <v>coallcLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AY6" t="str">
+        <f>CONCATENATE(AY11,AY17,AY19,AY21,AY36,AY39,AY42,AY44,AY47)</f>
         <v>coallcLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>248</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:W7" si="53">CONCATENATE(C37,"_",C40)</f>
+        <f t="shared" ref="C7:W7" si="57">CONCATENATE(C37,"_",C40)</f>
         <v>W80_S0d</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" ref="F7" si="54">CONCATENATE(F37,"_",F40)</f>
-        <v>W80_S0d</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" ref="L7:M7" si="55">CONCATENATE(L37,"_",L40)</f>
-        <v>W80_S0d</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="55"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="R7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="53"/>
-        <v>W120_S0d</v>
-      </c>
-      <c r="V7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S1A</v>
-      </c>
-      <c r="W7" t="str">
-        <f t="shared" si="53"/>
-        <v>W80_S90d</v>
-      </c>
-      <c r="X7" t="str">
-        <f t="shared" ref="X7:AC7" si="56">CONCATENATE(X37,"_",X40)</f>
-        <v>W120_S1A</v>
-      </c>
-      <c r="Y7" t="str">
-        <f t="shared" si="56"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="Z7" t="str">
-        <f t="shared" si="56"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="AA7" t="str">
-        <f t="shared" si="56"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="AB7" t="str">
-        <f t="shared" si="56"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="AC7" t="str">
-        <f t="shared" si="56"/>
-        <v>W80_S0d</v>
-      </c>
-      <c r="AD7" t="str">
-        <f t="shared" ref="AD7:AF7" si="57">CONCATENATE(AD37,"_",AD40)</f>
-        <v>W80_S0d</v>
-      </c>
-      <c r="AE7" t="str">
-        <f t="shared" ref="AE7" si="58">CONCATENATE(AE37,"_",AE40)</f>
-        <v>W80_S0d</v>
-      </c>
-      <c r="AF7" t="str">
         <f t="shared" si="57"/>
         <v>W80_S0d</v>
       </c>
-      <c r="AG7" t="str">
-        <f t="shared" ref="AG7:AH7" si="59">CONCATENATE(AG37,"_",AG40)</f>
+      <c r="E7" t="str">
+        <f t="shared" si="57"/>
         <v>W80_S0d</v>
       </c>
-      <c r="AH7" t="str">
+      <c r="F7" t="str">
+        <f t="shared" ref="F7" si="58">CONCATENATE(F37,"_",F40)</f>
+        <v>W80_S0d</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="57"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="57"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="57"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="57"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="57"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" ref="L7:M7" si="59">CONCATENATE(L37,"_",L40)</f>
+        <v>W80_S0d</v>
+      </c>
+      <c r="M7" t="str">
         <f t="shared" si="59"/>
         <v>W80_S0d</v>
       </c>
-      <c r="AI7" t="str">
-        <f t="shared" ref="AI7" si="60">CONCATENATE(AI37,"_",AI40)</f>
+      <c r="N7" t="str">
+        <f t="shared" si="57"/>
         <v>W80_S0d</v>
       </c>
-      <c r="AJ7" t="str">
-        <f t="shared" ref="AJ7:AK7" si="61">CONCATENATE(AJ37,"_",AJ40)</f>
+      <c r="O7" t="str">
+        <f t="shared" si="57"/>
         <v>W80_S0d</v>
       </c>
-      <c r="AK7" t="str">
+      <c r="P7" t="str">
+        <f t="shared" si="57"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="57"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="57"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="57"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="57"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="57"/>
+        <v>W120_S0d</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="57"/>
+        <v>W80_S1A</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="57"/>
+        <v>W80_S90d</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" ref="X7:AC7" si="60">CONCATENATE(X37,"_",X40)</f>
+        <v>W120_S1A</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="60"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="60"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="60"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="60"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" si="60"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="AD7" t="str">
+        <f t="shared" ref="AD7:AF7" si="61">CONCATENATE(AD37,"_",AD40)</f>
+        <v>W80_S0d</v>
+      </c>
+      <c r="AE7" t="str">
+        <f t="shared" ref="AE7" si="62">CONCATENATE(AE37,"_",AE40)</f>
+        <v>W80_S0d</v>
+      </c>
+      <c r="AF7" t="str">
         <f t="shared" si="61"/>
         <v>W80_S0d</v>
       </c>
-      <c r="AL7" t="str">
-        <f t="shared" ref="AL7" si="62">CONCATENATE(AL37,"_",AL40)</f>
+      <c r="AG7" t="str">
+        <f t="shared" ref="AG7:AH7" si="63">CONCATENATE(AG37,"_",AG40)</f>
         <v>W80_S0d</v>
       </c>
-      <c r="AM7" t="str">
-        <f t="shared" ref="AM7:AN7" si="63">CONCATENATE(AM37,"_",AM40)</f>
-        <v>W80_S0d</v>
-      </c>
-      <c r="AN7" t="str">
+      <c r="AH7" t="str">
         <f t="shared" si="63"/>
         <v>W80_S0d</v>
       </c>
-      <c r="AO7" t="str">
-        <f t="shared" ref="AO7:AR7" si="64">CONCATENATE(AO37,"_",AO40)</f>
+      <c r="AI7" t="str">
+        <f t="shared" ref="AI7" si="64">CONCATENATE(AI37,"_",AI40)</f>
         <v>W80_S0d</v>
       </c>
-      <c r="AP7" t="str">
-        <f t="shared" ref="AP7:AQ7" si="65">CONCATENATE(AP37,"_",AP40)</f>
+      <c r="AJ7" t="str">
+        <f t="shared" ref="AJ7:AK7" si="65">CONCATENATE(AJ37,"_",AJ40)</f>
         <v>W80_S0d</v>
       </c>
-      <c r="AQ7" t="str">
+      <c r="AK7" t="str">
         <f t="shared" si="65"/>
         <v>W80_S0d</v>
       </c>
+      <c r="AL7" t="str">
+        <f t="shared" ref="AL7" si="66">CONCATENATE(AL37,"_",AL40)</f>
+        <v>W80_S0d</v>
+      </c>
+      <c r="AM7" t="str">
+        <f t="shared" ref="AM7:AN7" si="67">CONCATENATE(AM37,"_",AM40)</f>
+        <v>W80_S0d</v>
+      </c>
+      <c r="AN7" t="str">
+        <f t="shared" si="67"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="AO7" t="str">
+        <f t="shared" ref="AO7:AT7" si="68">CONCATENATE(AO37,"_",AO40)</f>
+        <v>W80_S0d</v>
+      </c>
+      <c r="AP7" t="str">
+        <f t="shared" si="68"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="AQ7" t="str">
+        <f t="shared" ref="AQ7:AR7" si="69">CONCATENATE(AQ37,"_",AQ40)</f>
+        <v>W80_S0d</v>
+      </c>
       <c r="AR7" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>W80_S0d</v>
       </c>
       <c r="AS7" t="str">
-        <f t="shared" ref="AS7:AT7" si="66">CONCATENATE(AS37,"_",AS40)</f>
+        <f t="shared" ref="AS7" si="70">CONCATENATE(AS37,"_",AS40)</f>
         <v>W80_S0d</v>
       </c>
       <c r="AT7" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>W80_S0d</v>
       </c>
       <c r="AU7" t="str">
-        <f>CONCATENATE(AU37,"_",AU40)</f>
+        <f t="shared" ref="AU7:AV7" si="71">CONCATENATE(AU37,"_",AU40)</f>
         <v>W80_S0d</v>
       </c>
       <c r="AV7" t="str">
-        <f>CONCATENATE(AV37,"_",AV40)</f>
+        <f t="shared" si="71"/>
         <v>W80_S0d</v>
       </c>
       <c r="AW7" t="str">
         <f>CONCATENATE(AW37,"_",AW40)</f>
         <v>W80_S0d</v>
       </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX7" t="str">
+        <f>CONCATENATE(AX37,"_",AX40)</f>
+        <v>W80_S0d</v>
+      </c>
+      <c r="AY7" t="str">
+        <f>CONCATENATE(AY37,"_",AY40)</f>
+        <v>W80_S0d</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>249</v>
       </c>
@@ -4101,191 +4165,199 @@
         <v>coallc</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ref="D8:AB8" si="67">CONCATENATE(D11,D29,D33,D25)</f>
+        <f t="shared" ref="D8:AB8" si="72">CONCATENATE(D11,D29,D33,D25)</f>
         <v>coalhc</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallc</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" ref="F8" si="68">CONCATENATE(F11,F29,F33,F25)</f>
+        <f t="shared" ref="F8" si="73">CONCATENATE(F11,F29,F33,F25)</f>
         <v>coallc</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallc</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallc</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallc</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallc</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallc</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" ref="L8:M8" si="69">CONCATENATE(L11,L29,L33,L25)</f>
+        <f t="shared" ref="L8:M8" si="74">CONCATENATE(L11,L29,L33,L25)</f>
         <v>coallc</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>coalhc</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallcW10lc</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallcW20lc</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallcW30lc</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallcS10lc</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallcS20lc</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallcS30lc</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallcW30lcS30lc</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallc</v>
       </c>
       <c r="V8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallc</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallc</v>
       </c>
       <c r="X8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallc</v>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallcB25lc</v>
       </c>
       <c r="Z8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallcB50lc</v>
       </c>
       <c r="AA8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallcB25lc</v>
       </c>
       <c r="AB8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>coallcB50lc</v>
       </c>
       <c r="AC8" t="str">
-        <f t="shared" ref="AC8:AG8" si="70">CONCATENATE(AC11,AC29,AC33,AC25)</f>
+        <f t="shared" ref="AC8:AG8" si="75">CONCATENATE(AC11,AC29,AC33,AC25)</f>
         <v>coallcB50lc</v>
       </c>
       <c r="AD8" t="str">
-        <f t="shared" ref="AD8:AF8" si="71">CONCATENATE(AD11,AD29,AD33,AD25)</f>
+        <f t="shared" ref="AD8:AF8" si="76">CONCATENATE(AD11,AD29,AD33,AD25)</f>
         <v>coallcW30lcB50lc</v>
       </c>
       <c r="AE8" t="str">
-        <f t="shared" ref="AE8" si="72">CONCATENATE(AE11,AE29,AE33,AE25)</f>
+        <f t="shared" ref="AE8" si="77">CONCATENATE(AE11,AE29,AE33,AE25)</f>
         <v>coallcS30lcB50lc</v>
       </c>
       <c r="AF8" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>coallcW30lcS30lcB50lc</v>
       </c>
       <c r="AG8" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>coalhcB50lc</v>
       </c>
       <c r="AH8" t="str">
-        <f t="shared" ref="AH8:AK8" si="73">CONCATENATE(AH11,AH29,AH33,AH25)</f>
+        <f t="shared" ref="AH8:AK8" si="78">CONCATENATE(AH11,AH29,AH33,AH25)</f>
         <v>coalhcW30lcB50lc</v>
       </c>
       <c r="AI8" t="str">
-        <f t="shared" ref="AI8" si="74">CONCATENATE(AI11,AI29,AI33,AI25)</f>
+        <f t="shared" ref="AI8" si="79">CONCATENATE(AI11,AI29,AI33,AI25)</f>
         <v>coalhcS30lcB50lc</v>
       </c>
       <c r="AJ8" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>coalhcW30lcS30lcB50lc</v>
       </c>
       <c r="AK8" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>coalhcW30lcS30lc</v>
       </c>
       <c r="AL8" t="str">
-        <f t="shared" ref="AL8" si="75">CONCATENATE(AL11,AL29,AL33,AL25)</f>
+        <f t="shared" ref="AL8" si="80">CONCATENATE(AL11,AL29,AL33,AL25)</f>
         <v>coallcW30lc</v>
       </c>
       <c r="AM8" t="str">
-        <f t="shared" ref="AM8:AN8" si="76">CONCATENATE(AM11,AM29,AM33,AM25)</f>
+        <f t="shared" ref="AM8:AN8" si="81">CONCATENATE(AM11,AM29,AM33,AM25)</f>
         <v>coallcS30lc</v>
       </c>
       <c r="AN8" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>coallcW30lcS30lc</v>
       </c>
       <c r="AO8" t="str">
-        <f t="shared" ref="AO8:AR8" si="77">CONCATENATE(AO11,AO29,AO33,AO25)</f>
+        <f t="shared" ref="AO8:AT8" si="82">CONCATENATE(AO11,AO29,AO33,AO25)</f>
         <v>coallc</v>
       </c>
       <c r="AP8" t="str">
-        <f t="shared" ref="AP8:AQ8" si="78">CONCATENATE(AP11,AP29,AP33,AP25)</f>
+        <f t="shared" si="82"/>
+        <v>coallcB50lc</v>
+      </c>
+      <c r="AQ8" t="str">
+        <f t="shared" ref="AQ8:AR8" si="83">CONCATENATE(AQ11,AQ29,AQ33,AQ25)</f>
         <v>coallcW30lcS30lc</v>
       </c>
-      <c r="AQ8" t="str">
-        <f t="shared" si="78"/>
+      <c r="AR8" t="str">
+        <f t="shared" si="83"/>
         <v>coallcW30lcS30lcB50lc</v>
       </c>
-      <c r="AR8" t="str">
-        <f t="shared" si="77"/>
+      <c r="AS8" t="str">
+        <f t="shared" ref="AS8" si="84">CONCATENATE(AS11,AS29,AS33,AS25)</f>
+        <v>coallcS30lcB50lc</v>
+      </c>
+      <c r="AT8" t="str">
+        <f t="shared" si="82"/>
         <v>coalhc</v>
       </c>
-      <c r="AS8" t="str">
-        <f t="shared" ref="AS8:AT8" si="79">CONCATENATE(AS11,AS29,AS33,AS25)</f>
+      <c r="AU8" t="str">
+        <f t="shared" ref="AU8:AV8" si="85">CONCATENATE(AU11,AU29,AU33,AU25)</f>
         <v>coalhcW30lcS30lc</v>
       </c>
-      <c r="AT8" t="str">
-        <f t="shared" si="79"/>
+      <c r="AV8" t="str">
+        <f t="shared" si="85"/>
         <v>coalhcW30lcS30lcB50lc</v>
-      </c>
-      <c r="AU8" t="str">
-        <f>CONCATENATE(AU11,AU29,AU33,AU25)</f>
-        <v>coallc</v>
-      </c>
-      <c r="AV8" t="str">
-        <f>CONCATENATE(AV11,AV29,AV33,AV25)</f>
-        <v>coallc</v>
       </c>
       <c r="AW8" t="str">
         <f>CONCATENATE(AW11,AW29,AW33,AW25)</f>
         <v>coallc</v>
       </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX8" t="str">
+        <f>CONCATENATE(AX11,AX29,AX33,AX25)</f>
+        <v>coallc</v>
+      </c>
+      <c r="AY8" t="str">
+        <f>CONCATENATE(AY11,AY29,AY33,AY25)</f>
+        <v>coallc</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>250</v>
       </c>
@@ -4416,25 +4488,31 @@
         <v>252</v>
       </c>
       <c r="AR9" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AS9" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AT9" s="21" t="s">
         <v>253</v>
       </c>
       <c r="AU9" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AV9" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AW9" s="21" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX9" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY9" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>254</v>
       </c>
@@ -4443,384 +4521,400 @@
         <v>Clc</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:W10" si="80">CONCATENATE("C", LEFT(D9,1), "c")</f>
+        <f t="shared" ref="D10:W10" si="86">CONCATENATE("C", LEFT(D9,1), "c")</f>
         <v>Chc</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>Clc</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" ref="F10" si="81">CONCATENATE("C", LEFT(F9,1), "c")</f>
+        <f t="shared" ref="F10" si="87">CONCATENATE("C", LEFT(F9,1), "c")</f>
         <v>Clc</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>Clc</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>Clc</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>Clc</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>Clc</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>Clc</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:M10" si="82">CONCATENATE("C", LEFT(L9,1), "c")</f>
+        <f t="shared" ref="L10:M10" si="88">CONCATENATE("C", LEFT(L9,1), "c")</f>
         <v>Clc</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="82"/>
-        <v>Chc</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="80"/>
-        <v>Clc</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="80"/>
-        <v>Clc</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="80"/>
-        <v>Clc</v>
-      </c>
-      <c r="Q10" t="str">
-        <f t="shared" si="80"/>
-        <v>Clc</v>
-      </c>
-      <c r="R10" t="str">
-        <f t="shared" si="80"/>
-        <v>Clc</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="80"/>
-        <v>Clc</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="80"/>
-        <v>Clc</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="80"/>
-        <v>Clc</v>
-      </c>
-      <c r="V10" t="str">
-        <f t="shared" si="80"/>
-        <v>Clc</v>
-      </c>
-      <c r="W10" t="str">
-        <f t="shared" si="80"/>
-        <v>Clc</v>
-      </c>
-      <c r="X10" t="str">
-        <f t="shared" ref="X10:AC10" si="83">CONCATENATE("C", LEFT(X9,1), "c")</f>
-        <v>Clc</v>
-      </c>
-      <c r="Y10" t="str">
-        <f t="shared" si="83"/>
-        <v>Clc</v>
-      </c>
-      <c r="Z10" t="str">
-        <f t="shared" si="83"/>
-        <v>Clc</v>
-      </c>
-      <c r="AA10" t="str">
-        <f t="shared" si="83"/>
-        <v>Clc</v>
-      </c>
-      <c r="AB10" t="str">
-        <f t="shared" si="83"/>
-        <v>Clc</v>
-      </c>
-      <c r="AC10" t="str">
-        <f t="shared" si="83"/>
-        <v>Clc</v>
-      </c>
-      <c r="AD10" t="str">
-        <f t="shared" ref="AD10:AF10" si="84">CONCATENATE("C", LEFT(AD9,1), "c")</f>
-        <v>Clc</v>
-      </c>
-      <c r="AE10" t="str">
-        <f t="shared" ref="AE10" si="85">CONCATENATE("C", LEFT(AE9,1), "c")</f>
-        <v>Clc</v>
-      </c>
-      <c r="AF10" t="str">
-        <f t="shared" si="84"/>
-        <v>Clc</v>
-      </c>
-      <c r="AG10" t="str">
-        <f t="shared" ref="AG10:AH10" si="86">CONCATENATE("C", LEFT(AG9,1), "c")</f>
-        <v>Chc</v>
-      </c>
-      <c r="AH10" t="str">
-        <f t="shared" si="86"/>
-        <v>Chc</v>
-      </c>
-      <c r="AI10" t="str">
-        <f t="shared" ref="AI10" si="87">CONCATENATE("C", LEFT(AI9,1), "c")</f>
-        <v>Chc</v>
-      </c>
-      <c r="AJ10" t="str">
-        <f t="shared" ref="AJ10:AK10" si="88">CONCATENATE("C", LEFT(AJ9,1), "c")</f>
-        <v>Chc</v>
-      </c>
-      <c r="AK10" t="str">
         <f t="shared" si="88"/>
         <v>Chc</v>
       </c>
-      <c r="AL10" t="str">
-        <f t="shared" ref="AL10" si="89">CONCATENATE("C", LEFT(AL9,1), "c")</f>
+      <c r="N10" t="str">
+        <f t="shared" si="86"/>
         <v>Clc</v>
       </c>
-      <c r="AM10" t="str">
-        <f t="shared" ref="AM10:AN10" si="90">CONCATENATE("C", LEFT(AM9,1), "c")</f>
+      <c r="O10" t="str">
+        <f t="shared" si="86"/>
         <v>Clc</v>
       </c>
-      <c r="AN10" t="str">
+      <c r="P10" t="str">
+        <f t="shared" si="86"/>
+        <v>Clc</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="86"/>
+        <v>Clc</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="86"/>
+        <v>Clc</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="86"/>
+        <v>Clc</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="86"/>
+        <v>Clc</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="86"/>
+        <v>Clc</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="86"/>
+        <v>Clc</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="86"/>
+        <v>Clc</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" ref="X10:AC10" si="89">CONCATENATE("C", LEFT(X9,1), "c")</f>
+        <v>Clc</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="89"/>
+        <v>Clc</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="89"/>
+        <v>Clc</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="89"/>
+        <v>Clc</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="89"/>
+        <v>Clc</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="89"/>
+        <v>Clc</v>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" ref="AD10:AF10" si="90">CONCATENATE("C", LEFT(AD9,1), "c")</f>
+        <v>Clc</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" ref="AE10" si="91">CONCATENATE("C", LEFT(AE9,1), "c")</f>
+        <v>Clc</v>
+      </c>
+      <c r="AF10" t="str">
         <f t="shared" si="90"/>
         <v>Clc</v>
       </c>
+      <c r="AG10" t="str">
+        <f t="shared" ref="AG10:AH10" si="92">CONCATENATE("C", LEFT(AG9,1), "c")</f>
+        <v>Chc</v>
+      </c>
+      <c r="AH10" t="str">
+        <f t="shared" si="92"/>
+        <v>Chc</v>
+      </c>
+      <c r="AI10" t="str">
+        <f t="shared" ref="AI10" si="93">CONCATENATE("C", LEFT(AI9,1), "c")</f>
+        <v>Chc</v>
+      </c>
+      <c r="AJ10" t="str">
+        <f t="shared" ref="AJ10:AK10" si="94">CONCATENATE("C", LEFT(AJ9,1), "c")</f>
+        <v>Chc</v>
+      </c>
+      <c r="AK10" t="str">
+        <f t="shared" si="94"/>
+        <v>Chc</v>
+      </c>
+      <c r="AL10" t="str">
+        <f t="shared" ref="AL10" si="95">CONCATENATE("C", LEFT(AL9,1), "c")</f>
+        <v>Clc</v>
+      </c>
+      <c r="AM10" t="str">
+        <f t="shared" ref="AM10:AN10" si="96">CONCATENATE("C", LEFT(AM9,1), "c")</f>
+        <v>Clc</v>
+      </c>
+      <c r="AN10" t="str">
+        <f t="shared" si="96"/>
+        <v>Clc</v>
+      </c>
       <c r="AO10" t="str">
-        <f t="shared" ref="AO10:AR10" si="91">CONCATENATE("C", LEFT(AO9,1), "c")</f>
+        <f t="shared" ref="AO10:AT10" si="97">CONCATENATE("C", LEFT(AO9,1), "c")</f>
         <v>Clc</v>
       </c>
       <c r="AP10" t="str">
-        <f t="shared" ref="AP10:AQ10" si="92">CONCATENATE("C", LEFT(AP9,1), "c")</f>
+        <f t="shared" si="97"/>
         <v>Clc</v>
       </c>
       <c r="AQ10" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" ref="AQ10:AR10" si="98">CONCATENATE("C", LEFT(AQ9,1), "c")</f>
         <v>Clc</v>
       </c>
       <c r="AR10" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
+        <v>Clc</v>
+      </c>
+      <c r="AS10" t="str">
+        <f t="shared" ref="AS10" si="99">CONCATENATE("C", LEFT(AS9,1), "c")</f>
+        <v>Clc</v>
+      </c>
+      <c r="AT10" t="str">
+        <f t="shared" si="97"/>
         <v>Chc</v>
       </c>
-      <c r="AS10" t="str">
-        <f t="shared" ref="AS10:AT10" si="93">CONCATENATE("C", LEFT(AS9,1), "c")</f>
+      <c r="AU10" t="str">
+        <f t="shared" ref="AU10:AV10" si="100">CONCATENATE("C", LEFT(AU9,1), "c")</f>
         <v>Chc</v>
       </c>
-      <c r="AT10" t="str">
-        <f t="shared" si="93"/>
+      <c r="AV10" t="str">
+        <f t="shared" si="100"/>
         <v>Chc</v>
-      </c>
-      <c r="AU10" t="str">
-        <f>CONCATENATE("C", LEFT(AU9,1), "c")</f>
-        <v>Clc</v>
-      </c>
-      <c r="AV10" t="str">
-        <f>CONCATENATE("C", LEFT(AV9,1), "c")</f>
-        <v>Clc</v>
       </c>
       <c r="AW10" t="str">
         <f>CONCATENATE("C", LEFT(AW9,1), "c")</f>
         <v>Clc</v>
       </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX10" t="str">
+        <f>CONCATENATE("C", LEFT(AX9,1), "c")</f>
+        <v>Clc</v>
+      </c>
+      <c r="AY10" t="str">
+        <f>CONCATENATE("C", LEFT(AY9,1), "c")</f>
+        <v>Clc</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>255</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:W11" si="94">CONCATENATE("coal",LEFT(C9,1), "c")</f>
+        <f t="shared" ref="C11:W11" si="101">CONCATENATE("coal",LEFT(C9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coalhc</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" ref="F11" si="95">CONCATENATE("coal",LEFT(F9,1), "c")</f>
+        <f t="shared" ref="F11" si="102">CONCATENATE("coal",LEFT(F9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:M11" si="96">CONCATENATE("coal",LEFT(L9,1), "c")</f>
+        <f t="shared" ref="L11:M11" si="103">CONCATENATE("coal",LEFT(L9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>coalhc</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="W11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>coallc</v>
       </c>
       <c r="X11" t="str">
-        <f t="shared" ref="X11:AC11" si="97">CONCATENATE("coal",LEFT(X9,1), "c")</f>
+        <f t="shared" ref="X11:AC11" si="104">CONCATENATE("coal",LEFT(X9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="Y11" t="str">
-        <f t="shared" si="97"/>
-        <v>coallc</v>
-      </c>
-      <c r="Z11" t="str">
-        <f t="shared" si="97"/>
-        <v>coallc</v>
-      </c>
-      <c r="AA11" t="str">
-        <f t="shared" si="97"/>
-        <v>coallc</v>
-      </c>
-      <c r="AB11" t="str">
-        <f t="shared" si="97"/>
-        <v>coallc</v>
-      </c>
-      <c r="AC11" t="str">
-        <f t="shared" si="97"/>
-        <v>coallc</v>
-      </c>
-      <c r="AD11" t="str">
-        <f t="shared" ref="AD11:AF11" si="98">CONCATENATE("coal",LEFT(AD9,1), "c")</f>
-        <v>coallc</v>
-      </c>
-      <c r="AE11" t="str">
-        <f t="shared" ref="AE11" si="99">CONCATENATE("coal",LEFT(AE9,1), "c")</f>
-        <v>coallc</v>
-      </c>
-      <c r="AF11" t="str">
-        <f t="shared" si="98"/>
-        <v>coallc</v>
-      </c>
-      <c r="AG11" t="str">
-        <f t="shared" ref="AG11:AH11" si="100">CONCATENATE("coal",LEFT(AG9,1), "c")</f>
-        <v>coalhc</v>
-      </c>
-      <c r="AH11" t="str">
-        <f t="shared" si="100"/>
-        <v>coalhc</v>
-      </c>
-      <c r="AI11" t="str">
-        <f t="shared" ref="AI11" si="101">CONCATENATE("coal",LEFT(AI9,1), "c")</f>
-        <v>coalhc</v>
-      </c>
-      <c r="AJ11" t="str">
-        <f t="shared" ref="AJ11:AK11" si="102">CONCATENATE("coal",LEFT(AJ9,1), "c")</f>
-        <v>coalhc</v>
-      </c>
-      <c r="AK11" t="str">
-        <f t="shared" si="102"/>
-        <v>coalhc</v>
-      </c>
-      <c r="AL11" t="str">
-        <f t="shared" ref="AL11" si="103">CONCATENATE("coal",LEFT(AL9,1), "c")</f>
-        <v>coallc</v>
-      </c>
-      <c r="AM11" t="str">
-        <f t="shared" ref="AM11:AN11" si="104">CONCATENATE("coal",LEFT(AM9,1), "c")</f>
-        <v>coallc</v>
-      </c>
-      <c r="AN11" t="str">
         <f t="shared" si="104"/>
         <v>coallc</v>
       </c>
-      <c r="AO11" t="str">
-        <f t="shared" ref="AO11:AR11" si="105">CONCATENATE("coal",LEFT(AO9,1), "c")</f>
+      <c r="Z11" t="str">
+        <f t="shared" si="104"/>
         <v>coallc</v>
       </c>
-      <c r="AP11" t="str">
-        <f t="shared" ref="AP11:AQ11" si="106">CONCATENATE("coal",LEFT(AP9,1), "c")</f>
+      <c r="AA11" t="str">
+        <f t="shared" si="104"/>
         <v>coallc</v>
       </c>
-      <c r="AQ11" t="str">
-        <f t="shared" si="106"/>
+      <c r="AB11" t="str">
+        <f t="shared" si="104"/>
         <v>coallc</v>
       </c>
-      <c r="AR11" t="str">
+      <c r="AC11" t="str">
+        <f t="shared" si="104"/>
+        <v>coallc</v>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" ref="AD11:AF11" si="105">CONCATENATE("coal",LEFT(AD9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" ref="AE11" si="106">CONCATENATE("coal",LEFT(AE9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+      <c r="AF11" t="str">
         <f t="shared" si="105"/>
+        <v>coallc</v>
+      </c>
+      <c r="AG11" t="str">
+        <f t="shared" ref="AG11:AH11" si="107">CONCATENATE("coal",LEFT(AG9,1), "c")</f>
         <v>coalhc</v>
       </c>
-      <c r="AS11" t="str">
-        <f t="shared" ref="AS11:AT11" si="107">CONCATENATE("coal",LEFT(AS9,1), "c")</f>
-        <v>coalhc</v>
-      </c>
-      <c r="AT11" t="str">
+      <c r="AH11" t="str">
         <f t="shared" si="107"/>
         <v>coalhc</v>
       </c>
+      <c r="AI11" t="str">
+        <f t="shared" ref="AI11" si="108">CONCATENATE("coal",LEFT(AI9,1), "c")</f>
+        <v>coalhc</v>
+      </c>
+      <c r="AJ11" t="str">
+        <f t="shared" ref="AJ11:AK11" si="109">CONCATENATE("coal",LEFT(AJ9,1), "c")</f>
+        <v>coalhc</v>
+      </c>
+      <c r="AK11" t="str">
+        <f t="shared" si="109"/>
+        <v>coalhc</v>
+      </c>
+      <c r="AL11" t="str">
+        <f t="shared" ref="AL11" si="110">CONCATENATE("coal",LEFT(AL9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+      <c r="AM11" t="str">
+        <f t="shared" ref="AM11:AN11" si="111">CONCATENATE("coal",LEFT(AM9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+      <c r="AN11" t="str">
+        <f t="shared" si="111"/>
+        <v>coallc</v>
+      </c>
+      <c r="AO11" t="str">
+        <f t="shared" ref="AO11:AT11" si="112">CONCATENATE("coal",LEFT(AO9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+      <c r="AP11" t="str">
+        <f t="shared" si="112"/>
+        <v>coallc</v>
+      </c>
+      <c r="AQ11" t="str">
+        <f t="shared" ref="AQ11:AR11" si="113">CONCATENATE("coal",LEFT(AQ9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+      <c r="AR11" t="str">
+        <f t="shared" si="113"/>
+        <v>coallc</v>
+      </c>
+      <c r="AS11" t="str">
+        <f t="shared" ref="AS11" si="114">CONCATENATE("coal",LEFT(AS9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+      <c r="AT11" t="str">
+        <f t="shared" si="112"/>
+        <v>coalhc</v>
+      </c>
       <c r="AU11" t="str">
-        <f>CONCATENATE("coal",LEFT(AU9,1), "c")</f>
-        <v>coallc</v>
+        <f t="shared" ref="AU11:AV11" si="115">CONCATENATE("coal",LEFT(AU9,1), "c")</f>
+        <v>coalhc</v>
       </c>
       <c r="AV11" t="str">
-        <f>CONCATENATE("coal",LEFT(AV9,1), "c")</f>
-        <v>coallc</v>
+        <f t="shared" si="115"/>
+        <v>coalhc</v>
       </c>
       <c r="AW11" t="str">
         <f>CONCATENATE("coal",LEFT(AW9,1), "c")</f>
         <v>coallc</v>
       </c>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX11" t="str">
+        <f>CONCATENATE("coal",LEFT(AX9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+      <c r="AY11" t="str">
+        <f>CONCATENATE("coal",LEFT(AY9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>256</v>
       </c>
@@ -4960,16 +5054,22 @@
         <v>55</v>
       </c>
       <c r="AU12" s="21">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AV12" s="21">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AW12" s="21">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX12" s="21">
+        <v>70</v>
+      </c>
+      <c r="AY12" s="21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -4978,191 +5078,199 @@
         <v>C70m</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13:W13" si="108">CONCATENATE("C",D12,"m")</f>
+        <f t="shared" ref="D13:W13" si="116">CONCATENATE("C",D12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="116"/>
         <v>C55m</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" ref="F13" si="109">CONCATENATE("C",F12,"m")</f>
+        <f t="shared" ref="F13" si="117">CONCATENATE("C",F12,"m")</f>
         <v>C0m</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="108"/>
-        <v>C70m</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="108"/>
-        <v>C70m</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="108"/>
-        <v>C70m</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="108"/>
-        <v>C70m</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="108"/>
-        <v>C70m</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" ref="L13:M13" si="110">CONCATENATE("C",L12,"m")</f>
-        <v>C70m</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="110"/>
-        <v>C70m</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="108"/>
-        <v>C70m</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="108"/>
-        <v>C70m</v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="108"/>
-        <v>C70m</v>
-      </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="108"/>
-        <v>C70m</v>
-      </c>
-      <c r="R13" t="str">
-        <f t="shared" si="108"/>
-        <v>C70m</v>
-      </c>
-      <c r="S13" t="str">
-        <f t="shared" si="108"/>
-        <v>C70m</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="108"/>
-        <v>C70m</v>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" si="108"/>
-        <v>C70m</v>
-      </c>
-      <c r="V13" t="str">
-        <f t="shared" si="108"/>
-        <v>C70m</v>
-      </c>
-      <c r="W13" t="str">
-        <f t="shared" si="108"/>
-        <v>C70m</v>
-      </c>
-      <c r="X13" t="str">
-        <f t="shared" ref="X13:AC13" si="111">CONCATENATE("C",X12,"m")</f>
-        <v>C70m</v>
-      </c>
-      <c r="Y13" t="str">
-        <f t="shared" si="111"/>
-        <v>C70m</v>
-      </c>
-      <c r="Z13" t="str">
-        <f t="shared" si="111"/>
-        <v>C70m</v>
-      </c>
-      <c r="AA13" t="str">
-        <f t="shared" si="111"/>
-        <v>C70m</v>
-      </c>
-      <c r="AB13" t="str">
-        <f t="shared" si="111"/>
-        <v>C70m</v>
-      </c>
-      <c r="AC13" t="str">
-        <f t="shared" si="111"/>
-        <v>C70m</v>
-      </c>
-      <c r="AD13" t="str">
-        <f t="shared" ref="AD13:AF13" si="112">CONCATENATE("C",AD12,"m")</f>
-        <v>C70m</v>
-      </c>
-      <c r="AE13" t="str">
-        <f t="shared" ref="AE13" si="113">CONCATENATE("C",AE12,"m")</f>
-        <v>C70m</v>
-      </c>
-      <c r="AF13" t="str">
-        <f t="shared" si="112"/>
-        <v>C70m</v>
-      </c>
-      <c r="AG13" t="str">
-        <f t="shared" ref="AG13:AH13" si="114">CONCATENATE("C",AG12,"m")</f>
-        <v>C70m</v>
-      </c>
-      <c r="AH13" t="str">
-        <f t="shared" si="114"/>
-        <v>C70m</v>
-      </c>
-      <c r="AI13" t="str">
-        <f t="shared" ref="AI13" si="115">CONCATENATE("C",AI12,"m")</f>
-        <v>C70m</v>
-      </c>
-      <c r="AJ13" t="str">
-        <f t="shared" ref="AJ13:AK13" si="116">CONCATENATE("C",AJ12,"m")</f>
-        <v>C70m</v>
-      </c>
-      <c r="AK13" t="str">
         <f t="shared" si="116"/>
         <v>C70m</v>
       </c>
+      <c r="H13" t="str">
+        <f t="shared" si="116"/>
+        <v>C70m</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="116"/>
+        <v>C70m</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="116"/>
+        <v>C70m</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="116"/>
+        <v>C70m</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" ref="L13:M13" si="118">CONCATENATE("C",L12,"m")</f>
+        <v>C70m</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="118"/>
+        <v>C70m</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="116"/>
+        <v>C70m</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="116"/>
+        <v>C70m</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="116"/>
+        <v>C70m</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="116"/>
+        <v>C70m</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="116"/>
+        <v>C70m</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="116"/>
+        <v>C70m</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="116"/>
+        <v>C70m</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="116"/>
+        <v>C70m</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="116"/>
+        <v>C70m</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="116"/>
+        <v>C70m</v>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" ref="X13:AC13" si="119">CONCATENATE("C",X12,"m")</f>
+        <v>C70m</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="119"/>
+        <v>C70m</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="119"/>
+        <v>C70m</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="119"/>
+        <v>C70m</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="119"/>
+        <v>C70m</v>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="119"/>
+        <v>C70m</v>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" ref="AD13:AF13" si="120">CONCATENATE("C",AD12,"m")</f>
+        <v>C70m</v>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" ref="AE13" si="121">CONCATENATE("C",AE12,"m")</f>
+        <v>C70m</v>
+      </c>
+      <c r="AF13" t="str">
+        <f t="shared" si="120"/>
+        <v>C70m</v>
+      </c>
+      <c r="AG13" t="str">
+        <f t="shared" ref="AG13:AH13" si="122">CONCATENATE("C",AG12,"m")</f>
+        <v>C70m</v>
+      </c>
+      <c r="AH13" t="str">
+        <f t="shared" si="122"/>
+        <v>C70m</v>
+      </c>
+      <c r="AI13" t="str">
+        <f t="shared" ref="AI13" si="123">CONCATENATE("C",AI12,"m")</f>
+        <v>C70m</v>
+      </c>
+      <c r="AJ13" t="str">
+        <f t="shared" ref="AJ13:AK13" si="124">CONCATENATE("C",AJ12,"m")</f>
+        <v>C70m</v>
+      </c>
+      <c r="AK13" t="str">
+        <f t="shared" si="124"/>
+        <v>C70m</v>
+      </c>
       <c r="AL13" t="str">
-        <f t="shared" ref="AL13" si="117">CONCATENATE("C",AL12,"m")</f>
+        <f t="shared" ref="AL13" si="125">CONCATENATE("C",AL12,"m")</f>
         <v>C55m</v>
       </c>
       <c r="AM13" t="str">
-        <f t="shared" ref="AM13:AN13" si="118">CONCATENATE("C",AM12,"m")</f>
+        <f t="shared" ref="AM13:AN13" si="126">CONCATENATE("C",AM12,"m")</f>
         <v>C55m</v>
       </c>
       <c r="AN13" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>C55m</v>
       </c>
       <c r="AO13" t="str">
-        <f t="shared" ref="AO13:AR13" si="119">CONCATENATE("C",AO12,"m")</f>
+        <f t="shared" ref="AO13:AT13" si="127">CONCATENATE("C",AO12,"m")</f>
         <v>C55m</v>
       </c>
       <c r="AP13" t="str">
-        <f t="shared" ref="AP13:AQ13" si="120">CONCATENATE("C",AP12,"m")</f>
+        <f t="shared" si="127"/>
         <v>C55m</v>
       </c>
       <c r="AQ13" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" ref="AQ13:AR13" si="128">CONCATENATE("C",AQ12,"m")</f>
         <v>C55m</v>
       </c>
       <c r="AR13" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>C55m</v>
       </c>
       <c r="AS13" t="str">
-        <f t="shared" ref="AS13:AT13" si="121">CONCATENATE("C",AS12,"m")</f>
+        <f t="shared" ref="AS13" si="129">CONCATENATE("C",AS12,"m")</f>
         <v>C55m</v>
       </c>
       <c r="AT13" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>C55m</v>
       </c>
       <c r="AU13" t="str">
-        <f>CONCATENATE("C",AU12,"m")</f>
-        <v>C70m</v>
+        <f t="shared" ref="AU13:AV13" si="130">CONCATENATE("C",AU12,"m")</f>
+        <v>C55m</v>
       </c>
       <c r="AV13" t="str">
-        <f>CONCATENATE("C",AV12,"m")</f>
-        <v>C70m</v>
+        <f t="shared" si="130"/>
+        <v>C55m</v>
       </c>
       <c r="AW13" t="str">
         <f>CONCATENATE("C",AW12,"m")</f>
         <v>C70m</v>
       </c>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX13" t="str">
+        <f>CONCATENATE("C",AX12,"m")</f>
+        <v>C70m</v>
+      </c>
+      <c r="AY13" t="str">
+        <f>CONCATENATE("C",AY12,"m")</f>
+        <v>C70m</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>474</v>
       </c>
@@ -5310,8 +5418,14 @@
       <c r="AW14" s="21">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX14" s="21">
+        <v>50</v>
+      </c>
+      <c r="AY14" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>475</v>
       </c>
@@ -5320,191 +5434,199 @@
         <v/>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15:AW15" si="122">IF(D14=50,"",CONCATENATE("G",D14, "m"))</f>
+        <f t="shared" ref="D15:AY15" si="131">IF(D14=50,"",CONCATENATE("G",D14, "m"))</f>
         <v/>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v>G0m</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:M15" si="123">IF(L14=50,"",CONCATENATE("G",L14, "m"))</f>
+        <f t="shared" ref="L15:M15" si="132">IF(L14=50,"",CONCATENATE("G",L14, "m"))</f>
         <v/>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="X15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="Z15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="AA15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="AB15" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="AC15" t="str">
-        <f t="shared" ref="AC15:AG15" si="124">IF(AC14=50,"",CONCATENATE("G",AC14, "m"))</f>
+        <f t="shared" ref="AC15:AG15" si="133">IF(AC14=50,"",CONCATENATE("G",AC14, "m"))</f>
         <v/>
       </c>
       <c r="AD15" t="str">
-        <f t="shared" ref="AD15:AF15" si="125">IF(AD14=50,"",CONCATENATE("G",AD14, "m"))</f>
+        <f t="shared" ref="AD15:AF15" si="134">IF(AD14=50,"",CONCATENATE("G",AD14, "m"))</f>
         <v/>
       </c>
       <c r="AE15" t="str">
-        <f t="shared" ref="AE15" si="126">IF(AE14=50,"",CONCATENATE("G",AE14, "m"))</f>
+        <f t="shared" ref="AE15" si="135">IF(AE14=50,"",CONCATENATE("G",AE14, "m"))</f>
         <v/>
       </c>
       <c r="AF15" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="134"/>
         <v/>
       </c>
       <c r="AG15" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="AH15" t="str">
-        <f t="shared" ref="AH15:AK15" si="127">IF(AH14=50,"",CONCATENATE("G",AH14, "m"))</f>
+        <f t="shared" ref="AH15:AK15" si="136">IF(AH14=50,"",CONCATENATE("G",AH14, "m"))</f>
         <v/>
       </c>
       <c r="AI15" t="str">
-        <f t="shared" ref="AI15" si="128">IF(AI14=50,"",CONCATENATE("G",AI14, "m"))</f>
+        <f t="shared" ref="AI15" si="137">IF(AI14=50,"",CONCATENATE("G",AI14, "m"))</f>
         <v/>
       </c>
       <c r="AJ15" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="136"/>
         <v/>
       </c>
       <c r="AK15" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="136"/>
         <v/>
       </c>
       <c r="AL15" t="str">
-        <f t="shared" ref="AL15:AM15" si="129">IF(AL14=50,"",CONCATENATE("G",AL14, "m"))</f>
+        <f t="shared" ref="AL15:AM15" si="138">IF(AL14=50,"",CONCATENATE("G",AL14, "m"))</f>
         <v/>
       </c>
       <c r="AM15" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="AN15" t="str">
-        <f t="shared" ref="AN15:AO15" si="130">IF(AN14=50,"",CONCATENATE("G",AN14, "m"))</f>
+        <f t="shared" ref="AN15:AP15" si="139">IF(AN14=50,"",CONCATENATE("G",AN14, "m"))</f>
         <v/>
       </c>
       <c r="AO15" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="139"/>
         <v/>
       </c>
       <c r="AP15" t="str">
-        <f t="shared" ref="AP15:AQ15" si="131">IF(AP14=50,"",CONCATENATE("G",AP14, "m"))</f>
+        <f t="shared" si="139"/>
         <v/>
       </c>
       <c r="AQ15" t="str">
+        <f t="shared" ref="AQ15:AR15" si="140">IF(AQ14=50,"",CONCATENATE("G",AQ14, "m"))</f>
+        <v/>
+      </c>
+      <c r="AR15" t="str">
+        <f t="shared" si="140"/>
+        <v/>
+      </c>
+      <c r="AS15" t="str">
+        <f t="shared" ref="AS15" si="141">IF(AS14=50,"",CONCATENATE("G",AS14, "m"))</f>
+        <v/>
+      </c>
+      <c r="AT15" t="str">
+        <f t="shared" ref="AT15:AV15" si="142">IF(AT14=50,"",CONCATENATE("G",AT14, "m"))</f>
+        <v/>
+      </c>
+      <c r="AU15" t="str">
+        <f t="shared" si="142"/>
+        <v/>
+      </c>
+      <c r="AV15" t="str">
+        <f t="shared" si="142"/>
+        <v/>
+      </c>
+      <c r="AW15" t="str">
         <f t="shared" si="131"/>
         <v/>
       </c>
-      <c r="AR15" t="str">
-        <f t="shared" ref="AR15:AT15" si="132">IF(AR14=50,"",CONCATENATE("G",AR14, "m"))</f>
-        <v/>
-      </c>
-      <c r="AS15" t="str">
-        <f t="shared" si="132"/>
-        <v/>
-      </c>
-      <c r="AT15" t="str">
-        <f t="shared" si="132"/>
-        <v/>
-      </c>
-      <c r="AU15" t="str">
-        <f t="shared" si="122"/>
-        <v/>
-      </c>
-      <c r="AV15" t="str">
-        <f t="shared" si="122"/>
-        <v/>
-      </c>
-      <c r="AW15" t="str">
-        <f t="shared" si="122"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX15" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
+      <c r="AY15" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>259</v>
       </c>
@@ -5652,201 +5774,215 @@
       <c r="AW16" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>261</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ref="C17:W17" si="133">IF(C16=0,"",CONCATENATE("H",C16))</f>
+        <f t="shared" ref="C17:W17" si="143">IF(C16=0,"",CONCATENATE("H",C16))</f>
         <v/>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="F17" t="str">
-        <f t="shared" ref="F17" si="134">IF(F16=0,"",CONCATENATE("H",F16))</f>
+        <f t="shared" ref="F17" si="144">IF(F16=0,"",CONCATENATE("H",F16))</f>
         <v/>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v>H-25</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v>H25</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:M17" si="135">IF(L16=0,"",CONCATENATE("H",L16))</f>
+        <f t="shared" ref="L17:M17" si="145">IF(L16=0,"",CONCATENATE("H",L16))</f>
         <v/>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="W17" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="X17" t="str">
-        <f t="shared" ref="X17:AC17" si="136">IF(X16=0,"",CONCATENATE("H",X16))</f>
+        <f t="shared" ref="X17:AC17" si="146">IF(X16=0,"",CONCATENATE("H",X16))</f>
         <v/>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="Z17" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="AA17" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="AB17" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="AC17" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="AD17" t="str">
-        <f t="shared" ref="AD17:AF17" si="137">IF(AD16=0,"",CONCATENATE("H",AD16))</f>
+        <f t="shared" ref="AD17:AF17" si="147">IF(AD16=0,"",CONCATENATE("H",AD16))</f>
         <v/>
       </c>
       <c r="AE17" t="str">
-        <f t="shared" ref="AE17" si="138">IF(AE16=0,"",CONCATENATE("H",AE16))</f>
+        <f t="shared" ref="AE17" si="148">IF(AE16=0,"",CONCATENATE("H",AE16))</f>
         <v/>
       </c>
       <c r="AF17" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="AG17" t="str">
-        <f t="shared" ref="AG17:AH17" si="139">IF(AG16=0,"",CONCATENATE("H",AG16))</f>
+        <f t="shared" ref="AG17:AH17" si="149">IF(AG16=0,"",CONCATENATE("H",AG16))</f>
         <v/>
       </c>
       <c r="AH17" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="149"/>
         <v/>
       </c>
       <c r="AI17" t="str">
-        <f t="shared" ref="AI17" si="140">IF(AI16=0,"",CONCATENATE("H",AI16))</f>
+        <f t="shared" ref="AI17" si="150">IF(AI16=0,"",CONCATENATE("H",AI16))</f>
         <v/>
       </c>
       <c r="AJ17" t="str">
-        <f t="shared" ref="AJ17:AK17" si="141">IF(AJ16=0,"",CONCATENATE("H",AJ16))</f>
+        <f t="shared" ref="AJ17:AK17" si="151">IF(AJ16=0,"",CONCATENATE("H",AJ16))</f>
         <v/>
       </c>
       <c r="AK17" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v/>
       </c>
       <c r="AL17" t="str">
-        <f t="shared" ref="AL17" si="142">IF(AL16=0,"",CONCATENATE("H",AL16))</f>
+        <f t="shared" ref="AL17" si="152">IF(AL16=0,"",CONCATENATE("H",AL16))</f>
         <v/>
       </c>
       <c r="AM17" t="str">
-        <f t="shared" ref="AM17:AN17" si="143">IF(AM16=0,"",CONCATENATE("H",AM16))</f>
+        <f t="shared" ref="AM17:AN17" si="153">IF(AM16=0,"",CONCATENATE("H",AM16))</f>
         <v/>
       </c>
       <c r="AN17" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v/>
       </c>
       <c r="AO17" t="str">
-        <f t="shared" ref="AO17:AR17" si="144">IF(AO16=0,"",CONCATENATE("H",AO16))</f>
+        <f t="shared" ref="AO17:AT17" si="154">IF(AO16=0,"",CONCATENATE("H",AO16))</f>
         <v/>
       </c>
       <c r="AP17" t="str">
-        <f t="shared" ref="AP17:AQ17" si="145">IF(AP16=0,"",CONCATENATE("H",AP16))</f>
+        <f t="shared" si="154"/>
         <v/>
       </c>
       <c r="AQ17" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" ref="AQ17:AR17" si="155">IF(AQ16=0,"",CONCATENATE("H",AQ16))</f>
         <v/>
       </c>
       <c r="AR17" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="155"/>
         <v/>
       </c>
       <c r="AS17" t="str">
-        <f t="shared" ref="AS17:AT17" si="146">IF(AS16=0,"",CONCATENATE("H",AS16))</f>
+        <f t="shared" ref="AS17" si="156">IF(AS16=0,"",CONCATENATE("H",AS16))</f>
         <v/>
       </c>
       <c r="AT17" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v/>
       </c>
       <c r="AU17" t="str">
-        <f>IF(AU16=0,"",CONCATENATE("H",AU16))</f>
+        <f t="shared" ref="AU17:AV17" si="157">IF(AU16=0,"",CONCATENATE("H",AU16))</f>
         <v/>
       </c>
       <c r="AV17" t="str">
-        <f>IF(AV16=0,"",CONCATENATE("H",AV16))</f>
+        <f t="shared" si="157"/>
         <v/>
       </c>
       <c r="AW17" t="str">
         <f>IF(AW16=0,"",CONCATENATE("H",AW16))</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX17" t="str">
+        <f>IF(AX16=0,"",CONCATENATE("H",AX16))</f>
+        <v/>
+      </c>
+      <c r="AY17" t="str">
+        <f>IF(AY16=0,"",CONCATENATE("H",AY16))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>262</v>
       </c>
@@ -5994,201 +6130,215 @@
       <c r="AW18" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>264</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:W19" si="147">IF(C18=0,"",CONCATENATE("N",C18))</f>
+        <f t="shared" ref="C19:W19" si="158">IF(C18=0,"",CONCATENATE("N",C18))</f>
         <v/>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="F19" t="str">
-        <f t="shared" ref="F19" si="148">IF(F18=0,"",CONCATENATE("N",F18))</f>
+        <f t="shared" ref="F19" si="159">IF(F18=0,"",CONCATENATE("N",F18))</f>
         <v/>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v>N64</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f t="shared" ref="L19:M19" si="149">IF(L18=0,"",CONCATENATE("N",L18))</f>
+        <f t="shared" ref="L19:M19" si="160">IF(L18=0,"",CONCATENATE("N",L18))</f>
         <v/>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v/>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="W19" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="X19" t="str">
-        <f t="shared" ref="X19:AC19" si="150">IF(X18=0,"",CONCATENATE("N",X18))</f>
+        <f t="shared" ref="X19:AC19" si="161">IF(X18=0,"",CONCATENATE("N",X18))</f>
         <v/>
       </c>
       <c r="Y19" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v/>
       </c>
       <c r="Z19" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v/>
       </c>
       <c r="AA19" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v/>
       </c>
       <c r="AB19" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v/>
       </c>
       <c r="AC19" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v/>
       </c>
       <c r="AD19" t="str">
-        <f t="shared" ref="AD19:AF19" si="151">IF(AD18=0,"",CONCATENATE("N",AD18))</f>
+        <f t="shared" ref="AD19:AF19" si="162">IF(AD18=0,"",CONCATENATE("N",AD18))</f>
         <v/>
       </c>
       <c r="AE19" t="str">
-        <f t="shared" ref="AE19" si="152">IF(AE18=0,"",CONCATENATE("N",AE18))</f>
+        <f t="shared" ref="AE19" si="163">IF(AE18=0,"",CONCATENATE("N",AE18))</f>
         <v/>
       </c>
       <c r="AF19" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="162"/>
         <v/>
       </c>
       <c r="AG19" t="str">
-        <f t="shared" ref="AG19:AH19" si="153">IF(AG18=0,"",CONCATENATE("N",AG18))</f>
+        <f t="shared" ref="AG19:AH19" si="164">IF(AG18=0,"",CONCATENATE("N",AG18))</f>
         <v/>
       </c>
       <c r="AH19" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="164"/>
         <v/>
       </c>
       <c r="AI19" t="str">
-        <f t="shared" ref="AI19" si="154">IF(AI18=0,"",CONCATENATE("N",AI18))</f>
+        <f t="shared" ref="AI19" si="165">IF(AI18=0,"",CONCATENATE("N",AI18))</f>
         <v/>
       </c>
       <c r="AJ19" t="str">
-        <f t="shared" ref="AJ19:AK19" si="155">IF(AJ18=0,"",CONCATENATE("N",AJ18))</f>
+        <f t="shared" ref="AJ19:AK19" si="166">IF(AJ18=0,"",CONCATENATE("N",AJ18))</f>
         <v/>
       </c>
       <c r="AK19" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="AL19" t="str">
-        <f t="shared" ref="AL19" si="156">IF(AL18=0,"",CONCATENATE("N",AL18))</f>
+        <f t="shared" ref="AL19" si="167">IF(AL18=0,"",CONCATENATE("N",AL18))</f>
         <v/>
       </c>
       <c r="AM19" t="str">
-        <f t="shared" ref="AM19:AN19" si="157">IF(AM18=0,"",CONCATENATE("N",AM18))</f>
+        <f t="shared" ref="AM19:AN19" si="168">IF(AM18=0,"",CONCATENATE("N",AM18))</f>
         <v/>
       </c>
       <c r="AN19" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v/>
       </c>
       <c r="AO19" t="str">
-        <f t="shared" ref="AO19:AR19" si="158">IF(AO18=0,"",CONCATENATE("N",AO18))</f>
+        <f t="shared" ref="AO19:AT19" si="169">IF(AO18=0,"",CONCATENATE("N",AO18))</f>
         <v/>
       </c>
       <c r="AP19" t="str">
-        <f t="shared" ref="AP19:AQ19" si="159">IF(AP18=0,"",CONCATENATE("N",AP18))</f>
+        <f t="shared" si="169"/>
         <v/>
       </c>
       <c r="AQ19" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" ref="AQ19:AR19" si="170">IF(AQ18=0,"",CONCATENATE("N",AQ18))</f>
         <v/>
       </c>
       <c r="AR19" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="170"/>
         <v/>
       </c>
       <c r="AS19" t="str">
-        <f t="shared" ref="AS19:AT19" si="160">IF(AS18=0,"",CONCATENATE("N",AS18))</f>
+        <f t="shared" ref="AS19" si="171">IF(AS18=0,"",CONCATENATE("N",AS18))</f>
         <v/>
       </c>
       <c r="AT19" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="169"/>
         <v/>
       </c>
       <c r="AU19" t="str">
-        <f>IF(AU18=0,"",CONCATENATE("N",AU18))</f>
+        <f t="shared" ref="AU19:AV19" si="172">IF(AU18=0,"",CONCATENATE("N",AU18))</f>
         <v/>
       </c>
       <c r="AV19" t="str">
-        <f>IF(AV18=0,"",CONCATENATE("N",AV18))</f>
+        <f t="shared" si="172"/>
         <v/>
       </c>
       <c r="AW19" t="str">
         <f>IF(AW18=0,"",CONCATENATE("N",AW18))</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX19" t="str">
+        <f>IF(AX18=0,"",CONCATENATE("N",AX18))</f>
+        <v/>
+      </c>
+      <c r="AY19" t="str">
+        <f>IF(AY18=0,"",CONCATENATE("N",AY18))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>265</v>
       </c>
@@ -6328,402 +6478,424 @@
         <v>60</v>
       </c>
       <c r="AU20" s="21">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AV20" s="21">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AW20" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>267</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:W21" si="161">IF(C20=0,"",CONCATENATE("B",C20))</f>
+        <f t="shared" ref="C21:W21" si="173">IF(C20=0,"",CONCATENATE("B",C20))</f>
         <v/>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="F21" t="str">
-        <f t="shared" ref="F21" si="162">IF(F20=0,"",CONCATENATE("B",F20))</f>
+        <f t="shared" ref="F21" si="174">IF(F20=0,"",CONCATENATE("B",F20))</f>
         <v/>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>B15</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>B30</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" ref="L21:M21" si="163">IF(L20=0,"",CONCATENATE("B",L20))</f>
+        <f t="shared" ref="L21:M21" si="175">IF(L20=0,"",CONCATENATE("B",L20))</f>
         <v>B60</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="175"/>
         <v>B60</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="X21" t="str">
-        <f t="shared" ref="X21:AC21" si="164">IF(X20=0,"",CONCATENATE("B",X20))</f>
+        <f t="shared" ref="X21:AC21" si="176">IF(X20=0,"",CONCATENATE("B",X20))</f>
         <v/>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="176"/>
         <v>B15</v>
       </c>
       <c r="Z21" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="176"/>
         <v>B15</v>
       </c>
       <c r="AA21" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="176"/>
         <v>B30</v>
       </c>
       <c r="AB21" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="176"/>
         <v>B30</v>
       </c>
       <c r="AC21" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="176"/>
         <v>B60</v>
       </c>
       <c r="AD21" t="str">
-        <f t="shared" ref="AD21:AF21" si="165">IF(AD20=0,"",CONCATENATE("B",AD20))</f>
+        <f t="shared" ref="AD21:AF21" si="177">IF(AD20=0,"",CONCATENATE("B",AD20))</f>
         <v>B60</v>
       </c>
       <c r="AE21" t="str">
-        <f t="shared" ref="AE21" si="166">IF(AE20=0,"",CONCATENATE("B",AE20))</f>
+        <f t="shared" ref="AE21" si="178">IF(AE20=0,"",CONCATENATE("B",AE20))</f>
         <v>B60</v>
       </c>
       <c r="AF21" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="177"/>
         <v>B60</v>
       </c>
       <c r="AG21" t="str">
-        <f t="shared" ref="AG21:AH21" si="167">IF(AG20=0,"",CONCATENATE("B",AG20))</f>
+        <f t="shared" ref="AG21:AH21" si="179">IF(AG20=0,"",CONCATENATE("B",AG20))</f>
         <v>B60</v>
       </c>
       <c r="AH21" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="179"/>
         <v>B60</v>
       </c>
       <c r="AI21" t="str">
-        <f t="shared" ref="AI21" si="168">IF(AI20=0,"",CONCATENATE("B",AI20))</f>
+        <f t="shared" ref="AI21" si="180">IF(AI20=0,"",CONCATENATE("B",AI20))</f>
         <v>B60</v>
       </c>
       <c r="AJ21" t="str">
-        <f t="shared" ref="AJ21:AK21" si="169">IF(AJ20=0,"",CONCATENATE("B",AJ20))</f>
+        <f t="shared" ref="AJ21:AK21" si="181">IF(AJ20=0,"",CONCATENATE("B",AJ20))</f>
         <v>B60</v>
       </c>
       <c r="AK21" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="181"/>
         <v/>
       </c>
       <c r="AL21" t="str">
-        <f t="shared" ref="AL21" si="170">IF(AL20=0,"",CONCATENATE("B",AL20))</f>
+        <f t="shared" ref="AL21" si="182">IF(AL20=0,"",CONCATENATE("B",AL20))</f>
         <v/>
       </c>
       <c r="AM21" t="str">
-        <f t="shared" ref="AM21:AN21" si="171">IF(AM20=0,"",CONCATENATE("B",AM20))</f>
+        <f t="shared" ref="AM21:AN21" si="183">IF(AM20=0,"",CONCATENATE("B",AM20))</f>
         <v/>
       </c>
       <c r="AN21" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="183"/>
         <v/>
       </c>
       <c r="AO21" t="str">
-        <f t="shared" ref="AO21:AR21" si="172">IF(AO20=0,"",CONCATENATE("B",AO20))</f>
+        <f t="shared" ref="AO21:AT21" si="184">IF(AO20=0,"",CONCATENATE("B",AO20))</f>
         <v>B60</v>
       </c>
       <c r="AP21" t="str">
-        <f t="shared" ref="AP21:AQ21" si="173">IF(AP20=0,"",CONCATENATE("B",AP20))</f>
+        <f t="shared" si="184"/>
         <v>B60</v>
       </c>
       <c r="AQ21" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" ref="AQ21:AR21" si="185">IF(AQ20=0,"",CONCATENATE("B",AQ20))</f>
         <v>B60</v>
       </c>
       <c r="AR21" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="185"/>
         <v>B60</v>
       </c>
       <c r="AS21" t="str">
-        <f t="shared" ref="AS21:AT21" si="174">IF(AS20=0,"",CONCATENATE("B",AS20))</f>
+        <f t="shared" ref="AS21" si="186">IF(AS20=0,"",CONCATENATE("B",AS20))</f>
         <v>B60</v>
       </c>
       <c r="AT21" t="str">
-        <f t="shared" si="174"/>
+        <f t="shared" si="184"/>
         <v>B60</v>
       </c>
       <c r="AU21" t="str">
-        <f>IF(AU20=0,"",CONCATENATE("B",AU20))</f>
-        <v/>
+        <f t="shared" ref="AU21:AV21" si="187">IF(AU20=0,"",CONCATENATE("B",AU20))</f>
+        <v>B60</v>
       </c>
       <c r="AV21" t="str">
-        <f>IF(AV20=0,"",CONCATENATE("B",AV20))</f>
-        <v/>
+        <f t="shared" si="187"/>
+        <v>B60</v>
       </c>
       <c r="AW21" t="str">
         <f>IF(AW20=0,"",CONCATENATE("B",AW20))</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX21" t="str">
+        <f>IF(AX20=0,"",CONCATENATE("B",AX20))</f>
+        <v/>
+      </c>
+      <c r="AY21" t="str">
+        <f>IF(AY20=0,"",CONCATENATE("B",AY20))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>268</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ref="C22:W22" si="175">CONCATENATE("bat", C20)</f>
+        <f t="shared" ref="C22:W22" si="188">CONCATENATE("bat", C20)</f>
         <v>bat0</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat0</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat0</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" ref="F22" si="176">CONCATENATE("bat", F20)</f>
+        <f t="shared" ref="F22" si="189">CONCATENATE("bat", F20)</f>
         <v>bat0</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat0</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat0</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat0</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat15</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat30</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" ref="L22:M22" si="177">CONCATENATE("bat", L20)</f>
+        <f t="shared" ref="L22:M22" si="190">CONCATENATE("bat", L20)</f>
         <v>bat60</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="177"/>
+        <f t="shared" si="190"/>
         <v>bat60</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat0</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat0</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat0</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat0</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat0</v>
       </c>
       <c r="S22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat0</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat0</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat0</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat0</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="188"/>
         <v>bat0</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" ref="X22:AC22" si="178">CONCATENATE("bat", X20)</f>
+        <f t="shared" ref="X22:AC22" si="191">CONCATENATE("bat", X20)</f>
         <v>bat0</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="191"/>
         <v>bat15</v>
       </c>
       <c r="Z22" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="191"/>
         <v>bat15</v>
       </c>
       <c r="AA22" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="191"/>
         <v>bat30</v>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="191"/>
         <v>bat30</v>
       </c>
       <c r="AC22" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="191"/>
         <v>bat60</v>
       </c>
       <c r="AD22" t="str">
-        <f t="shared" ref="AD22:AF22" si="179">CONCATENATE("bat", AD20)</f>
+        <f t="shared" ref="AD22:AF22" si="192">CONCATENATE("bat", AD20)</f>
         <v>bat60</v>
       </c>
       <c r="AE22" t="str">
-        <f t="shared" ref="AE22" si="180">CONCATENATE("bat", AE20)</f>
+        <f t="shared" ref="AE22" si="193">CONCATENATE("bat", AE20)</f>
         <v>bat60</v>
       </c>
       <c r="AF22" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="192"/>
         <v>bat60</v>
       </c>
       <c r="AG22" t="str">
-        <f t="shared" ref="AG22:AH22" si="181">CONCATENATE("bat", AG20)</f>
+        <f t="shared" ref="AG22:AH22" si="194">CONCATENATE("bat", AG20)</f>
         <v>bat60</v>
       </c>
       <c r="AH22" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" si="194"/>
         <v>bat60</v>
       </c>
       <c r="AI22" t="str">
-        <f t="shared" ref="AI22" si="182">CONCATENATE("bat", AI20)</f>
+        <f t="shared" ref="AI22" si="195">CONCATENATE("bat", AI20)</f>
         <v>bat60</v>
       </c>
       <c r="AJ22" t="str">
-        <f t="shared" ref="AJ22:AK22" si="183">CONCATENATE("bat", AJ20)</f>
+        <f t="shared" ref="AJ22:AK22" si="196">CONCATENATE("bat", AJ20)</f>
         <v>bat60</v>
       </c>
       <c r="AK22" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="196"/>
         <v>bat0</v>
       </c>
       <c r="AL22" t="str">
-        <f t="shared" ref="AL22" si="184">CONCATENATE("bat", AL20)</f>
+        <f t="shared" ref="AL22" si="197">CONCATENATE("bat", AL20)</f>
         <v>bat0</v>
       </c>
       <c r="AM22" t="str">
-        <f t="shared" ref="AM22:AN22" si="185">CONCATENATE("bat", AM20)</f>
+        <f t="shared" ref="AM22:AN22" si="198">CONCATENATE("bat", AM20)</f>
         <v>bat0</v>
       </c>
       <c r="AN22" t="str">
-        <f t="shared" si="185"/>
+        <f t="shared" si="198"/>
         <v>bat0</v>
       </c>
       <c r="AO22" t="str">
-        <f t="shared" ref="AO22:AR22" si="186">CONCATENATE("bat", AO20)</f>
+        <f t="shared" ref="AO22:AT22" si="199">CONCATENATE("bat", AO20)</f>
         <v>bat60</v>
       </c>
       <c r="AP22" t="str">
-        <f t="shared" ref="AP22:AQ22" si="187">CONCATENATE("bat", AP20)</f>
+        <f t="shared" si="199"/>
         <v>bat60</v>
       </c>
       <c r="AQ22" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" ref="AQ22:AR22" si="200">CONCATENATE("bat", AQ20)</f>
         <v>bat60</v>
       </c>
       <c r="AR22" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="200"/>
         <v>bat60</v>
       </c>
       <c r="AS22" t="str">
-        <f t="shared" ref="AS22:AT22" si="188">CONCATENATE("bat", AS20)</f>
+        <f t="shared" ref="AS22" si="201">CONCATENATE("bat", AS20)</f>
         <v>bat60</v>
       </c>
       <c r="AT22" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="199"/>
         <v>bat60</v>
       </c>
       <c r="AU22" t="str">
-        <f>CONCATENATE("bat", AU20)</f>
-        <v>bat0</v>
+        <f t="shared" ref="AU22:AV22" si="202">CONCATENATE("bat", AU20)</f>
+        <v>bat60</v>
       </c>
       <c r="AV22" t="str">
-        <f>CONCATENATE("bat", AV20)</f>
-        <v>bat0</v>
+        <f t="shared" si="202"/>
+        <v>bat60</v>
       </c>
       <c r="AW22" t="str">
         <f>CONCATENATE("bat", AW20)</f>
         <v>bat0</v>
       </c>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX22" t="str">
+        <f>CONCATENATE("bat", AX20)</f>
+        <v>bat0</v>
+      </c>
+      <c r="AY22" t="str">
+        <f>CONCATENATE("bat", AY20)</f>
+        <v>bat0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>415</v>
       </c>
@@ -6848,31 +7020,37 @@
         <v>0</v>
       </c>
       <c r="AP23" s="21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AQ23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="21">
         <v>50</v>
       </c>
-      <c r="AR23" s="21">
-        <v>0</v>
-      </c>
       <c r="AS23" s="21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AT23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="21">
         <v>50</v>
       </c>
-      <c r="AU23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="21">
-        <v>0</v>
-      </c>
       <c r="AW23" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>416</v>
       </c>
@@ -7020,8 +7198,14 @@
       <c r="AW24" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX24" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>417</v>
       </c>
@@ -7030,191 +7214,199 @@
         <v/>
       </c>
       <c r="D25" t="str">
-        <f t="shared" ref="D25:X25" si="189">IF(D23=0,"",CONCATENATE("B",D23,LEFT(D24,1),"c"))</f>
+        <f t="shared" ref="D25:X25" si="203">IF(D23=0,"",CONCATENATE("B",D23,LEFT(D24,1),"c"))</f>
         <v/>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="F25" t="str">
-        <f t="shared" ref="F25" si="190">IF(F23=0,"",CONCATENATE("B",F23,LEFT(F24,1),"c"))</f>
+        <f t="shared" ref="F25" si="204">IF(F23=0,"",CONCATENATE("B",F23,LEFT(F24,1),"c"))</f>
         <v/>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f t="shared" ref="L25:M25" si="191">IF(L23=0,"",CONCATENATE("B",L23,LEFT(L24,1),"c"))</f>
+        <f t="shared" ref="L25:M25" si="205">IF(L23=0,"",CONCATENATE("B",L23,LEFT(L24,1),"c"))</f>
         <v/>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="205"/>
         <v/>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="X25" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" ref="Y25:AG25" si="192">IF(Y23=0,"",CONCATENATE("B",Y23,LEFT(Y24,1),"c"))</f>
+        <f t="shared" ref="Y25:AG25" si="206">IF(Y23=0,"",CONCATENATE("B",Y23,LEFT(Y24,1),"c"))</f>
         <v>B25lc</v>
       </c>
       <c r="Z25" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="206"/>
         <v>B50lc</v>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="206"/>
         <v>B25lc</v>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="206"/>
         <v>B50lc</v>
       </c>
       <c r="AC25" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="206"/>
         <v>B50lc</v>
       </c>
       <c r="AD25" t="str">
-        <f t="shared" ref="AD25:AF25" si="193">IF(AD23=0,"",CONCATENATE("B",AD23,LEFT(AD24,1),"c"))</f>
+        <f t="shared" ref="AD25:AF25" si="207">IF(AD23=0,"",CONCATENATE("B",AD23,LEFT(AD24,1),"c"))</f>
         <v>B50lc</v>
       </c>
       <c r="AE25" t="str">
-        <f t="shared" ref="AE25" si="194">IF(AE23=0,"",CONCATENATE("B",AE23,LEFT(AE24,1),"c"))</f>
+        <f t="shared" ref="AE25" si="208">IF(AE23=0,"",CONCATENATE("B",AE23,LEFT(AE24,1),"c"))</f>
         <v>B50lc</v>
       </c>
       <c r="AF25" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="207"/>
         <v>B50lc</v>
       </c>
       <c r="AG25" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="206"/>
         <v>B50lc</v>
       </c>
       <c r="AH25" t="str">
-        <f t="shared" ref="AH25:AK25" si="195">IF(AH23=0,"",CONCATENATE("B",AH23,LEFT(AH24,1),"c"))</f>
+        <f t="shared" ref="AH25:AK25" si="209">IF(AH23=0,"",CONCATENATE("B",AH23,LEFT(AH24,1),"c"))</f>
         <v>B50lc</v>
       </c>
       <c r="AI25" t="str">
-        <f t="shared" ref="AI25" si="196">IF(AI23=0,"",CONCATENATE("B",AI23,LEFT(AI24,1),"c"))</f>
+        <f t="shared" ref="AI25" si="210">IF(AI23=0,"",CONCATENATE("B",AI23,LEFT(AI24,1),"c"))</f>
         <v>B50lc</v>
       </c>
       <c r="AJ25" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="209"/>
         <v>B50lc</v>
       </c>
       <c r="AK25" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="209"/>
         <v/>
       </c>
       <c r="AL25" t="str">
-        <f t="shared" ref="AL25" si="197">IF(AL23=0,"",CONCATENATE("B",AL23,LEFT(AL24,1),"c"))</f>
+        <f t="shared" ref="AL25" si="211">IF(AL23=0,"",CONCATENATE("B",AL23,LEFT(AL24,1),"c"))</f>
         <v/>
       </c>
       <c r="AM25" t="str">
-        <f t="shared" ref="AM25:AN25" si="198">IF(AM23=0,"",CONCATENATE("B",AM23,LEFT(AM24,1),"c"))</f>
+        <f t="shared" ref="AM25:AN25" si="212">IF(AM23=0,"",CONCATENATE("B",AM23,LEFT(AM24,1),"c"))</f>
         <v/>
       </c>
       <c r="AN25" t="str">
-        <f t="shared" si="198"/>
+        <f t="shared" si="212"/>
         <v/>
       </c>
       <c r="AO25" t="str">
-        <f t="shared" ref="AO25:AR25" si="199">IF(AO23=0,"",CONCATENATE("B",AO23,LEFT(AO24,1),"c"))</f>
+        <f t="shared" ref="AO25:AT25" si="213">IF(AO23=0,"",CONCATENATE("B",AO23,LEFT(AO24,1),"c"))</f>
         <v/>
       </c>
       <c r="AP25" t="str">
-        <f t="shared" ref="AP25:AQ25" si="200">IF(AP23=0,"",CONCATENATE("B",AP23,LEFT(AP24,1),"c"))</f>
-        <v/>
+        <f t="shared" si="213"/>
+        <v>B50lc</v>
       </c>
       <c r="AQ25" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" ref="AQ25:AR25" si="214">IF(AQ23=0,"",CONCATENATE("B",AQ23,LEFT(AQ24,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AR25" t="str">
+        <f t="shared" si="214"/>
         <v>B50lc</v>
       </c>
-      <c r="AR25" t="str">
-        <f t="shared" si="199"/>
-        <v/>
-      </c>
       <c r="AS25" t="str">
-        <f t="shared" ref="AS25:AT25" si="201">IF(AS23=0,"",CONCATENATE("B",AS23,LEFT(AS24,1),"c"))</f>
-        <v/>
+        <f t="shared" ref="AS25" si="215">IF(AS23=0,"",CONCATENATE("B",AS23,LEFT(AS24,1),"c"))</f>
+        <v>B50lc</v>
       </c>
       <c r="AT25" t="str">
-        <f t="shared" si="201"/>
+        <f t="shared" si="213"/>
+        <v/>
+      </c>
+      <c r="AU25" t="str">
+        <f t="shared" ref="AU25:AV25" si="216">IF(AU23=0,"",CONCATENATE("B",AU23,LEFT(AU24,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AV25" t="str">
+        <f t="shared" si="216"/>
         <v>B50lc</v>
-      </c>
-      <c r="AU25" t="str">
-        <f>IF(AU23=0,"",CONCATENATE("B",AU23,LEFT(AU24,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="AV25" t="str">
-        <f>IF(AV23=0,"",CONCATENATE("B",AV23,LEFT(AV24,1),"c"))</f>
-        <v/>
       </c>
       <c r="AW25" t="str">
         <f>IF(AW23=0,"",CONCATENATE("B",AW23,LEFT(AW24,1),"c"))</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX25" t="str">
+        <f>IF(AX23=0,"",CONCATENATE("B",AX23,LEFT(AX24,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AY25" t="str">
+        <f>IF(AY23=0,"",CONCATENATE("B",AY23,LEFT(AY24,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>418</v>
       </c>
@@ -7223,191 +7415,199 @@
         <v>batteryLC0</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" ref="D26:X26" si="202">CONCATENATE("battery",UPPER(LEFT(D24,1)), "C",D23)</f>
+        <f t="shared" ref="D26:X26" si="217">CONCATENATE("battery",UPPER(LEFT(D24,1)), "C",D23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" ref="F26" si="203">CONCATENATE("battery",UPPER(LEFT(F24,1)), "C",F23)</f>
+        <f t="shared" ref="F26" si="218">CONCATENATE("battery",UPPER(LEFT(F24,1)), "C",F23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" ref="L26:M26" si="204">CONCATENATE("battery",UPPER(LEFT(L24,1)), "C",L23)</f>
+        <f t="shared" ref="L26:M26" si="219">CONCATENATE("battery",UPPER(LEFT(L24,1)), "C",L23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="204"/>
+        <f t="shared" si="219"/>
         <v>batteryLC0</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="217"/>
         <v>batteryLC0</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" ref="Y26:AG26" si="205">CONCATENATE("battery",UPPER(LEFT(Y24,1)), "C",Y23)</f>
+        <f t="shared" ref="Y26:AG26" si="220">CONCATENATE("battery",UPPER(LEFT(Y24,1)), "C",Y23)</f>
         <v>batteryLC25</v>
       </c>
       <c r="Z26" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="220"/>
         <v>batteryLC50</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="220"/>
         <v>batteryLC25</v>
       </c>
       <c r="AB26" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="220"/>
         <v>batteryLC50</v>
       </c>
       <c r="AC26" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="220"/>
         <v>batteryLC50</v>
       </c>
       <c r="AD26" t="str">
-        <f t="shared" ref="AD26:AF26" si="206">CONCATENATE("battery",UPPER(LEFT(AD24,1)), "C",AD23)</f>
+        <f t="shared" ref="AD26:AF26" si="221">CONCATENATE("battery",UPPER(LEFT(AD24,1)), "C",AD23)</f>
         <v>batteryLC50</v>
       </c>
       <c r="AE26" t="str">
-        <f t="shared" ref="AE26" si="207">CONCATENATE("battery",UPPER(LEFT(AE24,1)), "C",AE23)</f>
+        <f t="shared" ref="AE26" si="222">CONCATENATE("battery",UPPER(LEFT(AE24,1)), "C",AE23)</f>
         <v>batteryLC50</v>
       </c>
       <c r="AF26" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="221"/>
         <v>batteryLC50</v>
       </c>
       <c r="AG26" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="220"/>
         <v>batteryLC50</v>
       </c>
       <c r="AH26" t="str">
-        <f t="shared" ref="AH26:AK26" si="208">CONCATENATE("battery",UPPER(LEFT(AH24,1)), "C",AH23)</f>
+        <f t="shared" ref="AH26:AK26" si="223">CONCATENATE("battery",UPPER(LEFT(AH24,1)), "C",AH23)</f>
         <v>batteryLC50</v>
       </c>
       <c r="AI26" t="str">
-        <f t="shared" ref="AI26" si="209">CONCATENATE("battery",UPPER(LEFT(AI24,1)), "C",AI23)</f>
+        <f t="shared" ref="AI26" si="224">CONCATENATE("battery",UPPER(LEFT(AI24,1)), "C",AI23)</f>
         <v>batteryLC50</v>
       </c>
       <c r="AJ26" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="223"/>
         <v>batteryLC50</v>
       </c>
       <c r="AK26" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="223"/>
         <v>batteryLC0</v>
       </c>
       <c r="AL26" t="str">
-        <f t="shared" ref="AL26" si="210">CONCATENATE("battery",UPPER(LEFT(AL24,1)), "C",AL23)</f>
+        <f t="shared" ref="AL26" si="225">CONCATENATE("battery",UPPER(LEFT(AL24,1)), "C",AL23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="AM26" t="str">
-        <f t="shared" ref="AM26:AN26" si="211">CONCATENATE("battery",UPPER(LEFT(AM24,1)), "C",AM23)</f>
+        <f t="shared" ref="AM26:AN26" si="226">CONCATENATE("battery",UPPER(LEFT(AM24,1)), "C",AM23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="AN26" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>batteryLC0</v>
       </c>
       <c r="AO26" t="str">
-        <f t="shared" ref="AO26:AR26" si="212">CONCATENATE("battery",UPPER(LEFT(AO24,1)), "C",AO23)</f>
+        <f t="shared" ref="AO26:AT26" si="227">CONCATENATE("battery",UPPER(LEFT(AO24,1)), "C",AO23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="AP26" t="str">
-        <f t="shared" ref="AP26:AQ26" si="213">CONCATENATE("battery",UPPER(LEFT(AP24,1)), "C",AP23)</f>
+        <f t="shared" si="227"/>
+        <v>batteryLC50</v>
+      </c>
+      <c r="AQ26" t="str">
+        <f t="shared" ref="AQ26:AR26" si="228">CONCATENATE("battery",UPPER(LEFT(AQ24,1)), "C",AQ23)</f>
         <v>batteryLC0</v>
       </c>
-      <c r="AQ26" t="str">
-        <f t="shared" si="213"/>
+      <c r="AR26" t="str">
+        <f t="shared" si="228"/>
         <v>batteryLC50</v>
       </c>
-      <c r="AR26" t="str">
-        <f t="shared" si="212"/>
+      <c r="AS26" t="str">
+        <f t="shared" ref="AS26" si="229">CONCATENATE("battery",UPPER(LEFT(AS24,1)), "C",AS23)</f>
+        <v>batteryLC50</v>
+      </c>
+      <c r="AT26" t="str">
+        <f t="shared" si="227"/>
         <v>batteryLC0</v>
       </c>
-      <c r="AS26" t="str">
-        <f t="shared" ref="AS26:AT26" si="214">CONCATENATE("battery",UPPER(LEFT(AS24,1)), "C",AS23)</f>
+      <c r="AU26" t="str">
+        <f t="shared" ref="AU26:AV26" si="230">CONCATENATE("battery",UPPER(LEFT(AU24,1)), "C",AU23)</f>
         <v>batteryLC0</v>
       </c>
-      <c r="AT26" t="str">
-        <f t="shared" si="214"/>
+      <c r="AV26" t="str">
+        <f t="shared" si="230"/>
         <v>batteryLC50</v>
-      </c>
-      <c r="AU26" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(AU24,1)), "C",AU23)</f>
-        <v>batteryLC0</v>
-      </c>
-      <c r="AV26" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(AV24,1)), "C",AV23)</f>
-        <v>batteryLC0</v>
       </c>
       <c r="AW26" t="str">
         <f>CONCATENATE("battery",UPPER(LEFT(AW24,1)), "C",AW23)</f>
         <v>batteryLC0</v>
       </c>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX26" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(AX24,1)), "C",AX23)</f>
+        <v>batteryLC0</v>
+      </c>
+      <c r="AY26" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(AY24,1)), "C",AY23)</f>
+        <v>batteryLC0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>269</v>
       </c>
@@ -7532,31 +7732,37 @@
         <v>0</v>
       </c>
       <c r="AP27" s="21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="21">
         <v>30</v>
       </c>
       <c r="AR27" s="21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AS27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="21">
         <v>30</v>
       </c>
-      <c r="AT27" s="21">
+      <c r="AV27" s="21">
         <v>30</v>
       </c>
-      <c r="AU27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV27" s="21">
-        <v>0</v>
-      </c>
       <c r="AW27" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>271</v>
       </c>
@@ -7704,394 +7910,416 @@
       <c r="AW28" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX28" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>273</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ref="C29:W29" si="215">IF(C27=0,"",CONCATENATE("W",C27,LEFT(C28,1),"c"))</f>
+        <f t="shared" ref="C29:W29" si="231">IF(C27=0,"",CONCATENATE("W",C27,LEFT(C28,1),"c"))</f>
         <v/>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="F29" t="str">
-        <f t="shared" ref="F29" si="216">IF(F27=0,"",CONCATENATE("W",F27,LEFT(F28,1),"c"))</f>
+        <f t="shared" ref="F29" si="232">IF(F27=0,"",CONCATENATE("W",F27,LEFT(F28,1),"c"))</f>
         <v/>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f t="shared" ref="L29:M29" si="217">IF(L27=0,"",CONCATENATE("W",L27,LEFT(L28,1),"c"))</f>
+        <f t="shared" ref="L29:M29" si="233">IF(L27=0,"",CONCATENATE("W",L27,LEFT(L28,1),"c"))</f>
         <v/>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="233"/>
         <v/>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v>W10lc</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v>W20lc</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v>W30lc</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="S29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v>W30lc</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="X29" t="str">
-        <f t="shared" ref="X29:AC29" si="218">IF(X27=0,"",CONCATENATE("W",X27,LEFT(X28,1),"c"))</f>
+        <f t="shared" ref="X29:AC29" si="234">IF(X27=0,"",CONCATENATE("W",X27,LEFT(X28,1),"c"))</f>
         <v/>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="234"/>
         <v/>
       </c>
       <c r="Z29" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="234"/>
         <v/>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="234"/>
         <v/>
       </c>
       <c r="AB29" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="234"/>
         <v/>
       </c>
       <c r="AC29" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="234"/>
         <v/>
       </c>
       <c r="AD29" t="str">
-        <f t="shared" ref="AD29:AF29" si="219">IF(AD27=0,"",CONCATENATE("W",AD27,LEFT(AD28,1),"c"))</f>
+        <f t="shared" ref="AD29:AF29" si="235">IF(AD27=0,"",CONCATENATE("W",AD27,LEFT(AD28,1),"c"))</f>
         <v>W30lc</v>
       </c>
       <c r="AE29" t="str">
-        <f t="shared" ref="AE29" si="220">IF(AE27=0,"",CONCATENATE("W",AE27,LEFT(AE28,1),"c"))</f>
+        <f t="shared" ref="AE29" si="236">IF(AE27=0,"",CONCATENATE("W",AE27,LEFT(AE28,1),"c"))</f>
         <v/>
       </c>
       <c r="AF29" t="str">
-        <f t="shared" si="219"/>
+        <f t="shared" si="235"/>
         <v>W30lc</v>
       </c>
       <c r="AG29" t="str">
-        <f t="shared" ref="AG29:AH29" si="221">IF(AG27=0,"",CONCATENATE("W",AG27,LEFT(AG28,1),"c"))</f>
+        <f t="shared" ref="AG29:AH29" si="237">IF(AG27=0,"",CONCATENATE("W",AG27,LEFT(AG28,1),"c"))</f>
         <v/>
       </c>
       <c r="AH29" t="str">
-        <f t="shared" si="221"/>
+        <f t="shared" si="237"/>
         <v>W30lc</v>
       </c>
       <c r="AI29" t="str">
-        <f t="shared" ref="AI29" si="222">IF(AI27=0,"",CONCATENATE("W",AI27,LEFT(AI28,1),"c"))</f>
+        <f t="shared" ref="AI29" si="238">IF(AI27=0,"",CONCATENATE("W",AI27,LEFT(AI28,1),"c"))</f>
         <v/>
       </c>
       <c r="AJ29" t="str">
-        <f t="shared" ref="AJ29:AK29" si="223">IF(AJ27=0,"",CONCATENATE("W",AJ27,LEFT(AJ28,1),"c"))</f>
+        <f t="shared" ref="AJ29:AK29" si="239">IF(AJ27=0,"",CONCATENATE("W",AJ27,LEFT(AJ28,1),"c"))</f>
         <v>W30lc</v>
       </c>
       <c r="AK29" t="str">
-        <f t="shared" si="223"/>
+        <f t="shared" si="239"/>
         <v>W30lc</v>
       </c>
       <c r="AL29" t="str">
-        <f t="shared" ref="AL29" si="224">IF(AL27=0,"",CONCATENATE("W",AL27,LEFT(AL28,1),"c"))</f>
+        <f t="shared" ref="AL29" si="240">IF(AL27=0,"",CONCATENATE("W",AL27,LEFT(AL28,1),"c"))</f>
         <v>W30lc</v>
       </c>
       <c r="AM29" t="str">
-        <f t="shared" ref="AM29:AN29" si="225">IF(AM27=0,"",CONCATENATE("W",AM27,LEFT(AM28,1),"c"))</f>
+        <f t="shared" ref="AM29:AN29" si="241">IF(AM27=0,"",CONCATENATE("W",AM27,LEFT(AM28,1),"c"))</f>
         <v/>
       </c>
       <c r="AN29" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="241"/>
         <v>W30lc</v>
       </c>
       <c r="AO29" t="str">
-        <f t="shared" ref="AO29:AR29" si="226">IF(AO27=0,"",CONCATENATE("W",AO27,LEFT(AO28,1),"c"))</f>
+        <f t="shared" ref="AO29:AT29" si="242">IF(AO27=0,"",CONCATENATE("W",AO27,LEFT(AO28,1),"c"))</f>
         <v/>
       </c>
       <c r="AP29" t="str">
-        <f t="shared" ref="AP29:AQ29" si="227">IF(AP27=0,"",CONCATENATE("W",AP27,LEFT(AP28,1),"c"))</f>
+        <f t="shared" si="242"/>
+        <v/>
+      </c>
+      <c r="AQ29" t="str">
+        <f t="shared" ref="AQ29:AR29" si="243">IF(AQ27=0,"",CONCATENATE("W",AQ27,LEFT(AQ28,1),"c"))</f>
         <v>W30lc</v>
       </c>
-      <c r="AQ29" t="str">
-        <f t="shared" si="227"/>
+      <c r="AR29" t="str">
+        <f t="shared" si="243"/>
         <v>W30lc</v>
       </c>
-      <c r="AR29" t="str">
-        <f t="shared" si="226"/>
-        <v/>
-      </c>
       <c r="AS29" t="str">
-        <f t="shared" ref="AS29:AT29" si="228">IF(AS27=0,"",CONCATENATE("W",AS27,LEFT(AS28,1),"c"))</f>
+        <f t="shared" ref="AS29" si="244">IF(AS27=0,"",CONCATENATE("W",AS27,LEFT(AS28,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AT29" t="str">
+        <f t="shared" si="242"/>
+        <v/>
+      </c>
+      <c r="AU29" t="str">
+        <f t="shared" ref="AU29:AV29" si="245">IF(AU27=0,"",CONCATENATE("W",AU27,LEFT(AU28,1),"c"))</f>
         <v>W30lc</v>
       </c>
-      <c r="AT29" t="str">
-        <f t="shared" si="228"/>
+      <c r="AV29" t="str">
+        <f t="shared" si="245"/>
         <v>W30lc</v>
-      </c>
-      <c r="AU29" t="str">
-        <f>IF(AU27=0,"",CONCATENATE("W",AU27,LEFT(AU28,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="AV29" t="str">
-        <f>IF(AV27=0,"",CONCATENATE("W",AV27,LEFT(AV28,1),"c"))</f>
-        <v/>
       </c>
       <c r="AW29" t="str">
         <f>IF(AW27=0,"",CONCATENATE("W",AW27,LEFT(AW28,1),"c"))</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX29" t="str">
+        <f>IF(AX27=0,"",CONCATENATE("W",AX27,LEFT(AX28,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AY29" t="str">
+        <f>IF(AY27=0,"",CONCATENATE("W",AY27,LEFT(AY28,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>274</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ref="C30:W30" si="229">CONCATENATE("wind",UPPER(LEFT(C28,1)), "C",C27)</f>
+        <f t="shared" ref="C30:W30" si="246">CONCATENATE("wind",UPPER(LEFT(C28,1)), "C",C27)</f>
         <v>windLC0</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC0</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC0</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" ref="F30" si="230">CONCATENATE("wind",UPPER(LEFT(F28,1)), "C",F27)</f>
+        <f t="shared" ref="F30" si="247">CONCATENATE("wind",UPPER(LEFT(F28,1)), "C",F27)</f>
         <v>windLC0</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC0</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC0</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC0</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC0</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC0</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" ref="L30:M30" si="231">CONCATENATE("wind",UPPER(LEFT(L28,1)), "C",L27)</f>
+        <f t="shared" ref="L30:M30" si="248">CONCATENATE("wind",UPPER(LEFT(L28,1)), "C",L27)</f>
         <v>windLC0</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="231"/>
+        <f t="shared" si="248"/>
         <v>windLC0</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC10</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC20</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC30</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC0</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC0</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC0</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC30</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC0</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC0</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="246"/>
         <v>windLC0</v>
       </c>
       <c r="X30" t="str">
-        <f t="shared" ref="X30:AC30" si="232">CONCATENATE("wind",UPPER(LEFT(X28,1)), "C",X27)</f>
+        <f t="shared" ref="X30:AC30" si="249">CONCATENATE("wind",UPPER(LEFT(X28,1)), "C",X27)</f>
         <v>windLC0</v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="232"/>
+        <f t="shared" si="249"/>
         <v>windLC0</v>
       </c>
       <c r="Z30" t="str">
-        <f t="shared" si="232"/>
+        <f t="shared" si="249"/>
         <v>windLC0</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="232"/>
+        <f t="shared" si="249"/>
         <v>windLC0</v>
       </c>
       <c r="AB30" t="str">
-        <f t="shared" si="232"/>
+        <f t="shared" si="249"/>
         <v>windLC0</v>
       </c>
       <c r="AC30" t="str">
-        <f t="shared" si="232"/>
+        <f t="shared" si="249"/>
         <v>windLC0</v>
       </c>
       <c r="AD30" t="str">
-        <f t="shared" ref="AD30:AF30" si="233">CONCATENATE("wind",UPPER(LEFT(AD28,1)), "C",AD27)</f>
+        <f t="shared" ref="AD30:AF30" si="250">CONCATENATE("wind",UPPER(LEFT(AD28,1)), "C",AD27)</f>
         <v>windLC30</v>
       </c>
       <c r="AE30" t="str">
-        <f t="shared" ref="AE30" si="234">CONCATENATE("wind",UPPER(LEFT(AE28,1)), "C",AE27)</f>
+        <f t="shared" ref="AE30" si="251">CONCATENATE("wind",UPPER(LEFT(AE28,1)), "C",AE27)</f>
         <v>windLC0</v>
       </c>
       <c r="AF30" t="str">
-        <f t="shared" si="233"/>
+        <f t="shared" si="250"/>
         <v>windLC30</v>
       </c>
       <c r="AG30" t="str">
-        <f t="shared" ref="AG30:AH30" si="235">CONCATENATE("wind",UPPER(LEFT(AG28,1)), "C",AG27)</f>
+        <f t="shared" ref="AG30:AH30" si="252">CONCATENATE("wind",UPPER(LEFT(AG28,1)), "C",AG27)</f>
         <v>windLC0</v>
       </c>
       <c r="AH30" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" si="252"/>
         <v>windLC30</v>
       </c>
       <c r="AI30" t="str">
-        <f t="shared" ref="AI30" si="236">CONCATENATE("wind",UPPER(LEFT(AI28,1)), "C",AI27)</f>
+        <f t="shared" ref="AI30" si="253">CONCATENATE("wind",UPPER(LEFT(AI28,1)), "C",AI27)</f>
         <v>windLC0</v>
       </c>
       <c r="AJ30" t="str">
-        <f t="shared" ref="AJ30:AK30" si="237">CONCATENATE("wind",UPPER(LEFT(AJ28,1)), "C",AJ27)</f>
+        <f t="shared" ref="AJ30:AK30" si="254">CONCATENATE("wind",UPPER(LEFT(AJ28,1)), "C",AJ27)</f>
         <v>windLC30</v>
       </c>
       <c r="AK30" t="str">
-        <f t="shared" si="237"/>
+        <f t="shared" si="254"/>
         <v>windLC30</v>
       </c>
       <c r="AL30" t="str">
-        <f t="shared" ref="AL30" si="238">CONCATENATE("wind",UPPER(LEFT(AL28,1)), "C",AL27)</f>
+        <f t="shared" ref="AL30" si="255">CONCATENATE("wind",UPPER(LEFT(AL28,1)), "C",AL27)</f>
         <v>windLC30</v>
       </c>
       <c r="AM30" t="str">
-        <f t="shared" ref="AM30:AN30" si="239">CONCATENATE("wind",UPPER(LEFT(AM28,1)), "C",AM27)</f>
+        <f t="shared" ref="AM30:AN30" si="256">CONCATENATE("wind",UPPER(LEFT(AM28,1)), "C",AM27)</f>
         <v>windLC0</v>
       </c>
       <c r="AN30" t="str">
-        <f t="shared" si="239"/>
+        <f t="shared" si="256"/>
         <v>windLC30</v>
       </c>
       <c r="AO30" t="str">
-        <f t="shared" ref="AO30:AR30" si="240">CONCATENATE("wind",UPPER(LEFT(AO28,1)), "C",AO27)</f>
+        <f t="shared" ref="AO30:AT30" si="257">CONCATENATE("wind",UPPER(LEFT(AO28,1)), "C",AO27)</f>
         <v>windLC0</v>
       </c>
       <c r="AP30" t="str">
-        <f t="shared" ref="AP30:AQ30" si="241">CONCATENATE("wind",UPPER(LEFT(AP28,1)), "C",AP27)</f>
+        <f t="shared" si="257"/>
+        <v>windLC0</v>
+      </c>
+      <c r="AQ30" t="str">
+        <f t="shared" ref="AQ30:AR30" si="258">CONCATENATE("wind",UPPER(LEFT(AQ28,1)), "C",AQ27)</f>
         <v>windLC30</v>
       </c>
-      <c r="AQ30" t="str">
-        <f t="shared" si="241"/>
+      <c r="AR30" t="str">
+        <f t="shared" si="258"/>
         <v>windLC30</v>
       </c>
-      <c r="AR30" t="str">
-        <f t="shared" si="240"/>
+      <c r="AS30" t="str">
+        <f t="shared" ref="AS30" si="259">CONCATENATE("wind",UPPER(LEFT(AS28,1)), "C",AS27)</f>
         <v>windLC0</v>
       </c>
-      <c r="AS30" t="str">
-        <f t="shared" ref="AS30:AT30" si="242">CONCATENATE("wind",UPPER(LEFT(AS28,1)), "C",AS27)</f>
+      <c r="AT30" t="str">
+        <f t="shared" si="257"/>
+        <v>windLC0</v>
+      </c>
+      <c r="AU30" t="str">
+        <f t="shared" ref="AU30:AV30" si="260">CONCATENATE("wind",UPPER(LEFT(AU28,1)), "C",AU27)</f>
         <v>windLC30</v>
       </c>
-      <c r="AT30" t="str">
-        <f t="shared" si="242"/>
+      <c r="AV30" t="str">
+        <f t="shared" si="260"/>
         <v>windLC30</v>
-      </c>
-      <c r="AU30" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(AU28,1)), "C",AU27)</f>
-        <v>windLC0</v>
-      </c>
-      <c r="AV30" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(AV28,1)), "C",AV27)</f>
-        <v>windLC0</v>
       </c>
       <c r="AW30" t="str">
         <f>CONCATENATE("wind",UPPER(LEFT(AW28,1)), "C",AW27)</f>
         <v>windLC0</v>
       </c>
-    </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX30" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(AX28,1)), "C",AX27)</f>
+        <v>windLC0</v>
+      </c>
+      <c r="AY30" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(AY28,1)), "C",AY27)</f>
+        <v>windLC0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>275</v>
       </c>
@@ -8216,31 +8444,37 @@
         <v>0</v>
       </c>
       <c r="AP31" s="21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="21">
         <v>30</v>
       </c>
       <c r="AR31" s="21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AS31" s="21">
         <v>30</v>
       </c>
       <c r="AT31" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="21">
         <v>30</v>
       </c>
-      <c r="AU31" s="21">
-        <v>0</v>
-      </c>
       <c r="AV31" s="21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AW31" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX31" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>276</v>
       </c>
@@ -8388,93 +8622,99 @@
       <c r="AW32" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX32" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>277</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ref="C33" si="243">IF(C31=0,"",CONCATENATE("S",C31,LEFT(C32,1),"c"))</f>
+        <f t="shared" ref="C33" si="261">IF(C31=0,"",CONCATENATE("S",C31,LEFT(C32,1),"c"))</f>
         <v/>
       </c>
       <c r="D33" t="str">
-        <f t="shared" ref="D33" si="244">IF(D31=0,"",CONCATENATE("S",D31,LEFT(D32,1),"c"))</f>
+        <f t="shared" ref="D33" si="262">IF(D31=0,"",CONCATENATE("S",D31,LEFT(D32,1),"c"))</f>
         <v/>
       </c>
       <c r="E33" t="str">
-        <f t="shared" ref="E33" si="245">IF(E31=0,"",CONCATENATE("S",E31,LEFT(E32,1),"c"))</f>
+        <f t="shared" ref="E33" si="263">IF(E31=0,"",CONCATENATE("S",E31,LEFT(E32,1),"c"))</f>
         <v/>
       </c>
       <c r="F33" t="str">
-        <f t="shared" ref="F33" si="246">IF(F31=0,"",CONCATENATE("S",F31,LEFT(F32,1),"c"))</f>
+        <f t="shared" ref="F33" si="264">IF(F31=0,"",CONCATENATE("S",F31,LEFT(F32,1),"c"))</f>
         <v/>
       </c>
       <c r="G33" t="str">
-        <f t="shared" ref="G33" si="247">IF(G31=0,"",CONCATENATE("S",G31,LEFT(G32,1),"c"))</f>
+        <f t="shared" ref="G33" si="265">IF(G31=0,"",CONCATENATE("S",G31,LEFT(G32,1),"c"))</f>
         <v/>
       </c>
       <c r="H33" t="str">
-        <f t="shared" ref="H33" si="248">IF(H31=0,"",CONCATENATE("S",H31,LEFT(H32,1),"c"))</f>
+        <f t="shared" ref="H33" si="266">IF(H31=0,"",CONCATENATE("S",H31,LEFT(H32,1),"c"))</f>
         <v/>
       </c>
       <c r="I33" t="str">
-        <f t="shared" ref="I33" si="249">IF(I31=0,"",CONCATENATE("S",I31,LEFT(I32,1),"c"))</f>
+        <f t="shared" ref="I33" si="267">IF(I31=0,"",CONCATENATE("S",I31,LEFT(I32,1),"c"))</f>
         <v/>
       </c>
       <c r="J33" t="str">
-        <f t="shared" ref="J33" si="250">IF(J31=0,"",CONCATENATE("S",J31,LEFT(J32,1),"c"))</f>
+        <f t="shared" ref="J33" si="268">IF(J31=0,"",CONCATENATE("S",J31,LEFT(J32,1),"c"))</f>
         <v/>
       </c>
       <c r="K33" t="str">
-        <f t="shared" ref="K33" si="251">IF(K31=0,"",CONCATENATE("S",K31,LEFT(K32,1),"c"))</f>
+        <f t="shared" ref="K33" si="269">IF(K31=0,"",CONCATENATE("S",K31,LEFT(K32,1),"c"))</f>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f t="shared" ref="L33" si="252">IF(L31=0,"",CONCATENATE("S",L31,LEFT(L32,1),"c"))</f>
+        <f t="shared" ref="L33" si="270">IF(L31=0,"",CONCATENATE("S",L31,LEFT(L32,1),"c"))</f>
         <v/>
       </c>
       <c r="M33" t="str">
-        <f t="shared" ref="M33" si="253">IF(M31=0,"",CONCATENATE("S",M31,LEFT(M32,1),"c"))</f>
+        <f t="shared" ref="M33" si="271">IF(M31=0,"",CONCATENATE("S",M31,LEFT(M32,1),"c"))</f>
         <v/>
       </c>
       <c r="N33" t="str">
-        <f t="shared" ref="N33" si="254">IF(N31=0,"",CONCATENATE("S",N31,LEFT(N32,1),"c"))</f>
+        <f t="shared" ref="N33" si="272">IF(N31=0,"",CONCATENATE("S",N31,LEFT(N32,1),"c"))</f>
         <v/>
       </c>
       <c r="O33" t="str">
-        <f t="shared" ref="O33" si="255">IF(O31=0,"",CONCATENATE("S",O31,LEFT(O32,1),"c"))</f>
+        <f t="shared" ref="O33" si="273">IF(O31=0,"",CONCATENATE("S",O31,LEFT(O32,1),"c"))</f>
         <v/>
       </c>
       <c r="P33" t="str">
-        <f t="shared" ref="P33" si="256">IF(P31=0,"",CONCATENATE("S",P31,LEFT(P32,1),"c"))</f>
+        <f t="shared" ref="P33" si="274">IF(P31=0,"",CONCATENATE("S",P31,LEFT(P32,1),"c"))</f>
         <v/>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" ref="Q33:W33" si="257">IF(Q31=0,"",CONCATENATE("S",Q31,LEFT(Q32,1),"c"))</f>
+        <f t="shared" ref="Q33:W33" si="275">IF(Q31=0,"",CONCATENATE("S",Q31,LEFT(Q32,1),"c"))</f>
         <v>S10lc</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="257"/>
+        <f t="shared" si="275"/>
         <v>S20lc</v>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="257"/>
+        <f t="shared" si="275"/>
         <v>S30lc</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="257"/>
+        <f t="shared" si="275"/>
         <v>S30lc</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="257"/>
+        <f t="shared" si="275"/>
         <v/>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="257"/>
+        <f t="shared" si="275"/>
         <v/>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="257"/>
+        <f t="shared" si="275"/>
         <v/>
       </c>
       <c r="X33" t="str">
@@ -8482,300 +8722,316 @@
         <v/>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" ref="Y33:AN33" si="258">IF(Y31=0,"",CONCATENATE("S",Y31,LEFT(Y32,1),"c"))</f>
+        <f t="shared" ref="Y33:AN33" si="276">IF(Y31=0,"",CONCATENATE("S",Y31,LEFT(Y32,1),"c"))</f>
         <v/>
       </c>
       <c r="Z33" t="str">
-        <f t="shared" si="258"/>
+        <f t="shared" si="276"/>
         <v/>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="258"/>
+        <f t="shared" si="276"/>
         <v/>
       </c>
       <c r="AB33" t="str">
-        <f t="shared" si="258"/>
+        <f t="shared" si="276"/>
         <v/>
       </c>
       <c r="AC33" t="str">
-        <f t="shared" si="258"/>
+        <f t="shared" si="276"/>
         <v/>
       </c>
       <c r="AD33" t="str">
-        <f t="shared" ref="AD33:AF33" si="259">IF(AD31=0,"",CONCATENATE("S",AD31,LEFT(AD32,1),"c"))</f>
+        <f t="shared" ref="AD33:AF33" si="277">IF(AD31=0,"",CONCATENATE("S",AD31,LEFT(AD32,1),"c"))</f>
         <v/>
       </c>
       <c r="AE33" t="str">
-        <f t="shared" ref="AE33" si="260">IF(AE31=0,"",CONCATENATE("S",AE31,LEFT(AE32,1),"c"))</f>
+        <f t="shared" ref="AE33" si="278">IF(AE31=0,"",CONCATENATE("S",AE31,LEFT(AE32,1),"c"))</f>
         <v>S30lc</v>
       </c>
       <c r="AF33" t="str">
-        <f t="shared" si="259"/>
+        <f t="shared" si="277"/>
         <v>S30lc</v>
       </c>
       <c r="AG33" t="str">
-        <f t="shared" si="258"/>
+        <f t="shared" si="276"/>
         <v/>
       </c>
       <c r="AH33" t="str">
-        <f t="shared" ref="AH33:AK33" si="261">IF(AH31=0,"",CONCATENATE("S",AH31,LEFT(AH32,1),"c"))</f>
+        <f t="shared" ref="AH33:AK33" si="279">IF(AH31=0,"",CONCATENATE("S",AH31,LEFT(AH32,1),"c"))</f>
         <v/>
       </c>
       <c r="AI33" t="str">
-        <f t="shared" ref="AI33" si="262">IF(AI31=0,"",CONCATENATE("S",AI31,LEFT(AI32,1),"c"))</f>
+        <f t="shared" ref="AI33" si="280">IF(AI31=0,"",CONCATENATE("S",AI31,LEFT(AI32,1),"c"))</f>
         <v>S30lc</v>
       </c>
       <c r="AJ33" t="str">
-        <f t="shared" si="261"/>
+        <f t="shared" si="279"/>
         <v>S30lc</v>
       </c>
       <c r="AK33" t="str">
-        <f t="shared" si="261"/>
+        <f t="shared" si="279"/>
         <v>S30lc</v>
       </c>
       <c r="AL33" t="str">
-        <f t="shared" si="258"/>
+        <f t="shared" si="276"/>
         <v/>
       </c>
       <c r="AM33" t="str">
-        <f t="shared" si="258"/>
+        <f t="shared" si="276"/>
         <v>S30lc</v>
       </c>
       <c r="AN33" t="str">
-        <f t="shared" si="258"/>
+        <f t="shared" si="276"/>
         <v>S30lc</v>
       </c>
       <c r="AO33" t="str">
-        <f t="shared" ref="AO33:AR33" si="263">IF(AO31=0,"",CONCATENATE("S",AO31,LEFT(AO32,1),"c"))</f>
+        <f t="shared" ref="AO33:AT33" si="281">IF(AO31=0,"",CONCATENATE("S",AO31,LEFT(AO32,1),"c"))</f>
         <v/>
       </c>
       <c r="AP33" t="str">
-        <f t="shared" ref="AP33:AQ33" si="264">IF(AP31=0,"",CONCATENATE("S",AP31,LEFT(AP32,1),"c"))</f>
+        <f t="shared" si="281"/>
+        <v/>
+      </c>
+      <c r="AQ33" t="str">
+        <f t="shared" ref="AQ33:AR33" si="282">IF(AQ31=0,"",CONCATENATE("S",AQ31,LEFT(AQ32,1),"c"))</f>
         <v>S30lc</v>
       </c>
-      <c r="AQ33" t="str">
-        <f t="shared" si="264"/>
+      <c r="AR33" t="str">
+        <f t="shared" si="282"/>
         <v>S30lc</v>
       </c>
-      <c r="AR33" t="str">
-        <f t="shared" si="263"/>
-        <v/>
-      </c>
       <c r="AS33" t="str">
-        <f t="shared" ref="AS33:AT33" si="265">IF(AS31=0,"",CONCATENATE("S",AS31,LEFT(AS32,1),"c"))</f>
+        <f t="shared" ref="AS33" si="283">IF(AS31=0,"",CONCATENATE("S",AS31,LEFT(AS32,1),"c"))</f>
         <v>S30lc</v>
       </c>
       <c r="AT33" t="str">
-        <f t="shared" si="265"/>
+        <f t="shared" si="281"/>
+        <v/>
+      </c>
+      <c r="AU33" t="str">
+        <f t="shared" ref="AU33:AV33" si="284">IF(AU31=0,"",CONCATENATE("S",AU31,LEFT(AU32,1),"c"))</f>
         <v>S30lc</v>
       </c>
-      <c r="AU33" t="str">
-        <f>IF(AU31=0,"",CONCATENATE("S",AU31,LEFT(AU32,1),"c"))</f>
-        <v/>
-      </c>
       <c r="AV33" t="str">
-        <f>IF(AV31=0,"",CONCATENATE("S",AV31,LEFT(AV32,1),"c"))</f>
-        <v/>
+        <f t="shared" si="284"/>
+        <v>S30lc</v>
       </c>
       <c r="AW33" t="str">
         <f>IF(AW31=0,"",CONCATENATE("S",AW31,LEFT(AW32,1),"c"))</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX33" t="str">
+        <f>IF(AX31=0,"",CONCATENATE("S",AX31,LEFT(AX32,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AY33" t="str">
+        <f>IF(AY31=0,"",CONCATENATE("S",AY31,LEFT(AY32,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>278</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ref="C34:W34" si="266">CONCATENATE("solar",UPPER(LEFT(C32,1)), "C",C31)</f>
+        <f t="shared" ref="C34:W34" si="285">CONCATENATE("solar",UPPER(LEFT(C32,1)), "C",C31)</f>
         <v>solarLC0</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC0</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC0</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" ref="F34" si="267">CONCATENATE("solar",UPPER(LEFT(F32,1)), "C",F31)</f>
+        <f t="shared" ref="F34" si="286">CONCATENATE("solar",UPPER(LEFT(F32,1)), "C",F31)</f>
         <v>solarLC0</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC0</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC0</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC0</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC0</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC0</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" ref="L34:M34" si="268">CONCATENATE("solar",UPPER(LEFT(L32,1)), "C",L31)</f>
+        <f t="shared" ref="L34:M34" si="287">CONCATENATE("solar",UPPER(LEFT(L32,1)), "C",L31)</f>
         <v>solarLC0</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="268"/>
+        <f t="shared" si="287"/>
         <v>solarLC0</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC0</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC0</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC0</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC10</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC20</v>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC30</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC30</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC0</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC0</v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="285"/>
         <v>solarLC0</v>
       </c>
       <c r="X34" t="str">
-        <f t="shared" ref="X34:AC34" si="269">CONCATENATE("solar",UPPER(LEFT(X32,1)), "C",X31)</f>
+        <f t="shared" ref="X34:AC34" si="288">CONCATENATE("solar",UPPER(LEFT(X32,1)), "C",X31)</f>
         <v>solarLC0</v>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" si="269"/>
+        <f t="shared" si="288"/>
         <v>solarLC0</v>
       </c>
       <c r="Z34" t="str">
-        <f t="shared" si="269"/>
+        <f t="shared" si="288"/>
         <v>solarLC0</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="269"/>
+        <f t="shared" si="288"/>
         <v>solarLC0</v>
       </c>
       <c r="AB34" t="str">
-        <f t="shared" si="269"/>
+        <f t="shared" si="288"/>
         <v>solarLC0</v>
       </c>
       <c r="AC34" t="str">
-        <f t="shared" si="269"/>
+        <f t="shared" si="288"/>
         <v>solarLC0</v>
       </c>
       <c r="AD34" t="str">
-        <f t="shared" ref="AD34:AF34" si="270">CONCATENATE("solar",UPPER(LEFT(AD32,1)), "C",AD31)</f>
+        <f t="shared" ref="AD34:AF34" si="289">CONCATENATE("solar",UPPER(LEFT(AD32,1)), "C",AD31)</f>
         <v>solarLC0</v>
       </c>
       <c r="AE34" t="str">
-        <f t="shared" ref="AE34" si="271">CONCATENATE("solar",UPPER(LEFT(AE32,1)), "C",AE31)</f>
+        <f t="shared" ref="AE34" si="290">CONCATENATE("solar",UPPER(LEFT(AE32,1)), "C",AE31)</f>
         <v>solarLC30</v>
       </c>
       <c r="AF34" t="str">
-        <f t="shared" si="270"/>
+        <f t="shared" si="289"/>
         <v>solarLC30</v>
       </c>
       <c r="AG34" t="str">
-        <f t="shared" ref="AG34:AH34" si="272">CONCATENATE("solar",UPPER(LEFT(AG32,1)), "C",AG31)</f>
+        <f t="shared" ref="AG34:AH34" si="291">CONCATENATE("solar",UPPER(LEFT(AG32,1)), "C",AG31)</f>
         <v>solarLC0</v>
       </c>
       <c r="AH34" t="str">
-        <f t="shared" si="272"/>
+        <f t="shared" si="291"/>
         <v>solarLC0</v>
       </c>
       <c r="AI34" t="str">
-        <f t="shared" ref="AI34" si="273">CONCATENATE("solar",UPPER(LEFT(AI32,1)), "C",AI31)</f>
+        <f t="shared" ref="AI34" si="292">CONCATENATE("solar",UPPER(LEFT(AI32,1)), "C",AI31)</f>
         <v>solarLC30</v>
       </c>
       <c r="AJ34" t="str">
-        <f t="shared" ref="AJ34:AK34" si="274">CONCATENATE("solar",UPPER(LEFT(AJ32,1)), "C",AJ31)</f>
+        <f t="shared" ref="AJ34:AK34" si="293">CONCATENATE("solar",UPPER(LEFT(AJ32,1)), "C",AJ31)</f>
         <v>solarLC30</v>
       </c>
       <c r="AK34" t="str">
-        <f t="shared" si="274"/>
+        <f t="shared" si="293"/>
         <v>solarLC30</v>
       </c>
       <c r="AL34" t="str">
-        <f t="shared" ref="AL34" si="275">CONCATENATE("solar",UPPER(LEFT(AL32,1)), "C",AL31)</f>
+        <f t="shared" ref="AL34" si="294">CONCATENATE("solar",UPPER(LEFT(AL32,1)), "C",AL31)</f>
         <v>solarLC0</v>
       </c>
       <c r="AM34" t="str">
-        <f t="shared" ref="AM34:AN34" si="276">CONCATENATE("solar",UPPER(LEFT(AM32,1)), "C",AM31)</f>
+        <f t="shared" ref="AM34:AN34" si="295">CONCATENATE("solar",UPPER(LEFT(AM32,1)), "C",AM31)</f>
         <v>solarLC30</v>
       </c>
       <c r="AN34" t="str">
-        <f t="shared" si="276"/>
+        <f t="shared" si="295"/>
         <v>solarLC30</v>
       </c>
       <c r="AO34" t="str">
-        <f t="shared" ref="AO34:AR34" si="277">CONCATENATE("solar",UPPER(LEFT(AO32,1)), "C",AO31)</f>
+        <f t="shared" ref="AO34:AT34" si="296">CONCATENATE("solar",UPPER(LEFT(AO32,1)), "C",AO31)</f>
         <v>solarLC0</v>
       </c>
       <c r="AP34" t="str">
-        <f t="shared" ref="AP34:AQ34" si="278">CONCATENATE("solar",UPPER(LEFT(AP32,1)), "C",AP31)</f>
+        <f t="shared" si="296"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="AQ34" t="str">
+        <f t="shared" ref="AQ34:AR34" si="297">CONCATENATE("solar",UPPER(LEFT(AQ32,1)), "C",AQ31)</f>
         <v>solarLC30</v>
       </c>
-      <c r="AQ34" t="str">
-        <f t="shared" si="278"/>
+      <c r="AR34" t="str">
+        <f t="shared" si="297"/>
         <v>solarLC30</v>
       </c>
-      <c r="AR34" t="str">
-        <f t="shared" si="277"/>
+      <c r="AS34" t="str">
+        <f t="shared" ref="AS34" si="298">CONCATENATE("solar",UPPER(LEFT(AS32,1)), "C",AS31)</f>
+        <v>solarLC30</v>
+      </c>
+      <c r="AT34" t="str">
+        <f t="shared" si="296"/>
         <v>solarLC0</v>
       </c>
-      <c r="AS34" t="str">
-        <f t="shared" ref="AS34:AT34" si="279">CONCATENATE("solar",UPPER(LEFT(AS32,1)), "C",AS31)</f>
+      <c r="AU34" t="str">
+        <f t="shared" ref="AU34:AV34" si="299">CONCATENATE("solar",UPPER(LEFT(AU32,1)), "C",AU31)</f>
         <v>solarLC30</v>
       </c>
-      <c r="AT34" t="str">
-        <f t="shared" si="279"/>
+      <c r="AV34" t="str">
+        <f t="shared" si="299"/>
         <v>solarLC30</v>
-      </c>
-      <c r="AU34" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(AU32,1)), "C",AU31)</f>
-        <v>solarLC0</v>
-      </c>
-      <c r="AV34" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(AV32,1)), "C",AV31)</f>
-        <v>solarLC0</v>
       </c>
       <c r="AW34" t="str">
         <f>CONCATENATE("solar",UPPER(LEFT(AW32,1)), "C",AW31)</f>
         <v>solarLC0</v>
       </c>
-    </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX34" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(AX32,1)), "C",AX31)</f>
+        <v>solarLC0</v>
+      </c>
+      <c r="AY34" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(AY32,1)), "C",AY31)</f>
+        <v>solarLC0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>279</v>
       </c>
@@ -8923,394 +9179,416 @@
       <c r="AW35" s="21">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX35" s="21">
+        <v>80</v>
+      </c>
+      <c r="AY35" s="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>281</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ref="C36:W36" si="280">IF(C35=80,"", CONCATENATE("W",C35))</f>
+        <f t="shared" ref="C36:W36" si="300">IF(C35=80,"", CONCATENATE("W",C35))</f>
         <v/>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="F36" t="str">
-        <f t="shared" ref="F36" si="281">IF(F35=80,"", CONCATENATE("W",F35))</f>
+        <f t="shared" ref="F36" si="301">IF(F35=80,"", CONCATENATE("W",F35))</f>
         <v/>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="L36" t="str">
-        <f t="shared" ref="L36:M36" si="282">IF(L35=80,"", CONCATENATE("W",L35))</f>
+        <f t="shared" ref="L36:M36" si="302">IF(L35=80,"", CONCATENATE("W",L35))</f>
         <v/>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="282"/>
+        <f t="shared" si="302"/>
         <v/>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v>W120</v>
       </c>
       <c r="V36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="X36" t="str">
-        <f t="shared" ref="X36:AC36" si="283">IF(X35=80,"", CONCATENATE("W",X35))</f>
+        <f t="shared" ref="X36:AC36" si="303">IF(X35=80,"", CONCATENATE("W",X35))</f>
         <v>W120</v>
       </c>
       <c r="Y36" t="str">
-        <f t="shared" si="283"/>
+        <f t="shared" si="303"/>
         <v/>
       </c>
       <c r="Z36" t="str">
-        <f t="shared" si="283"/>
+        <f t="shared" si="303"/>
         <v/>
       </c>
       <c r="AA36" t="str">
-        <f t="shared" si="283"/>
+        <f t="shared" si="303"/>
         <v/>
       </c>
       <c r="AB36" t="str">
-        <f t="shared" si="283"/>
+        <f t="shared" si="303"/>
         <v/>
       </c>
       <c r="AC36" t="str">
-        <f t="shared" si="283"/>
+        <f t="shared" si="303"/>
         <v/>
       </c>
       <c r="AD36" t="str">
-        <f t="shared" ref="AD36:AF36" si="284">IF(AD35=80,"", CONCATENATE("W",AD35))</f>
+        <f t="shared" ref="AD36:AF36" si="304">IF(AD35=80,"", CONCATENATE("W",AD35))</f>
         <v/>
       </c>
       <c r="AE36" t="str">
-        <f t="shared" ref="AE36" si="285">IF(AE35=80,"", CONCATENATE("W",AE35))</f>
+        <f t="shared" ref="AE36" si="305">IF(AE35=80,"", CONCATENATE("W",AE35))</f>
         <v/>
       </c>
       <c r="AF36" t="str">
-        <f t="shared" si="284"/>
+        <f t="shared" si="304"/>
         <v/>
       </c>
       <c r="AG36" t="str">
-        <f t="shared" ref="AG36:AH36" si="286">IF(AG35=80,"", CONCATENATE("W",AG35))</f>
+        <f t="shared" ref="AG36:AH36" si="306">IF(AG35=80,"", CONCATENATE("W",AG35))</f>
         <v/>
       </c>
       <c r="AH36" t="str">
-        <f t="shared" si="286"/>
+        <f t="shared" si="306"/>
         <v/>
       </c>
       <c r="AI36" t="str">
-        <f t="shared" ref="AI36" si="287">IF(AI35=80,"", CONCATENATE("W",AI35))</f>
+        <f t="shared" ref="AI36" si="307">IF(AI35=80,"", CONCATENATE("W",AI35))</f>
         <v/>
       </c>
       <c r="AJ36" t="str">
-        <f t="shared" ref="AJ36:AK36" si="288">IF(AJ35=80,"", CONCATENATE("W",AJ35))</f>
+        <f t="shared" ref="AJ36:AK36" si="308">IF(AJ35=80,"", CONCATENATE("W",AJ35))</f>
         <v/>
       </c>
       <c r="AK36" t="str">
-        <f t="shared" si="288"/>
+        <f t="shared" si="308"/>
         <v/>
       </c>
       <c r="AL36" t="str">
-        <f t="shared" ref="AL36" si="289">IF(AL35=80,"", CONCATENATE("W",AL35))</f>
+        <f t="shared" ref="AL36" si="309">IF(AL35=80,"", CONCATENATE("W",AL35))</f>
         <v/>
       </c>
       <c r="AM36" t="str">
-        <f t="shared" ref="AM36:AN36" si="290">IF(AM35=80,"", CONCATENATE("W",AM35))</f>
+        <f t="shared" ref="AM36:AN36" si="310">IF(AM35=80,"", CONCATENATE("W",AM35))</f>
         <v/>
       </c>
       <c r="AN36" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" si="310"/>
         <v/>
       </c>
       <c r="AO36" t="str">
-        <f t="shared" ref="AO36:AR36" si="291">IF(AO35=80,"", CONCATENATE("W",AO35))</f>
+        <f t="shared" ref="AO36:AT36" si="311">IF(AO35=80,"", CONCATENATE("W",AO35))</f>
         <v/>
       </c>
       <c r="AP36" t="str">
-        <f t="shared" ref="AP36:AQ36" si="292">IF(AP35=80,"", CONCATENATE("W",AP35))</f>
+        <f t="shared" si="311"/>
         <v/>
       </c>
       <c r="AQ36" t="str">
-        <f t="shared" si="292"/>
+        <f t="shared" ref="AQ36:AR36" si="312">IF(AQ35=80,"", CONCATENATE("W",AQ35))</f>
         <v/>
       </c>
       <c r="AR36" t="str">
-        <f t="shared" si="291"/>
+        <f t="shared" si="312"/>
         <v/>
       </c>
       <c r="AS36" t="str">
-        <f t="shared" ref="AS36:AT36" si="293">IF(AS35=80,"", CONCATENATE("W",AS35))</f>
+        <f t="shared" ref="AS36" si="313">IF(AS35=80,"", CONCATENATE("W",AS35))</f>
         <v/>
       </c>
       <c r="AT36" t="str">
-        <f t="shared" si="293"/>
+        <f t="shared" si="311"/>
         <v/>
       </c>
       <c r="AU36" t="str">
-        <f>IF(AU35=80,"", CONCATENATE("W",AU35))</f>
+        <f t="shared" ref="AU36:AV36" si="314">IF(AU35=80,"", CONCATENATE("W",AU35))</f>
         <v/>
       </c>
       <c r="AV36" t="str">
-        <f>IF(AV35=80,"", CONCATENATE("W",AV35))</f>
+        <f t="shared" si="314"/>
         <v/>
       </c>
       <c r="AW36" t="str">
         <f>IF(AW35=80,"", CONCATENATE("W",AW35))</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX36" t="str">
+        <f>IF(AX35=80,"", CONCATENATE("W",AX35))</f>
+        <v/>
+      </c>
+      <c r="AY36" t="str">
+        <f>IF(AY35=80,"", CONCATENATE("W",AY35))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>282</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ref="C37:W37" si="294">CONCATENATE("W",C35)</f>
+        <f t="shared" ref="C37:W37" si="315">CONCATENATE("W",C35)</f>
         <v>W80</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" ref="F37" si="295">CONCATENATE("W",F35)</f>
+        <f t="shared" ref="F37" si="316">CONCATENATE("W",F35)</f>
         <v>W80</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" ref="L37:M37" si="296">CONCATENATE("W",L35)</f>
+        <f t="shared" ref="L37:M37" si="317">CONCATENATE("W",L35)</f>
         <v>W80</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="296"/>
+        <f t="shared" si="317"/>
         <v>W80</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W120</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="315"/>
         <v>W80</v>
       </c>
       <c r="X37" t="str">
-        <f t="shared" ref="X37:AC37" si="297">CONCATENATE("W",X35)</f>
+        <f t="shared" ref="X37:AC37" si="318">CONCATENATE("W",X35)</f>
         <v>W120</v>
       </c>
       <c r="Y37" t="str">
-        <f t="shared" si="297"/>
+        <f t="shared" si="318"/>
         <v>W80</v>
       </c>
       <c r="Z37" t="str">
-        <f t="shared" si="297"/>
+        <f t="shared" si="318"/>
         <v>W80</v>
       </c>
       <c r="AA37" t="str">
-        <f t="shared" si="297"/>
+        <f t="shared" si="318"/>
         <v>W80</v>
       </c>
       <c r="AB37" t="str">
-        <f t="shared" si="297"/>
+        <f t="shared" si="318"/>
         <v>W80</v>
       </c>
       <c r="AC37" t="str">
-        <f t="shared" si="297"/>
+        <f t="shared" si="318"/>
         <v>W80</v>
       </c>
       <c r="AD37" t="str">
-        <f t="shared" ref="AD37:AF37" si="298">CONCATENATE("W",AD35)</f>
+        <f t="shared" ref="AD37:AF37" si="319">CONCATENATE("W",AD35)</f>
         <v>W80</v>
       </c>
       <c r="AE37" t="str">
-        <f t="shared" ref="AE37" si="299">CONCATENATE("W",AE35)</f>
+        <f t="shared" ref="AE37" si="320">CONCATENATE("W",AE35)</f>
         <v>W80</v>
       </c>
       <c r="AF37" t="str">
-        <f t="shared" si="298"/>
+        <f t="shared" si="319"/>
         <v>W80</v>
       </c>
       <c r="AG37" t="str">
-        <f t="shared" ref="AG37:AH37" si="300">CONCATENATE("W",AG35)</f>
+        <f t="shared" ref="AG37:AH37" si="321">CONCATENATE("W",AG35)</f>
         <v>W80</v>
       </c>
       <c r="AH37" t="str">
-        <f t="shared" si="300"/>
+        <f t="shared" si="321"/>
         <v>W80</v>
       </c>
       <c r="AI37" t="str">
-        <f t="shared" ref="AI37" si="301">CONCATENATE("W",AI35)</f>
+        <f t="shared" ref="AI37" si="322">CONCATENATE("W",AI35)</f>
         <v>W80</v>
       </c>
       <c r="AJ37" t="str">
-        <f t="shared" ref="AJ37:AK37" si="302">CONCATENATE("W",AJ35)</f>
+        <f t="shared" ref="AJ37:AK37" si="323">CONCATENATE("W",AJ35)</f>
         <v>W80</v>
       </c>
       <c r="AK37" t="str">
-        <f t="shared" si="302"/>
+        <f t="shared" si="323"/>
         <v>W80</v>
       </c>
       <c r="AL37" t="str">
-        <f t="shared" ref="AL37" si="303">CONCATENATE("W",AL35)</f>
+        <f t="shared" ref="AL37" si="324">CONCATENATE("W",AL35)</f>
         <v>W80</v>
       </c>
       <c r="AM37" t="str">
-        <f t="shared" ref="AM37:AN37" si="304">CONCATENATE("W",AM35)</f>
+        <f t="shared" ref="AM37:AN37" si="325">CONCATENATE("W",AM35)</f>
         <v>W80</v>
       </c>
       <c r="AN37" t="str">
-        <f t="shared" si="304"/>
+        <f t="shared" si="325"/>
         <v>W80</v>
       </c>
       <c r="AO37" t="str">
-        <f t="shared" ref="AO37:AR37" si="305">CONCATENATE("W",AO35)</f>
+        <f t="shared" ref="AO37:AT37" si="326">CONCATENATE("W",AO35)</f>
         <v>W80</v>
       </c>
       <c r="AP37" t="str">
-        <f t="shared" ref="AP37:AQ37" si="306">CONCATENATE("W",AP35)</f>
+        <f t="shared" si="326"/>
         <v>W80</v>
       </c>
       <c r="AQ37" t="str">
-        <f t="shared" si="306"/>
+        <f t="shared" ref="AQ37:AR37" si="327">CONCATENATE("W",AQ35)</f>
         <v>W80</v>
       </c>
       <c r="AR37" t="str">
-        <f t="shared" si="305"/>
+        <f t="shared" si="327"/>
         <v>W80</v>
       </c>
       <c r="AS37" t="str">
-        <f t="shared" ref="AS37:AT37" si="307">CONCATENATE("W",AS35)</f>
+        <f t="shared" ref="AS37" si="328">CONCATENATE("W",AS35)</f>
         <v>W80</v>
       </c>
       <c r="AT37" t="str">
-        <f t="shared" si="307"/>
+        <f t="shared" si="326"/>
         <v>W80</v>
       </c>
       <c r="AU37" t="str">
-        <f>CONCATENATE("W",AU35)</f>
+        <f t="shared" ref="AU37:AV37" si="329">CONCATENATE("W",AU35)</f>
         <v>W80</v>
       </c>
       <c r="AV37" t="str">
-        <f>CONCATENATE("W",AV35)</f>
+        <f t="shared" si="329"/>
         <v>W80</v>
       </c>
       <c r="AW37" t="str">
         <f>CONCATENATE("W",AW35)</f>
         <v>W80</v>
       </c>
-    </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX37" t="str">
+        <f>CONCATENATE("W",AX35)</f>
+        <v>W80</v>
+      </c>
+      <c r="AY37" t="str">
+        <f>CONCATENATE("W",AY35)</f>
+        <v>W80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>283</v>
       </c>
@@ -9458,394 +9736,416 @@
       <c r="AW38" s="21" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="AY38" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>288</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ref="C39:W39" si="308">IF(C38="0d", "", CONCATENATE("S",C38))</f>
+        <f t="shared" ref="C39:W39" si="330">IF(C38="0d", "", CONCATENATE("S",C38))</f>
         <v/>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="F39" t="str">
-        <f t="shared" ref="F39" si="309">IF(F38="0d", "", CONCATENATE("S",F38))</f>
+        <f t="shared" ref="F39" si="331">IF(F38="0d", "", CONCATENATE("S",F38))</f>
         <v/>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="L39" t="str">
-        <f t="shared" ref="L39:M39" si="310">IF(L38="0d", "", CONCATENATE("S",L38))</f>
+        <f t="shared" ref="L39:M39" si="332">IF(L38="0d", "", CONCATENATE("S",L38))</f>
         <v/>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="310"/>
+        <f t="shared" si="332"/>
         <v/>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="V39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v>S1A</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="330"/>
         <v>S90d</v>
       </c>
       <c r="X39" t="str">
-        <f t="shared" ref="X39:AC39" si="311">IF(X38="0d", "", CONCATENATE("S",X38))</f>
+        <f t="shared" ref="X39:AC39" si="333">IF(X38="0d", "", CONCATENATE("S",X38))</f>
         <v>S1A</v>
       </c>
       <c r="Y39" t="str">
-        <f t="shared" si="311"/>
+        <f t="shared" si="333"/>
         <v/>
       </c>
       <c r="Z39" t="str">
-        <f t="shared" si="311"/>
+        <f t="shared" si="333"/>
         <v/>
       </c>
       <c r="AA39" t="str">
-        <f t="shared" si="311"/>
+        <f t="shared" si="333"/>
         <v/>
       </c>
       <c r="AB39" t="str">
-        <f t="shared" si="311"/>
+        <f t="shared" si="333"/>
         <v/>
       </c>
       <c r="AC39" t="str">
-        <f t="shared" si="311"/>
+        <f t="shared" si="333"/>
         <v/>
       </c>
       <c r="AD39" t="str">
-        <f t="shared" ref="AD39:AF39" si="312">IF(AD38="0d", "", CONCATENATE("S",AD38))</f>
+        <f t="shared" ref="AD39:AF39" si="334">IF(AD38="0d", "", CONCATENATE("S",AD38))</f>
         <v/>
       </c>
       <c r="AE39" t="str">
-        <f t="shared" ref="AE39" si="313">IF(AE38="0d", "", CONCATENATE("S",AE38))</f>
+        <f t="shared" ref="AE39" si="335">IF(AE38="0d", "", CONCATENATE("S",AE38))</f>
         <v/>
       </c>
       <c r="AF39" t="str">
-        <f t="shared" si="312"/>
+        <f t="shared" si="334"/>
         <v/>
       </c>
       <c r="AG39" t="str">
-        <f t="shared" ref="AG39:AH39" si="314">IF(AG38="0d", "", CONCATENATE("S",AG38))</f>
+        <f t="shared" ref="AG39:AH39" si="336">IF(AG38="0d", "", CONCATENATE("S",AG38))</f>
         <v/>
       </c>
       <c r="AH39" t="str">
-        <f t="shared" si="314"/>
+        <f t="shared" si="336"/>
         <v/>
       </c>
       <c r="AI39" t="str">
-        <f t="shared" ref="AI39" si="315">IF(AI38="0d", "", CONCATENATE("S",AI38))</f>
+        <f t="shared" ref="AI39" si="337">IF(AI38="0d", "", CONCATENATE("S",AI38))</f>
         <v/>
       </c>
       <c r="AJ39" t="str">
-        <f t="shared" ref="AJ39:AK39" si="316">IF(AJ38="0d", "", CONCATENATE("S",AJ38))</f>
+        <f t="shared" ref="AJ39:AK39" si="338">IF(AJ38="0d", "", CONCATENATE("S",AJ38))</f>
         <v/>
       </c>
       <c r="AK39" t="str">
-        <f t="shared" si="316"/>
+        <f t="shared" si="338"/>
         <v/>
       </c>
       <c r="AL39" t="str">
-        <f t="shared" ref="AL39" si="317">IF(AL38="0d", "", CONCATENATE("S",AL38))</f>
+        <f t="shared" ref="AL39" si="339">IF(AL38="0d", "", CONCATENATE("S",AL38))</f>
         <v/>
       </c>
       <c r="AM39" t="str">
-        <f t="shared" ref="AM39:AN39" si="318">IF(AM38="0d", "", CONCATENATE("S",AM38))</f>
+        <f t="shared" ref="AM39:AN39" si="340">IF(AM38="0d", "", CONCATENATE("S",AM38))</f>
         <v/>
       </c>
       <c r="AN39" t="str">
-        <f t="shared" si="318"/>
+        <f t="shared" si="340"/>
         <v/>
       </c>
       <c r="AO39" t="str">
-        <f t="shared" ref="AO39:AR39" si="319">IF(AO38="0d", "", CONCATENATE("S",AO38))</f>
+        <f t="shared" ref="AO39:AT39" si="341">IF(AO38="0d", "", CONCATENATE("S",AO38))</f>
         <v/>
       </c>
       <c r="AP39" t="str">
-        <f t="shared" ref="AP39:AQ39" si="320">IF(AP38="0d", "", CONCATENATE("S",AP38))</f>
+        <f t="shared" si="341"/>
         <v/>
       </c>
       <c r="AQ39" t="str">
-        <f t="shared" si="320"/>
+        <f t="shared" ref="AQ39:AR39" si="342">IF(AQ38="0d", "", CONCATENATE("S",AQ38))</f>
         <v/>
       </c>
       <c r="AR39" t="str">
-        <f t="shared" si="319"/>
+        <f t="shared" si="342"/>
         <v/>
       </c>
       <c r="AS39" t="str">
-        <f t="shared" ref="AS39:AT39" si="321">IF(AS38="0d", "", CONCATENATE("S",AS38))</f>
+        <f t="shared" ref="AS39" si="343">IF(AS38="0d", "", CONCATENATE("S",AS38))</f>
         <v/>
       </c>
       <c r="AT39" t="str">
-        <f t="shared" si="321"/>
+        <f t="shared" si="341"/>
         <v/>
       </c>
       <c r="AU39" t="str">
-        <f>IF(AU38="0d", "", CONCATENATE("S",AU38))</f>
+        <f t="shared" ref="AU39:AV39" si="344">IF(AU38="0d", "", CONCATENATE("S",AU38))</f>
         <v/>
       </c>
       <c r="AV39" t="str">
-        <f>IF(AV38="0d", "", CONCATENATE("S",AV38))</f>
+        <f t="shared" si="344"/>
         <v/>
       </c>
       <c r="AW39" t="str">
         <f>IF(AW38="0d", "", CONCATENATE("S",AW38))</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX39" t="str">
+        <f>IF(AX38="0d", "", CONCATENATE("S",AX38))</f>
+        <v/>
+      </c>
+      <c r="AY39" t="str">
+        <f>IF(AY38="0d", "", CONCATENATE("S",AY38))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>289</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" ref="C40:W40" si="322">CONCATENATE("S",C38)</f>
+        <f t="shared" ref="C40:W40" si="345">CONCATENATE("S",C38)</f>
         <v>S0d</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S0d</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S0d</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" ref="F40" si="323">CONCATENATE("S",F38)</f>
+        <f t="shared" ref="F40" si="346">CONCATENATE("S",F38)</f>
         <v>S0d</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S0d</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S0d</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S0d</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S0d</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S0d</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" ref="L40:M40" si="324">CONCATENATE("S",L38)</f>
+        <f t="shared" ref="L40:M40" si="347">CONCATENATE("S",L38)</f>
         <v>S0d</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="324"/>
+        <f t="shared" si="347"/>
         <v>S0d</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S0d</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S0d</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S0d</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S0d</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S0d</v>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S0d</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S0d</v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S0d</v>
       </c>
       <c r="V40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S1A</v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="345"/>
         <v>S90d</v>
       </c>
       <c r="X40" t="str">
-        <f t="shared" ref="X40:AC40" si="325">CONCATENATE("S",X38)</f>
+        <f t="shared" ref="X40:AC40" si="348">CONCATENATE("S",X38)</f>
         <v>S1A</v>
       </c>
       <c r="Y40" t="str">
-        <f t="shared" si="325"/>
+        <f t="shared" si="348"/>
         <v>S0d</v>
       </c>
       <c r="Z40" t="str">
-        <f t="shared" si="325"/>
+        <f t="shared" si="348"/>
         <v>S0d</v>
       </c>
       <c r="AA40" t="str">
-        <f t="shared" si="325"/>
+        <f t="shared" si="348"/>
         <v>S0d</v>
       </c>
       <c r="AB40" t="str">
-        <f t="shared" si="325"/>
+        <f t="shared" si="348"/>
         <v>S0d</v>
       </c>
       <c r="AC40" t="str">
-        <f t="shared" si="325"/>
+        <f t="shared" si="348"/>
         <v>S0d</v>
       </c>
       <c r="AD40" t="str">
-        <f t="shared" ref="AD40:AF40" si="326">CONCATENATE("S",AD38)</f>
+        <f t="shared" ref="AD40:AF40" si="349">CONCATENATE("S",AD38)</f>
         <v>S0d</v>
       </c>
       <c r="AE40" t="str">
-        <f t="shared" ref="AE40" si="327">CONCATENATE("S",AE38)</f>
+        <f t="shared" ref="AE40" si="350">CONCATENATE("S",AE38)</f>
         <v>S0d</v>
       </c>
       <c r="AF40" t="str">
-        <f t="shared" si="326"/>
+        <f t="shared" si="349"/>
         <v>S0d</v>
       </c>
       <c r="AG40" t="str">
-        <f t="shared" ref="AG40:AH40" si="328">CONCATENATE("S",AG38)</f>
+        <f t="shared" ref="AG40:AH40" si="351">CONCATENATE("S",AG38)</f>
         <v>S0d</v>
       </c>
       <c r="AH40" t="str">
-        <f t="shared" si="328"/>
+        <f t="shared" si="351"/>
         <v>S0d</v>
       </c>
       <c r="AI40" t="str">
-        <f t="shared" ref="AI40" si="329">CONCATENATE("S",AI38)</f>
+        <f t="shared" ref="AI40" si="352">CONCATENATE("S",AI38)</f>
         <v>S0d</v>
       </c>
       <c r="AJ40" t="str">
-        <f t="shared" ref="AJ40:AK40" si="330">CONCATENATE("S",AJ38)</f>
+        <f t="shared" ref="AJ40:AK40" si="353">CONCATENATE("S",AJ38)</f>
         <v>S0d</v>
       </c>
       <c r="AK40" t="str">
-        <f t="shared" si="330"/>
+        <f t="shared" si="353"/>
         <v>S0d</v>
       </c>
       <c r="AL40" t="str">
-        <f t="shared" ref="AL40" si="331">CONCATENATE("S",AL38)</f>
+        <f t="shared" ref="AL40" si="354">CONCATENATE("S",AL38)</f>
         <v>S0d</v>
       </c>
       <c r="AM40" t="str">
-        <f t="shared" ref="AM40:AN40" si="332">CONCATENATE("S",AM38)</f>
+        <f t="shared" ref="AM40:AN40" si="355">CONCATENATE("S",AM38)</f>
         <v>S0d</v>
       </c>
       <c r="AN40" t="str">
-        <f t="shared" si="332"/>
+        <f t="shared" si="355"/>
         <v>S0d</v>
       </c>
       <c r="AO40" t="str">
-        <f t="shared" ref="AO40:AR40" si="333">CONCATENATE("S",AO38)</f>
+        <f t="shared" ref="AO40:AT40" si="356">CONCATENATE("S",AO38)</f>
         <v>S0d</v>
       </c>
       <c r="AP40" t="str">
-        <f t="shared" ref="AP40:AQ40" si="334">CONCATENATE("S",AP38)</f>
+        <f t="shared" si="356"/>
         <v>S0d</v>
       </c>
       <c r="AQ40" t="str">
-        <f t="shared" si="334"/>
+        <f t="shared" ref="AQ40:AR40" si="357">CONCATENATE("S",AQ38)</f>
         <v>S0d</v>
       </c>
       <c r="AR40" t="str">
-        <f t="shared" si="333"/>
+        <f t="shared" si="357"/>
         <v>S0d</v>
       </c>
       <c r="AS40" t="str">
-        <f t="shared" ref="AS40:AT40" si="335">CONCATENATE("S",AS38)</f>
+        <f t="shared" ref="AS40" si="358">CONCATENATE("S",AS38)</f>
         <v>S0d</v>
       </c>
       <c r="AT40" t="str">
-        <f t="shared" si="335"/>
+        <f t="shared" si="356"/>
         <v>S0d</v>
       </c>
       <c r="AU40" t="str">
-        <f>CONCATENATE("S",AU38)</f>
+        <f t="shared" ref="AU40:AV40" si="359">CONCATENATE("S",AU38)</f>
         <v>S0d</v>
       </c>
       <c r="AV40" t="str">
-        <f>CONCATENATE("S",AV38)</f>
+        <f t="shared" si="359"/>
         <v>S0d</v>
       </c>
       <c r="AW40" t="str">
         <f>CONCATENATE("S",AW38)</f>
         <v>S0d</v>
       </c>
-    </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX40" t="str">
+        <f>CONCATENATE("S",AX38)</f>
+        <v>S0d</v>
+      </c>
+      <c r="AY40" t="str">
+        <f>CONCATENATE("S",AY38)</f>
+        <v>S0d</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>290</v>
       </c>
@@ -9991,201 +10291,215 @@
       <c r="AW41" s="21">
         <v>2014</v>
       </c>
-    </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX41" s="21">
+        <v>2014</v>
+      </c>
+      <c r="AY41" s="21">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>291</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" ref="C42:W42" si="336">IF(C41=2014,"",CONCATENATE("L",C41))</f>
+        <f t="shared" ref="C42:W42" si="360">IF(C41=2014,"",CONCATENATE("L",C41))</f>
         <v/>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="F42" t="str">
-        <f t="shared" ref="F42" si="337">IF(F41=2014,"",CONCATENATE("L",F41))</f>
+        <f t="shared" ref="F42" si="361">IF(F41=2014,"",CONCATENATE("L",F41))</f>
         <v/>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="L42" t="str">
-        <f t="shared" ref="L42:M42" si="338">IF(L41=2014,"",CONCATENATE("L",L41))</f>
+        <f t="shared" ref="L42:M42" si="362">IF(L41=2014,"",CONCATENATE("L",L41))</f>
         <v/>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="338"/>
+        <f t="shared" si="362"/>
         <v/>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="V42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="W42" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="X42" t="str">
-        <f t="shared" ref="X42:AC42" si="339">IF(X41=2014,"",CONCATENATE("L",X41))</f>
+        <f t="shared" ref="X42:AC42" si="363">IF(X41=2014,"",CONCATENATE("L",X41))</f>
         <v/>
       </c>
       <c r="Y42" t="str">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v/>
       </c>
       <c r="Z42" t="str">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v/>
       </c>
       <c r="AA42" t="str">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v/>
       </c>
       <c r="AB42" t="str">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v/>
       </c>
       <c r="AC42" t="str">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v/>
       </c>
       <c r="AD42" t="str">
-        <f t="shared" ref="AD42:AF42" si="340">IF(AD41=2014,"",CONCATENATE("L",AD41))</f>
+        <f t="shared" ref="AD42:AF42" si="364">IF(AD41=2014,"",CONCATENATE("L",AD41))</f>
         <v/>
       </c>
       <c r="AE42" t="str">
-        <f t="shared" ref="AE42" si="341">IF(AE41=2014,"",CONCATENATE("L",AE41))</f>
+        <f t="shared" ref="AE42" si="365">IF(AE41=2014,"",CONCATENATE("L",AE41))</f>
         <v/>
       </c>
       <c r="AF42" t="str">
-        <f t="shared" si="340"/>
+        <f t="shared" si="364"/>
         <v/>
       </c>
       <c r="AG42" t="str">
-        <f t="shared" ref="AG42:AH42" si="342">IF(AG41=2014,"",CONCATENATE("L",AG41))</f>
+        <f t="shared" ref="AG42:AH42" si="366">IF(AG41=2014,"",CONCATENATE("L",AG41))</f>
         <v/>
       </c>
       <c r="AH42" t="str">
-        <f t="shared" si="342"/>
+        <f t="shared" si="366"/>
         <v/>
       </c>
       <c r="AI42" t="str">
-        <f t="shared" ref="AI42" si="343">IF(AI41=2014,"",CONCATENATE("L",AI41))</f>
+        <f t="shared" ref="AI42" si="367">IF(AI41=2014,"",CONCATENATE("L",AI41))</f>
         <v/>
       </c>
       <c r="AJ42" t="str">
-        <f t="shared" ref="AJ42:AK42" si="344">IF(AJ41=2014,"",CONCATENATE("L",AJ41))</f>
+        <f t="shared" ref="AJ42:AK42" si="368">IF(AJ41=2014,"",CONCATENATE("L",AJ41))</f>
         <v/>
       </c>
       <c r="AK42" t="str">
-        <f t="shared" si="344"/>
+        <f t="shared" si="368"/>
         <v/>
       </c>
       <c r="AL42" t="str">
-        <f t="shared" ref="AL42" si="345">IF(AL41=2014,"",CONCATENATE("L",AL41))</f>
+        <f t="shared" ref="AL42" si="369">IF(AL41=2014,"",CONCATENATE("L",AL41))</f>
         <v/>
       </c>
       <c r="AM42" t="str">
-        <f t="shared" ref="AM42:AN42" si="346">IF(AM41=2014,"",CONCATENATE("L",AM41))</f>
+        <f t="shared" ref="AM42:AN42" si="370">IF(AM41=2014,"",CONCATENATE("L",AM41))</f>
         <v/>
       </c>
       <c r="AN42" t="str">
-        <f t="shared" si="346"/>
+        <f t="shared" si="370"/>
         <v/>
       </c>
       <c r="AO42" t="str">
-        <f t="shared" ref="AO42:AR42" si="347">IF(AO41=2014,"",CONCATENATE("L",AO41))</f>
+        <f t="shared" ref="AO42:AT42" si="371">IF(AO41=2014,"",CONCATENATE("L",AO41))</f>
         <v/>
       </c>
       <c r="AP42" t="str">
-        <f t="shared" ref="AP42:AQ42" si="348">IF(AP41=2014,"",CONCATENATE("L",AP41))</f>
+        <f t="shared" si="371"/>
         <v/>
       </c>
       <c r="AQ42" t="str">
-        <f t="shared" si="348"/>
+        <f t="shared" ref="AQ42:AR42" si="372">IF(AQ41=2014,"",CONCATENATE("L",AQ41))</f>
         <v/>
       </c>
       <c r="AR42" t="str">
-        <f t="shared" si="347"/>
+        <f t="shared" si="372"/>
         <v/>
       </c>
       <c r="AS42" t="str">
-        <f t="shared" ref="AS42:AT42" si="349">IF(AS41=2014,"",CONCATENATE("L",AS41))</f>
+        <f t="shared" ref="AS42" si="373">IF(AS41=2014,"",CONCATENATE("L",AS41))</f>
         <v/>
       </c>
       <c r="AT42" t="str">
-        <f t="shared" si="349"/>
+        <f t="shared" si="371"/>
         <v/>
       </c>
       <c r="AU42" t="str">
-        <f>IF(AU41=2014,"",CONCATENATE("L",AU41))</f>
+        <f t="shared" ref="AU42:AV42" si="374">IF(AU41=2014,"",CONCATENATE("L",AU41))</f>
         <v/>
       </c>
       <c r="AV42" t="str">
-        <f>IF(AV41=2014,"",CONCATENATE("L",AV41))</f>
+        <f t="shared" si="374"/>
         <v/>
       </c>
       <c r="AW42" t="str">
         <f>IF(AW41=2014,"",CONCATENATE("L",AW41))</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX42" t="str">
+        <f>IF(AX41=2014,"",CONCATENATE("L",AX41))</f>
+        <v/>
+      </c>
+      <c r="AY42" t="str">
+        <f>IF(AY41=2014,"",CONCATENATE("L",AY41))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>292</v>
       </c>
@@ -10325,209 +10639,223 @@
         <v>294</v>
       </c>
       <c r="AU43" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV43" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW43" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="AV43" s="21" t="s">
+      <c r="AX43" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="AW43" s="21" t="s">
+      <c r="AY43" s="21" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>295</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" ref="C44:W44" si="350">IF(C43="none","",CONCATENATE("L",C43))</f>
+        <f t="shared" ref="C44:W44" si="375">IF(C43="none","",CONCATENATE("L",C43))</f>
         <v/>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="F44" t="str">
-        <f t="shared" ref="F44" si="351">IF(F43="none","",CONCATENATE("L",F43))</f>
+        <f t="shared" ref="F44" si="376">IF(F43="none","",CONCATENATE("L",F43))</f>
         <v/>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="L44" t="str">
-        <f t="shared" ref="L44:M44" si="352">IF(L43="none","",CONCATENATE("L",L43))</f>
+        <f t="shared" ref="L44:M44" si="377">IF(L43="none","",CONCATENATE("L",L43))</f>
         <v/>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="352"/>
+        <f t="shared" si="377"/>
         <v/>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="V44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="W44" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="X44" t="str">
-        <f t="shared" ref="X44:AC44" si="353">IF(X43="none","",CONCATENATE("L",X43))</f>
+        <f t="shared" ref="X44:AC44" si="378">IF(X43="none","",CONCATENATE("L",X43))</f>
         <v/>
       </c>
       <c r="Y44" t="str">
-        <f t="shared" si="353"/>
+        <f t="shared" si="378"/>
         <v/>
       </c>
       <c r="Z44" t="str">
-        <f t="shared" si="353"/>
+        <f t="shared" si="378"/>
         <v/>
       </c>
       <c r="AA44" t="str">
-        <f t="shared" si="353"/>
+        <f t="shared" si="378"/>
         <v/>
       </c>
       <c r="AB44" t="str">
-        <f t="shared" si="353"/>
+        <f t="shared" si="378"/>
         <v/>
       </c>
       <c r="AC44" t="str">
-        <f t="shared" si="353"/>
+        <f t="shared" si="378"/>
         <v/>
       </c>
       <c r="AD44" t="str">
-        <f t="shared" ref="AD44:AF44" si="354">IF(AD43="none","",CONCATENATE("L",AD43))</f>
+        <f t="shared" ref="AD44:AF44" si="379">IF(AD43="none","",CONCATENATE("L",AD43))</f>
         <v/>
       </c>
       <c r="AE44" t="str">
-        <f t="shared" ref="AE44" si="355">IF(AE43="none","",CONCATENATE("L",AE43))</f>
+        <f t="shared" ref="AE44" si="380">IF(AE43="none","",CONCATENATE("L",AE43))</f>
         <v/>
       </c>
       <c r="AF44" t="str">
-        <f t="shared" si="354"/>
+        <f t="shared" si="379"/>
         <v/>
       </c>
       <c r="AG44" t="str">
-        <f t="shared" ref="AG44:AH44" si="356">IF(AG43="none","",CONCATENATE("L",AG43))</f>
+        <f t="shared" ref="AG44:AH44" si="381">IF(AG43="none","",CONCATENATE("L",AG43))</f>
         <v/>
       </c>
       <c r="AH44" t="str">
-        <f t="shared" si="356"/>
+        <f t="shared" si="381"/>
         <v/>
       </c>
       <c r="AI44" t="str">
-        <f t="shared" ref="AI44" si="357">IF(AI43="none","",CONCATENATE("L",AI43))</f>
+        <f t="shared" ref="AI44" si="382">IF(AI43="none","",CONCATENATE("L",AI43))</f>
         <v/>
       </c>
       <c r="AJ44" t="str">
-        <f t="shared" ref="AJ44:AK44" si="358">IF(AJ43="none","",CONCATENATE("L",AJ43))</f>
+        <f t="shared" ref="AJ44:AK44" si="383">IF(AJ43="none","",CONCATENATE("L",AJ43))</f>
         <v/>
       </c>
       <c r="AK44" t="str">
-        <f t="shared" si="358"/>
+        <f t="shared" si="383"/>
         <v/>
       </c>
       <c r="AL44" t="str">
-        <f t="shared" ref="AL44" si="359">IF(AL43="none","",CONCATENATE("L",AL43))</f>
+        <f t="shared" ref="AL44" si="384">IF(AL43="none","",CONCATENATE("L",AL43))</f>
         <v/>
       </c>
       <c r="AM44" t="str">
-        <f t="shared" ref="AM44:AN44" si="360">IF(AM43="none","",CONCATENATE("L",AM43))</f>
+        <f t="shared" ref="AM44:AN44" si="385">IF(AM43="none","",CONCATENATE("L",AM43))</f>
         <v/>
       </c>
       <c r="AN44" t="str">
-        <f t="shared" si="360"/>
+        <f t="shared" si="385"/>
         <v/>
       </c>
       <c r="AO44" t="str">
-        <f t="shared" ref="AO44:AR44" si="361">IF(AO43="none","",CONCATENATE("L",AO43))</f>
+        <f t="shared" ref="AO44:AT44" si="386">IF(AO43="none","",CONCATENATE("L",AO43))</f>
         <v/>
       </c>
       <c r="AP44" t="str">
-        <f t="shared" ref="AP44:AQ44" si="362">IF(AP43="none","",CONCATENATE("L",AP43))</f>
+        <f t="shared" si="386"/>
         <v/>
       </c>
       <c r="AQ44" t="str">
-        <f t="shared" si="362"/>
+        <f t="shared" ref="AQ44:AR44" si="387">IF(AQ43="none","",CONCATENATE("L",AQ43))</f>
         <v/>
       </c>
       <c r="AR44" t="str">
-        <f t="shared" si="361"/>
+        <f t="shared" si="387"/>
         <v/>
       </c>
       <c r="AS44" t="str">
-        <f t="shared" ref="AS44:AT44" si="363">IF(AS43="none","",CONCATENATE("L",AS43))</f>
+        <f t="shared" ref="AS44" si="388">IF(AS43="none","",CONCATENATE("L",AS43))</f>
         <v/>
       </c>
       <c r="AT44" t="str">
-        <f t="shared" si="363"/>
+        <f t="shared" si="386"/>
         <v/>
       </c>
       <c r="AU44" t="str">
-        <f>IF(AU43="none","",CONCATENATE("L",AU43))</f>
-        <v>Lmod_D0_M0_energyOnly</v>
+        <f t="shared" ref="AU44:AV44" si="389">IF(AU43="none","",CONCATENATE("L",AU43))</f>
+        <v/>
       </c>
       <c r="AV44" t="str">
-        <f>IF(AV43="none","",CONCATENATE("L",AV43))</f>
-        <v>Lmod_D50_M0_energyOnly</v>
+        <f t="shared" si="389"/>
+        <v/>
       </c>
       <c r="AW44" t="str">
         <f>IF(AW43="none","",CONCATENATE("L",AW43))</f>
+        <v>Lmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AX44" t="str">
+        <f>IF(AX43="none","",CONCATENATE("L",AX43))</f>
+        <v>Lmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AY44" t="str">
+        <f>IF(AY43="none","",CONCATENATE("L",AY43))</f>
         <v>Lmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
         <v>296</v>
       </c>
@@ -10675,8 +11003,14 @@
       <c r="AW45" s="21" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX45" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="AY45" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>299</v>
       </c>
@@ -10821,197 +11155,211 @@
       <c r="AW46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>300</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" ref="C47:W47" si="364">IF(C45="RT","",CONCATENATE(C45,C46))</f>
+        <f t="shared" ref="C47:W47" si="390">IF(C45="RT","",CONCATENATE(C45,C46))</f>
         <v/>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="F47" t="str">
-        <f t="shared" ref="F47" si="365">IF(F45="RT","",CONCATENATE(F45,F46))</f>
+        <f t="shared" ref="F47" si="391">IF(F45="RT","",CONCATENATE(F45,F46))</f>
         <v/>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="L47" t="str">
-        <f t="shared" ref="L47:M47" si="366">IF(L45="RT","",CONCATENATE(L45,L46))</f>
+        <f t="shared" ref="L47:M47" si="392">IF(L45="RT","",CONCATENATE(L45,L46))</f>
         <v/>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="366"/>
+        <f t="shared" si="392"/>
         <v/>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="V47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="W47" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="X47" t="str">
-        <f t="shared" ref="X47:AC47" si="367">IF(X45="RT","",CONCATENATE(X45,X46))</f>
+        <f t="shared" ref="X47:AC47" si="393">IF(X45="RT","",CONCATENATE(X45,X46))</f>
         <v/>
       </c>
       <c r="Y47" t="str">
-        <f t="shared" si="367"/>
+        <f t="shared" si="393"/>
         <v/>
       </c>
       <c r="Z47" t="str">
-        <f t="shared" si="367"/>
+        <f t="shared" si="393"/>
         <v/>
       </c>
       <c r="AA47" t="str">
-        <f t="shared" si="367"/>
+        <f t="shared" si="393"/>
         <v/>
       </c>
       <c r="AB47" t="str">
-        <f t="shared" si="367"/>
+        <f t="shared" si="393"/>
         <v/>
       </c>
       <c r="AC47" t="str">
-        <f t="shared" si="367"/>
+        <f t="shared" si="393"/>
         <v/>
       </c>
       <c r="AD47" t="str">
-        <f t="shared" ref="AD47:AF47" si="368">IF(AD45="RT","",CONCATENATE(AD45,AD46))</f>
+        <f t="shared" ref="AD47:AF47" si="394">IF(AD45="RT","",CONCATENATE(AD45,AD46))</f>
         <v/>
       </c>
       <c r="AE47" t="str">
-        <f t="shared" ref="AE47" si="369">IF(AE45="RT","",CONCATENATE(AE45,AE46))</f>
+        <f t="shared" ref="AE47" si="395">IF(AE45="RT","",CONCATENATE(AE45,AE46))</f>
         <v/>
       </c>
       <c r="AF47" t="str">
-        <f t="shared" si="368"/>
+        <f t="shared" si="394"/>
         <v/>
       </c>
       <c r="AG47" t="str">
-        <f t="shared" ref="AG47:AH47" si="370">IF(AG45="RT","",CONCATENATE(AG45,AG46))</f>
+        <f t="shared" ref="AG47:AH47" si="396">IF(AG45="RT","",CONCATENATE(AG45,AG46))</f>
         <v/>
       </c>
       <c r="AH47" t="str">
-        <f t="shared" si="370"/>
+        <f t="shared" si="396"/>
         <v/>
       </c>
       <c r="AI47" t="str">
-        <f t="shared" ref="AI47" si="371">IF(AI45="RT","",CONCATENATE(AI45,AI46))</f>
+        <f t="shared" ref="AI47" si="397">IF(AI45="RT","",CONCATENATE(AI45,AI46))</f>
         <v/>
       </c>
       <c r="AJ47" t="str">
-        <f t="shared" ref="AJ47:AK47" si="372">IF(AJ45="RT","",CONCATENATE(AJ45,AJ46))</f>
+        <f t="shared" ref="AJ47:AK47" si="398">IF(AJ45="RT","",CONCATENATE(AJ45,AJ46))</f>
         <v/>
       </c>
       <c r="AK47" t="str">
-        <f t="shared" si="372"/>
+        <f t="shared" si="398"/>
         <v/>
       </c>
       <c r="AL47" t="str">
-        <f t="shared" ref="AL47" si="373">IF(AL45="RT","",CONCATENATE(AL45,AL46))</f>
+        <f t="shared" ref="AL47" si="399">IF(AL45="RT","",CONCATENATE(AL45,AL46))</f>
         <v/>
       </c>
       <c r="AM47" t="str">
-        <f t="shared" ref="AM47:AN47" si="374">IF(AM45="RT","",CONCATENATE(AM45,AM46))</f>
+        <f t="shared" ref="AM47:AN47" si="400">IF(AM45="RT","",CONCATENATE(AM45,AM46))</f>
         <v/>
       </c>
       <c r="AN47" t="str">
-        <f t="shared" si="374"/>
+        <f t="shared" si="400"/>
         <v/>
       </c>
       <c r="AO47" t="str">
-        <f t="shared" ref="AO47:AR47" si="375">IF(AO45="RT","",CONCATENATE(AO45,AO46))</f>
+        <f t="shared" ref="AO47:AT47" si="401">IF(AO45="RT","",CONCATENATE(AO45,AO46))</f>
         <v/>
       </c>
       <c r="AP47" t="str">
-        <f t="shared" ref="AP47:AQ47" si="376">IF(AP45="RT","",CONCATENATE(AP45,AP46))</f>
+        <f t="shared" si="401"/>
         <v/>
       </c>
       <c r="AQ47" t="str">
-        <f t="shared" si="376"/>
+        <f t="shared" ref="AQ47:AR47" si="402">IF(AQ45="RT","",CONCATENATE(AQ45,AQ46))</f>
         <v/>
       </c>
       <c r="AR47" t="str">
-        <f t="shared" si="375"/>
+        <f t="shared" si="402"/>
         <v/>
       </c>
       <c r="AS47" t="str">
-        <f t="shared" ref="AS47:AT47" si="377">IF(AS45="RT","",CONCATENATE(AS45,AS46))</f>
+        <f t="shared" ref="AS47" si="403">IF(AS45="RT","",CONCATENATE(AS45,AS46))</f>
         <v/>
       </c>
       <c r="AT47" t="str">
-        <f t="shared" si="377"/>
+        <f t="shared" si="401"/>
         <v/>
       </c>
       <c r="AU47" t="str">
-        <f>IF(AU45="RT","",CONCATENATE(AU45,AU46))</f>
+        <f t="shared" ref="AU47:AV47" si="404">IF(AU45="RT","",CONCATENATE(AU45,AU46))</f>
         <v/>
       </c>
       <c r="AV47" t="str">
-        <f>IF(AV45="RT","",CONCATENATE(AV45,AV46))</f>
+        <f t="shared" si="404"/>
         <v/>
       </c>
       <c r="AW47" t="str">
         <f>IF(AW45="RT","",CONCATENATE(AW45,AW46))</f>
+        <v/>
+      </c>
+      <c r="AX47" t="str">
+        <f>IF(AX45="RT","",CONCATENATE(AX45,AX46))</f>
+        <v/>
+      </c>
+      <c r="AY47" t="str">
+        <f>IF(AY45="RT","",CONCATENATE(AY45,AY46))</f>
         <v/>
       </c>
     </row>
@@ -11026,8 +11374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11989,10 +12337,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12001,6 +12349,7 @@
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -12307,7 +12656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -12354,17 +12703,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q19" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="R19">
+        <f>1423/((1+Q19)^10)</f>
+        <v>1058.8456408980398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="R21">
+        <f>(1+Q21)^P21</f>
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
         <v>107</v>
       </c>
@@ -12398,8 +12769,22 @@
       <c r="L22">
         <v>2017</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R22">
+        <f>(1+Q22)^P22</f>
+        <v>1.1876863056468745</v>
+      </c>
+      <c r="S22">
+        <f>S21*R22</f>
+        <v>7.7199609867046846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2008</v>
       </c>
@@ -12410,8 +12795,22 @@
         <v>1</v>
       </c>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R23">
+        <f>(1+Q23)^P23</f>
+        <v>1.410598760621121</v>
+      </c>
+      <c r="S23">
+        <f>S21*R23</f>
+        <v>9.168891944037286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2009</v>
       </c>
@@ -12426,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -12445,7 +12844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -12468,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2012</v>
       </c>
@@ -12495,7 +12894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -12526,7 +12925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2014</v>
       </c>
@@ -12561,7 +12960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -12600,7 +12999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -12643,7 +13042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2017</v>
       </c>
@@ -14190,8 +14589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL73"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16504,16 +16903,16 @@
         <v>1</v>
       </c>
       <c r="AG36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK36">
         <v>1</v>
@@ -19009,7 +19408,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19341,19 +19740,19 @@
       </c>
       <c r="P4" s="5">
         <f>'Screening curves'!AG36</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="5">
         <f>'Screening curves'!AH36</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4" s="5">
         <f>'Screening curves'!AI36</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4" s="5">
         <f>'Screening curves'!AJ36</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" s="5">
         <f>'Screening curves'!AK36</f>
